--- a/data/3nb reports.xlsx
+++ b/data/3nb reports.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dc152c07513850c/Documents/GitHub/DataAnalyzer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1467" documentId="13_ncr:1_{485E9516-1019-490E-A6D1-641EE38F9B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCE1B83-B263-44E3-BF5C-302E4F8302F7}"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$172:$F$172</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1948,7 +1948,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1966,10 +1966,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2005,8 +2003,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2023,20 +2020,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2047,13 +2042,12 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2073,7 +2067,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2089,14 +2083,14 @@
     <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2107,7 +2101,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -2410,8 +2404,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ADD2ECA1-9E5B-42A3-B569-7203D94C7531}" name="Table35" displayName="Table35" ref="A1:AB196" totalsRowCount="1">
   <autoFilter ref="A1:AB195" xr:uid="{ADD2ECA1-9E5B-42A3-B569-7203D94C7531}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{D0C1E876-1AC7-44CA-A340-E98424D41F21}" name="Client serial number" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{51C24738-B23C-4D86-BAD0-279047E39C3D}" name="Column1" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D0C1E876-1AC7-44CA-A340-E98424D41F21}" name="Client serial number" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{51C24738-B23C-4D86-BAD0-279047E39C3D}" name="Column1" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="10" xr3:uid="{43B3667A-E9CD-4CEF-B1A3-31E5368F602D}" name="Card creation date"/>
     <tableColumn id="34" xr3:uid="{41FF7D7F-3F46-44F7-9C23-AAB87C0AB286}" name="Sales person"/>
     <tableColumn id="2" xr3:uid="{2BC7847E-8C1D-489D-BDEF-EF91A6C2FC7B}" name="Company name" totalsRowLabel="CMCI" totalsRowDxfId="3"/>
@@ -2468,9 +2462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2508,7 +2502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2614,7 +2608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2756,7 +2750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2767,32 +2761,32 @@
   <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AC171"/>
+      <selection activeCell="F29" sqref="B2:AC171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2813,7 +2807,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -2877,37 +2871,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="55" customFormat="1">
-      <c r="B2" s="52">
+    <row r="2" spans="1:29" s="50" customFormat="1" ht="14.4">
+      <c r="B2" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1001</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G2" s="54">
+      <c r="F2" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G2" s="49">
         <v>45957</v>
       </c>
-      <c r="Z2" s="55">
+      <c r="Z2" s="50">
         <f ca="1">B1:Z37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="B3" s="24">
+    <row r="3" spans="1:29" ht="14.4">
+      <c r="B3" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1002</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="F3" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G3" s="11">
         <v>45939</v>
       </c>
       <c r="Z3">
@@ -2915,43 +2909,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="55" customFormat="1">
-      <c r="B4" s="52">
+    <row r="4" spans="1:29" s="50" customFormat="1" ht="14.4">
+      <c r="B4" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1003</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F4" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G4" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z4" s="56">
+      <c r="D4" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F4" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G4" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z4" s="50">
         <f ca="1">B3:Z39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="B5" s="24">
+    <row r="5" spans="1:29" ht="14.4">
+      <c r="B5" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1004</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F5" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="D5" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G5" s="11">
         <v>45907</v>
       </c>
       <c r="Z5">
@@ -2959,21 +2953,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
-      <c r="B6" s="24">
+    <row r="6" spans="1:29" ht="14.4">
+      <c r="B6" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1005</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F6" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="D6" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F6" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G6" s="11">
         <v>45907</v>
       </c>
       <c r="Z6">
@@ -2981,30 +2975,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
-      <c r="B7" s="24">
+    <row r="7" spans="1:29" ht="14.4">
+      <c r="B7" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1006</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F7" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G7" s="13">
-        <v>45907</v>
-      </c>
-      <c r="H7" s="13">
-        <v>45907</v>
-      </c>
-      <c r="K7" s="13">
-        <v>45907</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="D7" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H7" s="11">
+        <v>45907</v>
+      </c>
+      <c r="K7" s="11">
+        <v>45907</v>
+      </c>
+      <c r="M7" s="11">
         <v>45907</v>
       </c>
       <c r="Z7">
@@ -3012,27 +3006,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
-      <c r="B8" s="24">
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="B8" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1007</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F8" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G8" s="13">
-        <v>45907</v>
-      </c>
-      <c r="H8" s="13">
-        <v>45907</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="D8" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F8" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45907</v>
+      </c>
+      <c r="L8" s="11">
         <v>45907</v>
       </c>
       <c r="Z8">
@@ -3040,24 +3034,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
-      <c r="B9" s="24">
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="B9" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1008</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G9" s="13">
-        <v>45907</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="D9" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45907</v>
+      </c>
+      <c r="L9" s="11">
         <v>45907</v>
       </c>
       <c r="Z9">
@@ -3065,21 +3059,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="B10" s="24">
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="B10" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1009</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F10" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="D10" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F10" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G10" s="11">
         <v>45907</v>
       </c>
       <c r="Z10">
@@ -3087,24 +3081,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="B11" s="24">
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="B11" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1010</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F11" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G11" s="13">
-        <v>45907</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="D11" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G11" s="11">
+        <v>45907</v>
+      </c>
+      <c r="L11" s="11">
         <v>45907</v>
       </c>
       <c r="Z11">
@@ -3112,52 +3106,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="55" customFormat="1">
-      <c r="B12" s="52">
+    <row r="12" spans="1:29" s="50" customFormat="1" ht="14.4">
+      <c r="B12" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1011</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F12" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G12" s="54">
-        <v>45907</v>
-      </c>
-      <c r="H12" s="55" t="s">
+      <c r="D12" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F12" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G12" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="54">
-        <v>45907</v>
-      </c>
-      <c r="N12" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z12" s="55">
+      <c r="K12" s="49">
+        <v>45907</v>
+      </c>
+      <c r="N12" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z12" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="B13" s="25">
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="B13" s="23">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1012</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="D13" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G13" s="11">
         <v>45907</v>
       </c>
       <c r="Z13">
@@ -3165,58 +3159,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="81" customFormat="1">
-      <c r="B14" s="52">
+    <row r="14" spans="1:29" s="75" customFormat="1" ht="14.4">
+      <c r="B14" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1013</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="F14" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="H14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="J14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="K14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="N14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="O14" s="93">
-        <v>45907</v>
-      </c>
-      <c r="Z14" s="81">
+      <c r="D14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="F14" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="H14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="J14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="K14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="N14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="O14" s="87">
+        <v>45907</v>
+      </c>
+      <c r="Z14" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
-      <c r="B15" s="24">
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="B15" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1014</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="D15" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G15" s="11">
         <v>45907</v>
       </c>
       <c r="Z15">
@@ -3224,18 +3218,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="B16" s="47">
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="B16" s="42">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1015</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G16" s="11">
         <v>45907</v>
       </c>
       <c r="Z16">
@@ -3243,43 +3237,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="55" customFormat="1">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:26" s="50" customFormat="1" ht="14.4">
+      <c r="A17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1016</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F17" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G17" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z17" s="55">
+      <c r="D17" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G17" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z17" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
-      <c r="B18" s="24">
+    <row r="18" spans="1:26" ht="14.4">
+      <c r="B18" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1017</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G18" s="11">
         <v>45907</v>
       </c>
       <c r="Z18">
@@ -3287,122 +3281,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="55" customFormat="1">
-      <c r="B19" s="52">
+    <row r="19" spans="1:26" s="50" customFormat="1" ht="14.4">
+      <c r="B19" s="47">
         <v>1028</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F19" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G19" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z19" s="55">
+      <c r="D19" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G19" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z19" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="55" customFormat="1">
-      <c r="B20" s="52">
+    <row r="20" spans="1:26" s="50" customFormat="1" ht="14.4">
+      <c r="B20" s="47">
         <v>1029</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F20" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G20" s="54">
-        <v>45907</v>
-      </c>
-      <c r="H20" s="82" t="s">
+      <c r="D20" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F20" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G20" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H20" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="54">
-        <v>45907</v>
-      </c>
-      <c r="J20" s="54">
-        <v>45907</v>
-      </c>
-      <c r="K20" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z20" s="55">
+      <c r="I20" s="49">
+        <v>45907</v>
+      </c>
+      <c r="J20" s="49">
+        <v>45907</v>
+      </c>
+      <c r="K20" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z20" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="55" customFormat="1">
-      <c r="B21" s="52">
+    <row r="21" spans="1:26" s="50" customFormat="1" ht="14.4">
+      <c r="B21" s="47">
         <v>1030</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G21" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z21" s="55">
+      <c r="F21" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G21" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z21" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="55" customFormat="1">
-      <c r="A22" s="55" t="s">
+    <row r="22" spans="1:26" s="50" customFormat="1" ht="14.4">
+      <c r="A22" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="47">
         <v>1031</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F22" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G22" s="54">
-        <v>45907</v>
-      </c>
-      <c r="M22" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z22" s="55">
+      <c r="D22" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F22" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G22" s="49">
+        <v>45907</v>
+      </c>
+      <c r="M22" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z22" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
-      <c r="B23" s="24">
+    <row r="23" spans="1:26" ht="14.4">
+      <c r="B23" s="22">
         <v>1032</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G23" s="13">
-        <v>45907</v>
-      </c>
-      <c r="H23" s="13">
-        <v>45907</v>
-      </c>
-      <c r="M23" s="13">
+      <c r="F23" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G23" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H23" s="11">
+        <v>45907</v>
+      </c>
+      <c r="M23" s="11">
         <v>45907</v>
       </c>
       <c r="Z23">
@@ -3410,23 +3404,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
-      <c r="B24" s="24">
+    <row r="24" spans="1:26" ht="14.4">
+      <c r="B24" s="22">
         <v>1033</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>45989</v>
       </c>
-      <c r="F24" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G24" s="11">
         <v>45958</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="11">
         <v>45907</v>
       </c>
       <c r="Z24">
@@ -3434,20 +3428,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
-      <c r="B25" s="24">
+    <row r="25" spans="1:26" ht="14.4">
+      <c r="B25" s="22">
         <v>1034</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F25" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="D25" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F25" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G25" s="11">
         <v>45907</v>
       </c>
       <c r="Z25">
@@ -3455,44 +3449,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="55" customFormat="1">
-      <c r="B26" s="52">
+    <row r="26" spans="1:26" s="50" customFormat="1" ht="14.4">
+      <c r="B26" s="47">
         <v>1035</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="49">
         <v>45942</v>
       </c>
-      <c r="F26" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G26" s="54">
+      <c r="F26" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G26" s="49">
         <v>45939</v>
       </c>
-      <c r="Z26" s="55">
+      <c r="Z26" s="50">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="B27" s="24">
+    <row r="27" spans="1:26" ht="14.4">
+      <c r="B27" s="22">
         <v>1036</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F27" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G27" s="13">
-        <v>45907</v>
-      </c>
-      <c r="L27" s="13">
+      <c r="D27" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F27" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G27" s="11">
+        <v>45907</v>
+      </c>
+      <c r="L27" s="11">
         <v>45907</v>
       </c>
       <c r="Z27">
@@ -3500,20 +3494,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
-      <c r="B28" s="24">
+    <row r="28" spans="1:26" ht="14.4">
+      <c r="B28" s="22">
         <v>1037</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G28" s="13">
-        <v>45907</v>
-      </c>
-      <c r="L28" s="13">
+      <c r="F28" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G28" s="11">
+        <v>45907</v>
+      </c>
+      <c r="L28" s="11">
         <v>45907</v>
       </c>
       <c r="Z28">
@@ -3521,17 +3515,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
-      <c r="B29" s="24">
+    <row r="29" spans="1:26" ht="14.4">
+      <c r="B29" s="22">
         <v>1038</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G29" s="11">
         <v>45907</v>
       </c>
       <c r="Z29">
@@ -3539,17 +3533,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
-      <c r="B30" s="24">
+    <row r="30" spans="1:26" ht="14.4">
+      <c r="B30" s="22">
         <v>1039</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="F30" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G30" s="11">
         <v>45907</v>
       </c>
       <c r="Z30">
@@ -3557,17 +3551,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
-      <c r="B31" s="24">
+    <row r="31" spans="1:26" ht="14.4">
+      <c r="B31" s="22">
         <v>1040</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G31" s="11">
         <v>45907</v>
       </c>
       <c r="Z31">
@@ -3575,17 +3569,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
-      <c r="B32" s="24">
+    <row r="32" spans="1:26" ht="14.4">
+      <c r="B32" s="22">
         <v>1041</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G32" s="11">
         <v>45907</v>
       </c>
       <c r="Z32">
@@ -3593,17 +3587,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26">
-      <c r="B33" s="24">
+    <row r="33" spans="2:26" ht="14.4">
+      <c r="B33" s="22">
         <v>1042</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G33" s="11">
         <v>45907</v>
       </c>
       <c r="Z33">
@@ -3611,17 +3605,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
-      <c r="B34" s="24">
+    <row r="34" spans="2:26" ht="14.4">
+      <c r="B34" s="22">
         <v>1043</v>
       </c>
       <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="F34" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G34" s="11">
         <v>45907</v>
       </c>
       <c r="Z34">
@@ -3629,23 +3623,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="24">
+    <row r="35" spans="2:26" ht="14.4">
+      <c r="B35" s="22">
         <v>1044</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F35" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G35" s="13">
-        <v>45907</v>
-      </c>
-      <c r="M35" s="13">
+      <c r="D35" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F35" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G35" s="11">
+        <v>45907</v>
+      </c>
+      <c r="M35" s="11">
         <v>45907</v>
       </c>
       <c r="Z35">
@@ -3653,17 +3647,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
-      <c r="B36" s="24">
+    <row r="36" spans="2:26" ht="14.4">
+      <c r="B36" s="22">
         <v>1045</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="F36" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G36" s="11">
         <v>45907</v>
       </c>
       <c r="Z36">
@@ -3671,17 +3665,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
-      <c r="B37" s="24">
+    <row r="37" spans="2:26" ht="14.4">
+      <c r="B37" s="22">
         <v>1046</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F37" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G37" s="11">
         <v>45907</v>
       </c>
       <c r="Z37">
@@ -3689,17 +3683,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:26">
-      <c r="B38" s="24">
+    <row r="38" spans="2:26" ht="14.4">
+      <c r="B38" s="22">
         <v>1047</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G38" s="11">
         <v>45937</v>
       </c>
       <c r="Z38">
@@ -3707,17 +3701,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
-      <c r="B39" s="24">
+    <row r="39" spans="2:26" ht="14.4">
+      <c r="B39" s="22">
         <v>1048</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="F39" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G39" s="11">
         <v>45907</v>
       </c>
       <c r="Z39">
@@ -3725,17 +3719,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:26">
-      <c r="B40" s="24">
+    <row r="40" spans="2:26" ht="14.4">
+      <c r="B40" s="22">
         <v>1049</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="F40" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G40" s="11">
         <v>45907</v>
       </c>
       <c r="Z40">
@@ -3743,23 +3737,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26">
-      <c r="B41" s="24">
+    <row r="41" spans="2:26" ht="14.4">
+      <c r="B41" s="22">
         <v>1050</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F41" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G41" s="13">
-        <v>45907</v>
-      </c>
-      <c r="M41" s="13">
+      <c r="D41" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F41" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G41" s="11">
+        <v>45907</v>
+      </c>
+      <c r="M41" s="11">
         <v>45907</v>
       </c>
       <c r="Z41">
@@ -3767,482 +3761,482 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
-      <c r="B42" s="24">
+    <row r="42" spans="2:26" ht="14.4">
+      <c r="B42" s="22">
         <v>1051</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="F42" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G42" s="11">
         <v>45907</v>
       </c>
       <c r="Z42">
-        <f ca="1">B41:Z75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="B43" s="24">
+        <f t="shared" ref="Z42:Z65" ca="1" si="2">B41:Z75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" ht="14.4">
+      <c r="B43" s="22">
         <v>1052</v>
       </c>
       <c r="C43" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="F43" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G43" s="11">
         <v>45907</v>
       </c>
       <c r="Z43">
-        <f ca="1">B42:Z76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26">
-      <c r="B44" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" ht="14.4">
+      <c r="B44" s="22">
         <v>1053</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G44" s="13">
+      <c r="F44" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G44" s="11">
         <v>45907</v>
       </c>
       <c r="Z44">
-        <f ca="1">B43:Z77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26">
-      <c r="B45" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" ht="14.4">
+      <c r="B45" s="22">
         <v>1054</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="11">
         <v>45937</v>
       </c>
-      <c r="F45" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="F45" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G45" s="11">
         <v>45928</v>
       </c>
       <c r="Z45">
-        <f ca="1">B44:Z78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="B46" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" ht="14.4">
+      <c r="B46" s="22">
         <v>1055</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F46" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G46" s="13">
-        <v>45907</v>
-      </c>
-      <c r="H46" s="13">
+      <c r="D46" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F46" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G46" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H46" s="11">
         <v>45907</v>
       </c>
       <c r="J46" t="s">
         <v>77</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="11">
         <v>45907</v>
       </c>
       <c r="Z46">
-        <f ca="1">B45:Z79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26">
-      <c r="B47" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" ht="14.4">
+      <c r="B47" s="22">
         <v>1056</v>
       </c>
       <c r="C47" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G47" s="13">
+      <c r="F47" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G47" s="11">
         <v>45907</v>
       </c>
       <c r="Z47">
-        <f ca="1">B46:Z80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="14.4">
+      <c r="B48" s="22">
         <v>1057</v>
       </c>
       <c r="C48" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G48" s="13">
+      <c r="F48" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G48" s="11">
         <v>45907</v>
       </c>
       <c r="Z48">
-        <f ca="1">B47:Z81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26">
-      <c r="B49" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" ht="14.4">
+      <c r="B49" s="22">
         <v>1058</v>
       </c>
       <c r="C49" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G49" s="13">
+      <c r="F49" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G49" s="11">
         <v>45907</v>
       </c>
       <c r="Z49">
-        <f ca="1">B48:Z82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:26">
-      <c r="B50" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" ht="14.4">
+      <c r="B50" s="22">
         <v>1059</v>
       </c>
       <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="F50" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G50" s="11">
         <v>45907</v>
       </c>
       <c r="Z50">
-        <f ca="1">B49:Z83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26">
-      <c r="B51" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" ht="14.4">
+      <c r="B51" s="22">
         <v>1060</v>
       </c>
       <c r="C51" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F51" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G51" s="13">
-        <v>45907</v>
-      </c>
-      <c r="L51" s="13">
+      <c r="D51" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F51" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G51" s="11">
+        <v>45907</v>
+      </c>
+      <c r="L51" s="11">
         <v>45907</v>
       </c>
       <c r="Z51">
-        <f ca="1">B50:Z84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26">
-      <c r="B52" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" ht="14.4">
+      <c r="B52" s="22">
         <v>1061</v>
       </c>
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G52" s="11">
         <v>45907</v>
       </c>
       <c r="Z52">
-        <f ca="1">B51:Z85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26">
-      <c r="B53" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" ht="14.4">
+      <c r="B53" s="22">
         <v>1062</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G53" s="11">
         <v>45907</v>
       </c>
       <c r="Z53">
-        <f ca="1">B52:Z86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:26">
-      <c r="B54" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" ht="14.4">
+      <c r="B54" s="22">
         <v>1063</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="F54" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G54" s="11">
         <v>45907</v>
       </c>
       <c r="Z54">
-        <f ca="1">B53:Z87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:26">
-      <c r="B55" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="14.4">
+      <c r="B55" s="22">
         <v>1064</v>
       </c>
       <c r="C55" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="F55" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G55" s="11">
         <v>45907</v>
       </c>
       <c r="Z55">
-        <f ca="1">B54:Z88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:26" s="55" customFormat="1">
-      <c r="B56" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B56" s="47">
         <v>1065</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="54">
-        <v>45907</v>
-      </c>
-      <c r="F56" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G56" s="54">
-        <v>45907</v>
-      </c>
-      <c r="H56" s="82" t="s">
+      <c r="D56" s="49">
+        <v>45907</v>
+      </c>
+      <c r="F56" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G56" s="49">
+        <v>45907</v>
+      </c>
+      <c r="H56" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="I56" s="55" t="s">
+      <c r="I56" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="M56" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z56" s="55">
-        <f ca="1">B55:Z89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26">
-      <c r="B57" s="24">
+      <c r="M56" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z56" s="50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" ht="14.4">
+      <c r="B57" s="22">
         <v>1066</v>
       </c>
       <c r="C57" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="11">
         <v>45907</v>
       </c>
       <c r="G57" t="s">
         <v>90</v>
       </c>
       <c r="Z57">
-        <f ca="1">B56:Z90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:26">
-      <c r="B58" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" ht="14.4">
+      <c r="B58" s="22">
         <v>1067</v>
       </c>
       <c r="C58" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="F58" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G58" s="11">
         <v>45907</v>
       </c>
       <c r="Z58">
-        <f ca="1">B57:Z91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:26">
-      <c r="B59" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" ht="14.4">
+      <c r="B59" s="22">
         <v>1068</v>
       </c>
       <c r="C59" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G59" s="13">
+      <c r="F59" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G59" s="11">
         <v>45907</v>
       </c>
       <c r="Z59">
-        <f ca="1">B58:Z92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26">
-      <c r="B60" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" ht="14.4">
+      <c r="B60" s="22">
         <v>1069</v>
       </c>
       <c r="C60" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G60" s="13">
+      <c r="F60" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G60" s="11">
         <v>45939</v>
       </c>
       <c r="Z60">
-        <f ca="1">B59:Z93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:26">
-      <c r="B61" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" ht="14.4">
+      <c r="B61" s="22">
         <v>1070</v>
       </c>
       <c r="C61" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G61" s="13">
+      <c r="F61" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G61" s="11">
         <v>45939</v>
       </c>
       <c r="Z61">
-        <f ca="1">B60:Z94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:26">
-      <c r="B62" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" ht="14.4">
+      <c r="B62" s="22">
         <v>1071</v>
       </c>
       <c r="C62" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="F62" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G62" s="11">
         <v>45938</v>
       </c>
       <c r="Z62">
-        <f ca="1">B61:Z95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26">
-      <c r="B63" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" ht="14.4">
+      <c r="B63" s="22">
         <v>1072</v>
       </c>
       <c r="C63" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G63" s="13">
+      <c r="F63" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G63" s="11">
         <v>45937</v>
       </c>
       <c r="Z63">
-        <f ca="1">B62:Z96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26">
-      <c r="B64" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" ht="14.4">
+      <c r="B64" s="22">
         <v>1073</v>
       </c>
       <c r="C64" t="s">
         <v>97</v>
       </c>
-      <c r="F64" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="F64" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G64" s="11">
         <v>45907</v>
       </c>
       <c r="Z64">
-        <f ca="1">B63:Z97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26">
-      <c r="B65" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" ht="14.4">
+      <c r="B65" s="22">
         <v>1074</v>
       </c>
       <c r="C65" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="F65" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G65" s="11">
         <v>45907</v>
       </c>
       <c r="Z65">
-        <f ca="1">B64:Z98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26">
-      <c r="B66" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" ht="14.4">
+      <c r="B66" s="22">
         <v>1075</v>
       </c>
       <c r="C66" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G66" s="13">
+      <c r="F66" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G66" s="11">
         <v>45907</v>
       </c>
       <c r="Z66">
@@ -4250,616 +4244,614 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:26">
-      <c r="B67" s="24">
+    <row r="67" spans="2:26" ht="14.4">
+      <c r="B67" s="22">
         <v>1076</v>
       </c>
       <c r="C67" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G67" s="13">
+      <c r="F67" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G67" s="11">
         <v>45907</v>
       </c>
       <c r="Z67">
-        <f ca="1">B66:Z98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26">
-      <c r="B68" s="24">
+        <f t="shared" ref="Z67:Z73" ca="1" si="3">B66:Z98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" ht="14.4">
+      <c r="B68" s="22">
         <v>1077</v>
       </c>
       <c r="C68" t="s">
         <v>101</v>
       </c>
-      <c r="F68" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G68" s="13">
+      <c r="F68" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G68" s="11">
         <v>45907</v>
       </c>
       <c r="Z68">
-        <f ca="1">B67:Z99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26">
-      <c r="B69" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" ht="14.4">
+      <c r="B69" s="22">
         <v>1078</v>
       </c>
       <c r="C69" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G69" s="13">
+      <c r="F69" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G69" s="11">
         <v>45907</v>
       </c>
       <c r="Z69">
-        <f ca="1">B68:Z100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26">
-      <c r="B70" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" ht="14.4">
+      <c r="B70" s="22">
         <v>1079</v>
       </c>
       <c r="C70" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G70" s="13">
+      <c r="F70" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G70" s="11">
         <v>45907</v>
       </c>
       <c r="Z70">
-        <f ca="1">B69:Z101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" s="55" customFormat="1">
-      <c r="B71" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B71" s="47">
         <v>1080</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="54">
+      <c r="D71" s="49">
         <v>45963</v>
       </c>
-      <c r="F71" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G71" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z71" s="55">
-        <f ca="1">B70:Z102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" s="55" customFormat="1">
-      <c r="B72" s="52">
+      <c r="F71" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G71" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z71" s="50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B72" s="47">
         <v>1081</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G72" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z72" s="55">
-        <f ca="1">B71:Z103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" s="55" customFormat="1">
-      <c r="B73" s="52">
+      <c r="F72" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G72" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z72" s="50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B73" s="47">
         <v>1082</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G73" s="54">
+      <c r="F73" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G73" s="49">
         <v>45924</v>
       </c>
-      <c r="Z73" s="55">
-        <f ca="1">B72:Z104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" s="55" customFormat="1">
-      <c r="B74" s="52">
+      <c r="Z73" s="50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B74" s="47">
         <v>1083</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G74" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z74" s="55">
+      <c r="F74" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G74" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z74" s="50">
         <f ca="1">B73:Z172</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:26" s="55" customFormat="1">
-      <c r="B75" s="52">
+    <row r="75" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B75" s="47">
         <v>1085</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F75" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G75" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z75" s="55">
+      <c r="F75" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G75" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z75" s="50">
         <f ca="1">B74:Z173</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:26" s="55" customFormat="1">
-      <c r="B76" s="52">
+    <row r="76" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B76" s="47">
         <v>1086</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G76" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z76" s="55">
+      <c r="F76" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G76" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z76" s="50">
         <f ca="1">B76:Z175</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:26" s="55" customFormat="1">
-      <c r="B77" s="52">
+    <row r="77" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B77" s="47">
         <v>1087</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G77" s="54">
+      <c r="F77" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G77" s="49">
         <v>45952</v>
       </c>
-      <c r="Z77" s="55">
-        <f ca="1">B76:Z176</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" s="55" customFormat="1">
-      <c r="B78" s="52">
+      <c r="Z77" s="50">
+        <f t="shared" ref="Z77:Z98" ca="1" si="4">B76:Z176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B78" s="47">
         <v>1088</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="54">
+      <c r="D78" s="49">
         <v>45924</v>
       </c>
-      <c r="F78" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G78" s="54">
+      <c r="F78" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G78" s="49">
         <v>45922</v>
       </c>
-      <c r="I78" s="83">
+      <c r="I78" s="77">
         <v>45950</v>
       </c>
-      <c r="J78" s="54">
+      <c r="J78" s="49">
         <v>45932</v>
       </c>
-      <c r="K78" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z78" s="55">
-        <f ca="1">B77:Z177</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" s="55" customFormat="1">
-      <c r="B79" s="52">
+      <c r="K78" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z78" s="50">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B79" s="47">
         <v>1089</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F79" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G79" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z79" s="55">
-        <f ca="1">B78:Z178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" s="55" customFormat="1">
-      <c r="B80" s="52">
+      <c r="F79" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G79" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z79" s="50">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B80" s="47">
         <v>1090</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F80" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G80" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z80" s="55">
-        <f ca="1">B79:Z179</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:29">
-      <c r="B81" s="27">
+      <c r="F80" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G80" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z80" s="50">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" ht="14.4">
+      <c r="B81" s="25">
         <v>1091</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F81" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G81" s="13">
+      <c r="F81" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G81" s="11">
         <v>45936</v>
       </c>
       <c r="Z81">
-        <f ca="1">B80:Z180</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:29" s="55" customFormat="1">
-      <c r="B82" s="52">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B82" s="47">
         <v>1092</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G82" s="54">
+      <c r="F82" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G82" s="49">
         <v>45952</v>
       </c>
-      <c r="Z82" s="55">
-        <f ca="1">B81:Z181</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:29" s="55" customFormat="1">
-      <c r="B83" s="52">
+      <c r="Z82" s="50">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B83" s="47">
         <v>1093</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F83" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G83" s="54">
-        <v>45907</v>
-      </c>
-      <c r="Z83" s="55">
-        <f ca="1">B82:Z182</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:29">
-      <c r="B84" s="24">
+      <c r="F83" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G83" s="49">
+        <v>45907</v>
+      </c>
+      <c r="Z83" s="50">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" ht="14.4">
+      <c r="B84" s="22">
         <v>1094</v>
       </c>
       <c r="C84" t="s">
         <v>117</v>
       </c>
-      <c r="F84" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G84" s="13">
+      <c r="F84" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G84" s="11">
         <v>45907</v>
       </c>
       <c r="Z84">
-        <f ca="1">B83:Z183</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:29" s="55" customFormat="1">
-      <c r="B85" s="52">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B85" s="47">
         <v>1095</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F85" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G85" s="54">
+      <c r="F85" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G85" s="49">
         <v>45938</v>
       </c>
-      <c r="Z85" s="55">
-        <f ca="1">B84:Z184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:29">
-      <c r="B86" s="24">
+      <c r="Z85" s="50">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" ht="14.4">
+      <c r="B86" s="22">
         <v>1096</v>
       </c>
       <c r="C86" t="s">
         <v>119</v>
       </c>
-      <c r="F86" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G86" s="13">
+      <c r="F86" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G86" s="11">
         <v>45938</v>
       </c>
-      <c r="Z86" s="9">
-        <f ca="1">B85:Z185</f>
-        <v>0</v>
-      </c>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-    </row>
-    <row r="87" spans="2:29">
-      <c r="B87" s="24">
+      <c r="Z86">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" ht="14.4">
+      <c r="B87" s="22">
         <v>1097</v>
       </c>
       <c r="C87" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G87" s="13">
+      <c r="F87" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G87" s="11">
         <v>45907</v>
       </c>
       <c r="Z87">
-        <f ca="1">B86:Z186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:29">
-      <c r="B88" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" ht="14.4">
+      <c r="B88" s="22">
         <v>1098</v>
       </c>
       <c r="C88" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G88" s="11">
         <v>45907</v>
       </c>
       <c r="Z88">
-        <f ca="1">B87:Z187</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:29">
-      <c r="B89" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" ht="14.4">
+      <c r="B89" s="22">
         <v>1099</v>
       </c>
       <c r="C89" t="s">
         <v>122</v>
       </c>
-      <c r="F89" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G89" s="13">
+      <c r="F89" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G89" s="11">
         <v>45927</v>
       </c>
       <c r="Z89">
-        <f ca="1">B88:Z188</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:29">
-      <c r="B90" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" ht="14.4">
+      <c r="B90" s="22">
         <v>2000</v>
       </c>
       <c r="C90" t="s">
         <v>123</v>
       </c>
-      <c r="F90" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G90" s="13">
+      <c r="F90" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G90" s="11">
         <v>45939</v>
       </c>
       <c r="Z90">
-        <f ca="1">B89:Z189</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:29">
-      <c r="B91" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" ht="14.4">
+      <c r="B91" s="22">
         <v>2016</v>
       </c>
       <c r="C91" t="s">
         <v>124</v>
       </c>
-      <c r="F91" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G91" s="13">
+      <c r="F91" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G91" s="11">
         <v>45936</v>
       </c>
       <c r="Z91">
-        <f ca="1">B90:Z190</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:29">
-      <c r="B92" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" ht="14.4">
+      <c r="B92" s="22">
         <v>2017</v>
       </c>
       <c r="C92" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F92" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G92" s="13">
+      <c r="D92" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F92" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G92" s="11">
         <v>45907</v>
       </c>
       <c r="Z92">
-        <f ca="1">B91:Z191</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:29">
-      <c r="B93" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" ht="14.4">
+      <c r="B93" s="22">
         <v>2018</v>
       </c>
       <c r="C93" t="s">
         <v>126</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="11">
         <v>45907</v>
       </c>
       <c r="Z93">
-        <f ca="1">B92:Z192</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:29">
-      <c r="B94" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" ht="14.4">
+      <c r="B94" s="22">
         <v>2019</v>
       </c>
       <c r="C94" t="s">
         <v>127</v>
       </c>
-      <c r="F94" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G94" s="13">
+      <c r="F94" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G94" s="11">
         <v>45907</v>
       </c>
       <c r="Z94">
-        <f ca="1">B93:Z193</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:29">
-      <c r="B95" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" ht="14.4">
+      <c r="B95" s="22">
         <v>2020</v>
       </c>
       <c r="C95" t="s">
         <v>128</v>
       </c>
-      <c r="F95" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G95" s="13">
+      <c r="F95" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G95" s="11">
         <v>45937</v>
       </c>
       <c r="Z95">
-        <f ca="1">B94:Z194</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:29">
-      <c r="B96" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" ht="14.4">
+      <c r="B96" s="22">
         <v>2021</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" t="s">
         <v>129</v>
       </c>
-      <c r="F96" s="54">
+      <c r="F96" s="49">
         <v>45907</v>
       </c>
       <c r="Z96">
-        <f ca="1">B95:Z195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:26">
-      <c r="B97" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" ht="14.4">
+      <c r="B97" s="22">
         <v>2022</v>
       </c>
       <c r="C97" t="s">
         <v>130</v>
       </c>
-      <c r="D97" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F97" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G97" s="13">
+      <c r="D97" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F97" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G97" s="11">
         <v>45907</v>
       </c>
       <c r="Z97">
-        <f ca="1">B96:Z196</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:26">
-      <c r="B98" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" ht="14.4">
+      <c r="B98" s="22">
         <v>2025</v>
       </c>
       <c r="C98" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="13">
-        <v>45907</v>
-      </c>
-      <c r="F98" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G98" s="13">
+      <c r="D98" s="11">
+        <v>45907</v>
+      </c>
+      <c r="F98" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G98" s="11">
         <v>45907</v>
       </c>
       <c r="Z98">
-        <f ca="1">B97:Z197</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:26">
-      <c r="B99" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:26" ht="14.4">
+      <c r="B99" s="22">
         <v>2026</v>
       </c>
       <c r="C99" t="s">
         <v>132</v>
       </c>
-      <c r="F99" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G99" s="13">
-        <v>45907</v>
-      </c>
-      <c r="H99" s="13">
+      <c r="F99" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G99" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H99" s="11">
         <v>45907</v>
       </c>
       <c r="Z99">
@@ -4867,20 +4859,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:26">
-      <c r="B100" s="24">
+    <row r="100" spans="2:26" ht="14.4">
+      <c r="B100" s="22">
         <v>2027</v>
       </c>
       <c r="C100" t="s">
         <v>133</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="11">
         <v>45915</v>
       </c>
-      <c r="F100" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G100" s="13">
+      <c r="F100" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G100" s="11">
         <v>45914</v>
       </c>
       <c r="Z100">
@@ -4888,17 +4880,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:26">
-      <c r="B101" s="24">
+    <row r="101" spans="2:26" ht="14.4">
+      <c r="B101" s="22">
         <v>2028</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F101" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G101" s="13">
+      <c r="F101" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G101" s="11">
         <v>45938</v>
       </c>
       <c r="Z101">
@@ -4906,17 +4898,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:26">
-      <c r="B102" s="24">
+    <row r="102" spans="2:26" ht="14.4">
+      <c r="B102" s="22">
         <v>2029</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G102" s="13">
+      <c r="F102" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G102" s="11">
         <v>45939</v>
       </c>
       <c r="Z102">
@@ -4924,20 +4916,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:26">
-      <c r="B103" s="24">
+    <row r="103" spans="2:26" ht="14.4">
+      <c r="B103" s="22">
         <v>2030</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="11">
         <v>45893</v>
       </c>
-      <c r="F103" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G103" s="13">
+      <c r="F103" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G103" s="11">
         <v>45907</v>
       </c>
       <c r="Z103">
@@ -4945,744 +4937,744 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:26" s="55" customFormat="1">
-      <c r="B104" s="52">
+    <row r="104" spans="2:26" s="50" customFormat="1" ht="14.4">
+      <c r="B104" s="47">
         <v>2031</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="F104" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G104" s="54">
+      <c r="F104" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G104" s="49">
         <v>45936</v>
       </c>
-      <c r="Z104" s="55">
+      <c r="Z104" s="50">
         <f ca="1">B103:Z205</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:26" ht="15" customHeight="1">
-      <c r="B105" s="24">
+      <c r="B105" s="22">
         <v>2032</v>
       </c>
       <c r="C105" t="s">
         <v>138</v>
       </c>
-      <c r="F105" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G105" s="13">
+      <c r="F105" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G105" s="11">
         <v>45922</v>
       </c>
-      <c r="Z105" s="9">
+      <c r="Z105">
         <f ca="1">B104:Z201</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:26" ht="15" customHeight="1">
-      <c r="B106" s="24">
+      <c r="B106" s="22">
         <v>2033</v>
       </c>
       <c r="C106" t="s">
         <v>139</v>
       </c>
-      <c r="F106" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G106" s="13">
+      <c r="F106" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G106" s="11">
         <v>45937</v>
       </c>
-      <c r="Z106" s="9">
+      <c r="Z106">
         <f ca="1">B105:Z202</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:26" ht="15" customHeight="1">
-      <c r="B107" s="24">
+      <c r="B107" s="22">
         <v>2034</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F107" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G107" s="13">
+      <c r="F107" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G107" s="11">
         <v>45937</v>
       </c>
-      <c r="Z107" s="9">
+      <c r="Z107">
         <f ca="1">B106:Z203</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:26" ht="15" customHeight="1">
-      <c r="B108" s="24">
+      <c r="B108" s="22">
         <v>2035</v>
       </c>
       <c r="C108" t="s">
         <v>141</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="11">
         <v>45931</v>
       </c>
-      <c r="F108" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G108" s="13">
+      <c r="F108" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G108" s="11">
         <v>45930</v>
       </c>
-      <c r="Z108" s="9">
+      <c r="Z108">
         <f ca="1">B107:Z204</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:26" ht="15" customHeight="1">
-      <c r="B109" s="24">
+      <c r="B109" s="22">
         <v>2036</v>
       </c>
       <c r="C109" t="s">
         <v>142</v>
       </c>
-      <c r="F109" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G109" s="13">
+      <c r="F109" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G109" s="11">
         <v>45937</v>
       </c>
-      <c r="Z109" s="9">
+      <c r="Z109">
         <f ca="1">B108:Z205</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:26" ht="15" customHeight="1">
-      <c r="B110" s="24">
+      <c r="B110" s="22">
         <v>2037</v>
       </c>
       <c r="C110" t="s">
         <v>143</v>
       </c>
-      <c r="F110" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G110" s="13">
+      <c r="F110" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G110" s="11">
         <v>45929</v>
       </c>
-      <c r="Z110" s="9">
+      <c r="Z110">
         <f ca="1">B109:Z202</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:26" ht="15" customHeight="1">
-      <c r="B111" s="24">
+      <c r="B111" s="22">
         <v>2039</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="11">
         <v>45937</v>
       </c>
-      <c r="F111" s="54">
-        <v>45907</v>
-      </c>
-      <c r="G111" s="13">
+      <c r="F111" s="49">
+        <v>45907</v>
+      </c>
+      <c r="G111" s="11">
         <v>45930</v>
       </c>
-      <c r="Z111" s="9">
+      <c r="Z111">
         <f ca="1">B110:Z203</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:26" ht="15" customHeight="1">
-      <c r="B112" s="47">
+      <c r="B112" s="42">
         <v>2040</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="11">
         <v>45945</v>
       </c>
-      <c r="F112" s="13">
-        <v>45907</v>
-      </c>
-      <c r="G112" s="13">
+      <c r="F112" s="11">
+        <v>45907</v>
+      </c>
+      <c r="G112" s="11">
         <v>45937</v>
       </c>
-      <c r="Z112" s="9">
+      <c r="Z112">
         <f ca="1">B112:Z205</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:26" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B113" s="48">
+    <row r="113" spans="2:26" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="B113" s="43">
         <v>2041</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F113" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G113" s="45">
+      <c r="F113" s="41">
+        <v>45907</v>
+      </c>
+      <c r="G113" s="41">
         <v>45937</v>
       </c>
-      <c r="Z113" s="46">
+      <c r="Z113" s="40">
         <f ca="1">B112:Z145</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:26" ht="15" customHeight="1">
-      <c r="B114" s="24">
+      <c r="B114" s="22">
         <v>2042</v>
       </c>
       <c r="C114" t="s">
         <v>147</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="11">
         <v>45936</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="11">
         <v>45928</v>
       </c>
-      <c r="G114" s="13">
+      <c r="G114" s="11">
         <v>45928</v>
       </c>
-      <c r="Z114" s="9">
+      <c r="Z114">
         <f ca="1">B113:Z146</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B115" s="52">
+    <row r="115" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B115" s="47">
         <v>2043</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F115" s="54">
+      <c r="F115" s="49">
         <v>45942</v>
       </c>
-      <c r="G115" s="54">
+      <c r="G115" s="49">
         <v>45942</v>
       </c>
-      <c r="Z115" s="56">
+      <c r="Z115" s="50">
         <f ca="1">B114:Z147</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B116" s="52">
+    <row r="116" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B116" s="47">
         <v>2044</v>
       </c>
-      <c r="C116" s="55" t="s">
+      <c r="C116" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F116" s="54">
+      <c r="F116" s="49">
         <v>45945</v>
       </c>
-      <c r="G116" s="54">
+      <c r="G116" s="49">
         <v>45945</v>
       </c>
-      <c r="Z116" s="56">
+      <c r="Z116" s="50">
         <f ca="1">B115:Z172</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:26" ht="15" customHeight="1">
-      <c r="B117" s="47">
+      <c r="B117" s="42">
         <v>2045</v>
       </c>
       <c r="C117" t="s">
         <v>150</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="11">
         <v>45945</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="11">
         <v>45945</v>
       </c>
-      <c r="Z117" s="9">
+      <c r="Z117">
         <f ca="1">B116:Z173</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B118" s="52">
+    <row r="118" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B118" s="47">
         <v>2046</v>
       </c>
-      <c r="C118" s="55" t="s">
+      <c r="C118" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F118" s="54">
+      <c r="F118" s="49">
         <v>45946</v>
       </c>
-      <c r="G118" s="54">
+      <c r="G118" s="49">
         <v>45946</v>
       </c>
-      <c r="Z118" s="56">
+      <c r="Z118" s="50">
         <f ca="1">B117:Z174</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:26" ht="15" customHeight="1">
-      <c r="B119" s="24">
+      <c r="B119" s="22">
         <v>2047</v>
       </c>
       <c r="C119" t="s">
         <v>152</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="11">
         <v>45946</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="11">
         <v>45946</v>
       </c>
-      <c r="Z119" s="9">
+      <c r="Z119">
         <f ca="1">B118:Z175</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:26" ht="15" customHeight="1">
-      <c r="B120" s="24">
+      <c r="B120" s="22">
         <v>2049</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="F120" s="80">
+      <c r="F120" s="74">
         <v>45950</v>
       </c>
-      <c r="G120" s="13">
+      <c r="G120" s="11">
         <v>45950</v>
       </c>
-      <c r="Z120" s="9">
+      <c r="Z120">
         <f ca="1">B120:Z177</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:26" ht="15" customHeight="1">
-      <c r="B121" s="24">
+      <c r="B121" s="22">
         <v>2050</v>
       </c>
       <c r="C121" t="s">
         <v>154</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="11">
         <v>45951</v>
       </c>
-      <c r="G121" s="13">
+      <c r="G121" s="11">
         <v>45951</v>
       </c>
-      <c r="Z121" s="9">
-        <f ca="1">B120:Z178</f>
+      <c r="Z121">
+        <f t="shared" ref="Z121:Z130" ca="1" si="5">B120:Z178</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:26" ht="15" customHeight="1">
-      <c r="B122" s="24">
+      <c r="B122" s="22">
         <v>2051</v>
       </c>
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="F122" s="80">
+      <c r="F122" s="74">
         <v>45952</v>
       </c>
-      <c r="G122" s="13">
+      <c r="G122" s="11">
         <v>45952</v>
       </c>
-      <c r="Z122" s="9">
-        <f ca="1">B121:Z179</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B123" s="52">
+      <c r="Z122">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B123" s="47">
         <v>2052</v>
       </c>
-      <c r="C123" s="55" t="s">
+      <c r="C123" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F123" s="54">
+      <c r="F123" s="49">
         <v>45952</v>
       </c>
-      <c r="G123" s="54">
+      <c r="G123" s="49">
         <v>45952</v>
       </c>
-      <c r="Z123" s="56">
-        <f ca="1">B122:Z180</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B124" s="52">
+      <c r="Z123" s="50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B124" s="47">
         <v>2053</v>
       </c>
-      <c r="C124" s="55" t="s">
+      <c r="C124" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F124" s="54">
+      <c r="F124" s="49">
         <v>45952</v>
       </c>
-      <c r="G124" s="54">
+      <c r="G124" s="49">
         <v>45952</v>
       </c>
-      <c r="Z124" s="56">
-        <f ca="1">B123:Z181</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B125" s="52">
+      <c r="Z124" s="50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B125" s="47">
         <v>2054</v>
       </c>
-      <c r="C125" s="70" t="s">
+      <c r="C125" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F125" s="84">
+      <c r="F125" s="78">
         <v>45952</v>
       </c>
-      <c r="G125" s="54">
+      <c r="G125" s="49">
         <v>45952</v>
       </c>
-      <c r="Z125" s="56">
-        <f ca="1">B124:Z182</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B126" s="52">
+      <c r="Z125" s="50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B126" s="47">
         <v>2055</v>
       </c>
-      <c r="C126" s="55" t="s">
+      <c r="C126" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F126" s="54">
+      <c r="F126" s="49">
         <v>45952</v>
       </c>
-      <c r="G126" s="54">
+      <c r="G126" s="49">
         <v>45952</v>
       </c>
-      <c r="Z126" s="56">
-        <f ca="1">B125:Z183</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B127" s="52">
+      <c r="Z126" s="50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B127" s="47">
         <v>2056</v>
       </c>
-      <c r="C127" s="57" t="s">
+      <c r="C127" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="F127" s="85">
+      <c r="F127" s="79">
         <v>45953</v>
       </c>
-      <c r="G127" s="54">
+      <c r="G127" s="49">
         <v>45953</v>
       </c>
-      <c r="Z127" s="56">
-        <f ca="1">B126:Z184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B128" s="52">
+      <c r="Z127" s="50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B128" s="47">
         <v>2057</v>
       </c>
-      <c r="C128" s="55" t="s">
+      <c r="C128" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="F128" s="54">
+      <c r="F128" s="49">
         <v>45953</v>
       </c>
-      <c r="G128" s="54">
+      <c r="G128" s="49">
         <v>45953</v>
       </c>
-      <c r="Z128" s="56">
-        <f ca="1">B127:Z185</f>
+      <c r="Z128" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="2:26" ht="15" customHeight="1">
-      <c r="B129" s="24">
+      <c r="B129" s="22">
         <v>2057</v>
       </c>
-      <c r="C129" s="75" t="s">
+      <c r="C129" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="F129" s="79">
+      <c r="F129" s="73">
         <v>45953</v>
       </c>
-      <c r="G129" s="13">
+      <c r="G129" s="11">
         <v>45953</v>
       </c>
-      <c r="Z129" s="9">
-        <f ca="1">B128:Z186</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:26" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="B130" s="52">
+      <c r="Z129">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:26" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="B130" s="47">
         <v>2058</v>
       </c>
-      <c r="C130" s="55" t="s">
+      <c r="C130" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F130" s="54">
+      <c r="F130" s="49">
         <v>45953</v>
       </c>
-      <c r="G130" s="54">
+      <c r="G130" s="49">
         <v>45953</v>
       </c>
-      <c r="L130" s="55" t="s">
+      <c r="L130" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="Z130" s="56">
-        <f ca="1">B129:Z187</f>
+      <c r="Z130" s="50">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:26" ht="15" customHeight="1">
-      <c r="B131" s="24">
+      <c r="B131" s="22">
         <v>2060</v>
       </c>
-      <c r="C131" s="76" t="s">
+      <c r="C131" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="F131" s="78">
+      <c r="F131" s="72">
         <v>45953</v>
       </c>
-      <c r="G131" s="13">
+      <c r="G131" s="11">
         <v>45953</v>
       </c>
-      <c r="Z131" s="9">
+      <c r="Z131">
         <f ca="1">B131:Z189</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="2:26" ht="15" customHeight="1">
-      <c r="B132" s="24">
+      <c r="B132" s="22">
         <v>2061</v>
       </c>
-      <c r="C132" s="76" t="s">
+      <c r="C132" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="F132" s="78">
+      <c r="F132" s="72">
         <v>45953</v>
       </c>
-      <c r="G132" s="13">
+      <c r="G132" s="11">
         <v>45953</v>
       </c>
-      <c r="Z132" s="9">
-        <f ca="1">B131:Z190</f>
+      <c r="Z132">
+        <f t="shared" ref="Z132:Z147" ca="1" si="6">B131:Z190</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="2:26" ht="15" customHeight="1">
-      <c r="B133" s="24">
+      <c r="B133" s="22">
         <v>2062</v>
       </c>
-      <c r="C133" s="76" t="s">
+      <c r="C133" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="F133" s="78">
+      <c r="F133" s="72">
         <v>45953</v>
       </c>
-      <c r="G133" s="13">
+      <c r="G133" s="11">
         <v>45953</v>
       </c>
-      <c r="Z133" s="9">
-        <f ca="1">B132:Z191</f>
+      <c r="Z133">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="2:26" ht="15" customHeight="1">
-      <c r="B134" s="24">
+      <c r="B134" s="22">
         <v>2063</v>
       </c>
-      <c r="C134" s="76" t="s">
+      <c r="C134" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F134" s="78">
+      <c r="F134" s="72">
         <v>45953</v>
       </c>
-      <c r="G134" s="13">
+      <c r="G134" s="11">
         <v>45953</v>
       </c>
-      <c r="Z134" s="9">
-        <f ca="1">B133:Z192</f>
+      <c r="Z134">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="2:26" ht="15" customHeight="1">
-      <c r="B135" s="24">
+      <c r="B135" s="22">
         <v>2064</v>
       </c>
       <c r="C135" t="s">
         <v>169</v>
       </c>
-      <c r="F135" s="13">
+      <c r="F135" s="11">
         <v>45958</v>
       </c>
-      <c r="Z135" s="9">
-        <f ca="1">B134:Z193</f>
+      <c r="Z135">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:26" ht="15" customHeight="1">
-      <c r="B136" s="24">
+      <c r="B136" s="22">
         <v>2065</v>
       </c>
       <c r="C136" t="s">
         <v>170</v>
       </c>
-      <c r="F136" s="90">
+      <c r="F136" s="84">
         <v>45958</v>
       </c>
-      <c r="Z136" s="9">
-        <f ca="1">B135:Z194</f>
+      <c r="Z136">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:26" ht="15" customHeight="1">
-      <c r="B137" s="24">
+      <c r="B137" s="22">
         <v>2066</v>
       </c>
       <c r="C137" t="s">
         <v>171</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="11">
         <v>45958</v>
       </c>
-      <c r="Z137" s="9">
-        <f ca="1">B136:Z195</f>
+      <c r="Z137">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:26" ht="15" customHeight="1">
-      <c r="B138" s="24">
+      <c r="B138" s="22">
         <v>2067</v>
       </c>
       <c r="C138" t="s">
         <v>172</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="11">
         <v>45958</v>
       </c>
-      <c r="Z138" s="9">
-        <f ca="1">B137:Z196</f>
+      <c r="Z138">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:26" ht="15" customHeight="1">
-      <c r="B139" s="24">
+      <c r="B139" s="22">
         <v>2068</v>
       </c>
       <c r="C139" t="s">
         <v>173</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="11">
         <v>45958</v>
       </c>
-      <c r="Z139" s="9">
-        <f ca="1">B138:Z197</f>
+      <c r="Z139">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:26" ht="15" customHeight="1">
-      <c r="B140" s="24">
+      <c r="B140" s="22">
         <v>2069</v>
       </c>
       <c r="C140" t="s">
         <v>174</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F140" s="11">
         <v>45958</v>
       </c>
-      <c r="Z140" s="9">
-        <f ca="1">B139:Z198</f>
+      <c r="Z140">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:26" ht="15" customHeight="1">
-      <c r="B141" s="24">
+      <c r="B141" s="22">
         <v>2070</v>
       </c>
       <c r="C141" t="s">
         <v>175</v>
       </c>
-      <c r="F141" s="13">
+      <c r="F141" s="11">
         <v>45958</v>
       </c>
-      <c r="Z141" s="9">
-        <f ca="1">B140:Z199</f>
+      <c r="Z141">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="2:26" ht="15" customHeight="1">
-      <c r="B142" s="24">
+      <c r="B142" s="22">
         <v>2071</v>
       </c>
       <c r="C142" t="s">
         <v>176</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142" s="11">
         <v>45958</v>
       </c>
-      <c r="Z142" s="9">
-        <f ca="1">B141:Z200</f>
+      <c r="Z142">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:26" ht="15" customHeight="1">
-      <c r="B143" s="24">
+      <c r="B143" s="22">
         <v>2072</v>
       </c>
       <c r="C143" t="s">
         <v>177</v>
       </c>
-      <c r="F143" s="13">
+      <c r="F143" s="11">
         <v>45958</v>
       </c>
-      <c r="Z143" s="9">
-        <f ca="1">B142:Z201</f>
+      <c r="Z143">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:26" ht="15" customHeight="1">
-      <c r="B144" s="24">
+      <c r="B144" s="22">
         <v>2073</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144" s="11">
         <v>45958</v>
       </c>
-      <c r="Z144" s="9">
-        <f ca="1">B143:Z202</f>
+      <c r="Z144">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:26" ht="15" customHeight="1">
-      <c r="B145" s="24">
+      <c r="B145" s="22">
         <v>2074</v>
       </c>
       <c r="C145" t="s">
         <v>179</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="11">
         <v>45958</v>
       </c>
-      <c r="G145" s="13">
+      <c r="G145" s="11">
         <v>45958</v>
       </c>
-      <c r="Z145" s="9">
-        <f ca="1">B144:Z203</f>
+      <c r="Z145">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5690,131 +5682,131 @@
       <c r="C146" t="s">
         <v>180</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F146" s="11">
         <v>45959</v>
       </c>
-      <c r="Z146" s="9">
-        <f ca="1">B145:Z204</f>
+      <c r="Z146">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:26" ht="15" customHeight="1">
-      <c r="C147" s="91" t="s">
+      <c r="C147" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="11">
         <v>45959</v>
       </c>
-      <c r="Z147" s="9">
-        <f ca="1">B146:Z205</f>
+      <c r="Z147">
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:26" ht="15" customHeight="1">
-      <c r="C148" s="91" t="s">
+      <c r="C148" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="F148" s="13">
+      <c r="F148" s="11">
         <v>45959</v>
       </c>
-      <c r="Z148" s="9">
-        <f t="shared" ref="Z148:Z171" ca="1" si="2">B147:Z183</f>
+      <c r="Z148">
+        <f t="shared" ref="Z148:Z171" ca="1" si="7">B147:Z183</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:26" ht="15" customHeight="1">
-      <c r="C149" s="91" t="s">
+      <c r="C149" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="F149" s="13">
+      <c r="F149" s="11">
         <v>45959</v>
       </c>
-      <c r="Z149" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z149">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:26" ht="15" customHeight="1">
-      <c r="C150" s="91" t="s">
+      <c r="C150" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="F150" s="13">
+      <c r="F150" s="11">
         <v>45959</v>
       </c>
-      <c r="Z150" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z150">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:26" ht="15" customHeight="1">
-      <c r="C151" s="91" t="s">
+      <c r="C151" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151" s="11">
         <v>45959</v>
       </c>
-      <c r="Z151" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z151">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="2:26" ht="15" customHeight="1">
-      <c r="C152" s="91" t="s">
+      <c r="C152" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="11">
         <v>45959</v>
       </c>
-      <c r="Z152" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z152">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:26" ht="15" customHeight="1">
-      <c r="C153" s="91" t="s">
+      <c r="C153" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="11">
         <v>45959</v>
       </c>
-      <c r="Z153" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z153">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="2:26" ht="15" customHeight="1">
-      <c r="C154" s="91" t="s">
+      <c r="C154" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="11">
         <v>45959</v>
       </c>
-      <c r="Z154" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z154">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:26" ht="15" customHeight="1">
-      <c r="C155" s="91" t="s">
+      <c r="C155" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="11">
         <v>45959</v>
       </c>
-      <c r="Z155" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z155">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:26" ht="15" customHeight="1">
-      <c r="C156" s="91" t="s">
+      <c r="C156" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156" s="11">
         <v>45959</v>
       </c>
-      <c r="Z156" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z156">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5822,11 +5814,11 @@
       <c r="C157" t="s">
         <v>190</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157" s="11">
         <v>45959</v>
       </c>
-      <c r="Z157" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z157">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,95 +5826,95 @@
       <c r="C158" t="s">
         <v>191</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="11">
         <v>45959</v>
       </c>
-      <c r="Z158" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z158">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="2:26" ht="15" customHeight="1">
-      <c r="C159" s="92" t="s">
+      <c r="C159" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159" s="11">
         <v>45959</v>
       </c>
-      <c r="Z159" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z159">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="2:26" ht="15" customHeight="1">
-      <c r="Z160" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z160">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" customHeight="1">
-      <c r="Z161" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z161">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" customHeight="1">
-      <c r="Z162" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z162">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" customHeight="1">
-      <c r="Z163" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z163">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" customHeight="1">
-      <c r="Z164" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z164">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" customHeight="1">
-      <c r="Z165" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z165">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" customHeight="1">
-      <c r="Z166" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z166">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" customHeight="1">
-      <c r="Z167" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z167">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" customHeight="1">
-      <c r="Z168" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z168">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" customHeight="1">
-      <c r="Z169" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z169">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" customHeight="1">
-      <c r="Z170" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z170">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" customHeight="1">
-      <c r="Z171" s="9">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z171">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5963,34 +5955,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="25" style="7" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
     <col min="12" max="14" width="21" customWidth="1"/>
-    <col min="15" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" customWidth="1"/>
+    <col min="15" max="17" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" customWidth="1"/>
-    <col min="27" max="27" width="23.28515625" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.88671875" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22.6640625" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:29" ht="14.4">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -6075,53 +6067,53 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="55" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A2" s="52">
+    <row r="2" spans="1:29" s="50" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A2" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1001</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="50">
         <v>594125072</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="58"/>
-    </row>
-    <row r="3" spans="1:29" ht="16.899999999999999" customHeight="1">
-      <c r="A3" s="24">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="52"/>
+    </row>
+    <row r="3" spans="1:29" ht="16.95" customHeight="1">
+      <c r="A3" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1002</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>226</v>
       </c>
       <c r="D3" t="s">
@@ -6160,8 +6152,8 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="16.899999999999999" customHeight="1">
-      <c r="A4" s="24">
+    <row r="4" spans="1:29" ht="16.95" customHeight="1">
+      <c r="A4" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1003</v>
       </c>
@@ -6190,8 +6182,8 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="24">
+    <row r="5" spans="1:29" ht="14.4">
+      <c r="A5" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1004</v>
       </c>
@@ -6217,8 +6209,8 @@
         <v>552799219</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="24">
+    <row r="6" spans="1:29" ht="14.4">
+      <c r="A6" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1005</v>
       </c>
@@ -6249,8 +6241,8 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="24">
+    <row r="7" spans="1:29" ht="14.4">
+      <c r="A7" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1006</v>
       </c>
@@ -6287,8 +6279,8 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="24">
+    <row r="8" spans="1:29" ht="14.4">
+      <c r="A8" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1007</v>
       </c>
@@ -6322,8 +6314,8 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="24">
+    <row r="9" spans="1:29" ht="14.4">
+      <c r="A9" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1008</v>
       </c>
@@ -6357,8 +6349,8 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="24">
+    <row r="10" spans="1:29" ht="14.4">
+      <c r="A10" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1009</v>
       </c>
@@ -6392,8 +6384,8 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="24">
+    <row r="11" spans="1:29" ht="14.4">
+      <c r="A11" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1010</v>
       </c>
@@ -6427,8 +6419,8 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="24">
+    <row r="12" spans="1:29" ht="14.4">
+      <c r="A12" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1011</v>
       </c>
@@ -6457,8 +6449,8 @@
         <v>556704506</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="25">
+    <row r="13" spans="1:29" ht="14.4">
+      <c r="A13" s="23">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1012</v>
       </c>
@@ -6484,40 +6476,40 @@
         <v>565188148</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="15" customFormat="1">
-      <c r="A14" s="24">
+    <row r="14" spans="1:29" s="13" customFormat="1" ht="14.4">
+      <c r="A14" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1013</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="D14" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <v>559578147</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="24">
+    <row r="15" spans="1:29" ht="14.4">
+      <c r="A15" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1014</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D15" t="s">
@@ -6542,8 +6534,8 @@
         <v>590445678</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="26">
+    <row r="16" spans="1:29" ht="14.4">
+      <c r="A16" s="24">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1015</v>
       </c>
@@ -6572,38 +6564,38 @@
         <v>555084045</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="55" customFormat="1">
-      <c r="A17" s="52">
+    <row r="17" spans="1:12" s="50" customFormat="1" ht="14.4">
+      <c r="A17" s="47">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1016</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="55" t="s">
+      <c r="D17" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="50">
         <v>555223429</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="24">
+    <row r="18" spans="1:12" ht="14.4">
+      <c r="A18" s="22">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1017</v>
       </c>
@@ -6629,144 +6621,144 @@
         <v>505681908</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="55" customFormat="1">
-      <c r="A19" s="52">
+    <row r="19" spans="1:12" s="50" customFormat="1" ht="14.4">
+      <c r="A19" s="47">
         <v>1028</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="55" t="s">
+      <c r="D19" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="50">
         <v>555696643</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="36" customFormat="1">
-      <c r="A20" s="24">
+    <row r="20" spans="1:12" s="33" customFormat="1" ht="14.4">
+      <c r="A20" s="22">
         <v>1029</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="D20" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="B20" s="32"/>
+      <c r="D20" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="33">
         <v>500028888</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="55" customFormat="1">
-      <c r="A21" s="52">
+    <row r="21" spans="1:12" s="50" customFormat="1" ht="14.4">
+      <c r="A21" s="47">
         <v>1030</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="D21" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="55" t="s">
+      <c r="B21" s="48"/>
+      <c r="D21" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="50">
         <v>554116688</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="64" customFormat="1">
-      <c r="A22" s="62">
+    <row r="22" spans="1:12" s="58" customFormat="1" ht="14.4">
+      <c r="A22" s="56">
         <v>1031</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="64" t="s">
+      <c r="D22" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="58">
         <v>545895688</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="18" customFormat="1">
-      <c r="A23" s="24">
+    <row r="23" spans="1:12" s="16" customFormat="1" ht="14.4">
+      <c r="A23" s="22">
         <v>1032</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="D23" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="B23" s="15"/>
+      <c r="D23" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="24">
+    <row r="24" spans="1:12" ht="14.4">
+      <c r="A24" s="22">
         <v>1033</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -6794,8 +6786,8 @@
         <v>504733378</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="24">
+    <row r="25" spans="1:12" ht="14.4">
+      <c r="A25" s="22">
         <v>1034</v>
       </c>
       <c r="D25" t="s">
@@ -6820,66 +6812,66 @@
         <v>554900007</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="36" customFormat="1">
-      <c r="A26" s="24">
+    <row r="26" spans="1:12" s="33" customFormat="1" ht="14.4">
+      <c r="A26" s="22">
         <v>1035</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="33">
         <v>566220700</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="18" customFormat="1">
-      <c r="A27" s="24">
+    <row r="27" spans="1:12" s="16" customFormat="1" ht="14.4">
+      <c r="A27" s="22">
         <v>1036</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="D27" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <v>533378332</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="24">
+    <row r="28" spans="1:12" ht="14.4">
+      <c r="A28" s="22">
         <v>1037</v>
       </c>
       <c r="D28" t="s">
@@ -6904,8 +6896,8 @@
         <v>555074642</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="24">
+    <row r="29" spans="1:12" ht="14.4">
+      <c r="A29" s="22">
         <v>1038</v>
       </c>
       <c r="D29" t="s">
@@ -6930,8 +6922,8 @@
         <v>503510794</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="24">
+    <row r="30" spans="1:12" ht="14.4">
+      <c r="A30" s="22">
         <v>1039</v>
       </c>
       <c r="D30" t="s">
@@ -6956,8 +6948,8 @@
         <v>566314444</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="24">
+    <row r="31" spans="1:12" ht="14.4">
+      <c r="A31" s="22">
         <v>1040</v>
       </c>
       <c r="D31" t="s">
@@ -6982,8 +6974,8 @@
         <v>532129095</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="24">
+    <row r="32" spans="1:12" ht="14.4">
+      <c r="A32" s="22">
         <v>1041</v>
       </c>
       <c r="D32" t="s">
@@ -7005,8 +6997,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="24">
+    <row r="33" spans="1:11" ht="14.4">
+      <c r="A33" s="22">
         <v>1042</v>
       </c>
       <c r="D33" t="s">
@@ -7034,8 +7026,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="24">
+    <row r="34" spans="1:11" ht="14.4">
+      <c r="A34" s="22">
         <v>1043</v>
       </c>
       <c r="D34" t="s">
@@ -7060,8 +7052,8 @@
         <v>566075156</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="24">
+    <row r="35" spans="1:11" ht="14.4">
+      <c r="A35" s="22">
         <v>1044</v>
       </c>
       <c r="D35" t="s">
@@ -7086,8 +7078,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="24">
+    <row r="36" spans="1:11" ht="14.4">
+      <c r="A36" s="22">
         <v>1045</v>
       </c>
       <c r="D36" t="s">
@@ -7106,8 +7098,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="24">
+    <row r="37" spans="1:11" ht="14.4">
+      <c r="A37" s="22">
         <v>1046</v>
       </c>
       <c r="D37" t="s">
@@ -7126,8 +7118,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="24">
+    <row r="38" spans="1:11" ht="14.4">
+      <c r="A38" s="22">
         <v>1047</v>
       </c>
       <c r="D38" t="s">
@@ -7152,8 +7144,8 @@
         <v>556719292</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="24">
+    <row r="39" spans="1:11" ht="14.4">
+      <c r="A39" s="22">
         <v>1048</v>
       </c>
       <c r="D39" t="s">
@@ -7178,8 +7170,8 @@
         <v>545622789</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="24">
+    <row r="40" spans="1:11" ht="14.4">
+      <c r="A40" s="22">
         <v>1049</v>
       </c>
       <c r="D40" t="s">
@@ -7198,8 +7190,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="24">
+    <row r="41" spans="1:11" ht="14.4">
+      <c r="A41" s="22">
         <v>1050</v>
       </c>
       <c r="D41" t="s">
@@ -7224,8 +7216,8 @@
         <v>553816231</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="24">
+    <row r="42" spans="1:11" ht="14.4">
+      <c r="A42" s="22">
         <v>1051</v>
       </c>
       <c r="D42" t="s">
@@ -7250,8 +7242,8 @@
         <v>503446319</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="24">
+    <row r="43" spans="1:11" ht="14.4">
+      <c r="A43" s="22">
         <v>1052</v>
       </c>
       <c r="D43" t="s">
@@ -7271,8 +7263,8 @@
         <v>536222929</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="24">
+    <row r="44" spans="1:11" ht="14.4">
+      <c r="A44" s="22">
         <v>1053</v>
       </c>
       <c r="D44" t="s">
@@ -7294,37 +7286,37 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="29" customFormat="1">
-      <c r="A45" s="24">
+    <row r="45" spans="1:11" s="27" customFormat="1" ht="14.4">
+      <c r="A45" s="22">
         <v>1054</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="29" t="s">
+      <c r="D45" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="27">
         <v>506665351</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="24">
+    <row r="46" spans="1:11" ht="14.4">
+      <c r="A46" s="22">
         <v>1055</v>
       </c>
       <c r="D46" t="s">
@@ -7349,8 +7341,8 @@
         <v>505407448</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="24">
+    <row r="47" spans="1:11" ht="14.4">
+      <c r="A47" s="22">
         <v>1056</v>
       </c>
       <c r="D47" t="s">
@@ -7375,8 +7367,8 @@
         <v>503686452</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="24">
+    <row r="48" spans="1:11" ht="14.4">
+      <c r="A48" s="22">
         <v>1057</v>
       </c>
       <c r="D48" t="s">
@@ -7401,8 +7393,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="24">
+    <row r="49" spans="1:11" ht="14.4">
+      <c r="A49" s="22">
         <v>1058</v>
       </c>
       <c r="D49" t="s">
@@ -7427,8 +7419,8 @@
         <v>509331170</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="24">
+    <row r="50" spans="1:11" ht="14.4">
+      <c r="A50" s="22">
         <v>1059</v>
       </c>
       <c r="D50" t="s">
@@ -7453,8 +7445,8 @@
         <v>544380022</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="24">
+    <row r="51" spans="1:11" ht="14.4">
+      <c r="A51" s="22">
         <v>1060</v>
       </c>
       <c r="D51" t="s">
@@ -7479,38 +7471,38 @@
         <v>569899998</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="55" customFormat="1">
-      <c r="A52" s="52">
+    <row r="52" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A52" s="47">
         <v>1061</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="55" t="s">
+      <c r="D52" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="H52" s="58"/>
-      <c r="I52" s="55" t="s">
+      <c r="H52" s="52"/>
+      <c r="I52" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="J52" s="66" t="s">
+      <c r="J52" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="K52" s="58" t="s">
+      <c r="K52" s="52" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="24">
+    <row r="53" spans="1:11" ht="14.4">
+      <c r="A53" s="22">
         <v>1062</v>
       </c>
       <c r="D53" t="s">
@@ -7535,8 +7527,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="24">
+    <row r="54" spans="1:11" ht="14.4">
+      <c r="A54" s="22">
         <v>1063</v>
       </c>
       <c r="D54" t="s">
@@ -7559,8 +7551,8 @@
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="24">
+    <row r="55" spans="1:11" ht="14.4">
+      <c r="A55" s="22">
         <v>1064</v>
       </c>
       <c r="D55" t="s">
@@ -7585,31 +7577,31 @@
         <v>554499614</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="55" customFormat="1">
-      <c r="A56" s="52">
+    <row r="56" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A56" s="47">
         <v>1065</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="55" t="s">
+      <c r="D56" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="58" t="s">
+      <c r="H56" s="52" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="24">
+    <row r="57" spans="1:11" ht="14.4">
+      <c r="A57" s="22">
         <v>1066</v>
       </c>
       <c r="D57" t="s">
@@ -7631,8 +7623,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="24">
+    <row r="58" spans="1:11" ht="14.4">
+      <c r="A58" s="22">
         <v>1067</v>
       </c>
       <c r="D58" t="s">
@@ -7654,8 +7646,8 @@
         <v>563317115</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="24">
+    <row r="59" spans="1:11" ht="14.4">
+      <c r="A59" s="22">
         <v>1068</v>
       </c>
       <c r="D59" t="s">
@@ -7672,8 +7664,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="24">
+    <row r="60" spans="1:11" ht="14.4">
+      <c r="A60" s="22">
         <v>1069</v>
       </c>
       <c r="D60" t="s">
@@ -7692,8 +7684,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="24">
+    <row r="61" spans="1:11" ht="14.4">
+      <c r="A61" s="22">
         <v>1070</v>
       </c>
       <c r="D61" t="s">
@@ -7715,8 +7707,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="24">
+    <row r="62" spans="1:11" ht="14.4">
+      <c r="A62" s="22">
         <v>1071</v>
       </c>
       <c r="D62" t="s">
@@ -7735,8 +7727,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="24">
+    <row r="63" spans="1:11" ht="14.4">
+      <c r="A63" s="22">
         <v>1072</v>
       </c>
       <c r="D63" t="s">
@@ -7755,8 +7747,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="24">
+    <row r="64" spans="1:11" ht="14.4">
+      <c r="A64" s="22">
         <v>1073</v>
       </c>
       <c r="D64" t="s">
@@ -7775,8 +7767,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="24">
+    <row r="65" spans="1:11" ht="14.4">
+      <c r="A65" s="22">
         <v>1074</v>
       </c>
       <c r="D65" t="s">
@@ -7795,8 +7787,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="24">
+    <row r="66" spans="1:11" ht="14.4">
+      <c r="A66" s="22">
         <v>1075</v>
       </c>
       <c r="D66" t="s">
@@ -7815,8 +7807,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="24">
+    <row r="67" spans="1:11" ht="14.4">
+      <c r="A67" s="22">
         <v>1076</v>
       </c>
       <c r="D67" t="s">
@@ -7838,8 +7830,8 @@
         <v>564060131</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="24">
+    <row r="68" spans="1:11" ht="14.4">
+      <c r="A68" s="22">
         <v>1077</v>
       </c>
       <c r="D68" t="s">
@@ -7864,8 +7856,8 @@
         <v>552648329</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="24">
+    <row r="69" spans="1:11" ht="14.4">
+      <c r="A69" s="22">
         <v>1078</v>
       </c>
       <c r="D69" t="s">
@@ -7887,8 +7879,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="24">
+    <row r="70" spans="1:11" ht="14.4">
+      <c r="A70" s="22">
         <v>1079</v>
       </c>
       <c r="D70" t="s">
@@ -7910,217 +7902,217 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="40" customFormat="1">
-      <c r="A71" s="24">
+    <row r="71" spans="1:11" s="37" customFormat="1" ht="14.4">
+      <c r="A71" s="22">
         <v>1080</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E71" s="40" t="s">
+      <c r="D71" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G71" s="40" t="s">
+      <c r="G71" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="H71" s="41" t="s">
+      <c r="H71" s="38" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="55" customFormat="1">
-      <c r="A72" s="52">
+    <row r="72" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A72" s="47">
         <v>1081</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="D72" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="55" t="s">
+      <c r="D72" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="61" t="s">
         <v>424</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H72" s="58" t="s">
+      <c r="H72" s="52" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="55" customFormat="1">
-      <c r="A73" s="52">
+    <row r="73" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A73" s="47">
         <v>1082</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="55" t="s">
+      <c r="D73" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="55" t="s">
+      <c r="F73" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H73" s="58" t="s">
+      <c r="H73" s="52" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="55" customFormat="1">
-      <c r="A74" s="52">
+    <row r="74" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A74" s="47">
         <v>1083</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="D74" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="55" t="s">
+      <c r="D74" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G74" s="55" t="s">
+      <c r="G74" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H74" s="58" t="s">
+      <c r="H74" s="52" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="55" customFormat="1">
-      <c r="A75" s="52">
+    <row r="75" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A75" s="47">
         <v>1085</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" s="61" t="s">
+      <c r="D75" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H75" s="58" t="s">
+      <c r="H75" s="52" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="55" customFormat="1">
-      <c r="A76" s="52">
+    <row r="76" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A76" s="47">
         <v>1086</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="D76" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="55" t="s">
+      <c r="D76" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="G76" s="55" t="s">
+      <c r="G76" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H76" s="58" t="s">
+      <c r="H76" s="52" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="55" customFormat="1">
-      <c r="A77" s="52">
+    <row r="77" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A77" s="47">
         <v>1087</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D77" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E77" s="55" t="s">
+      <c r="D77" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G77" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H77" s="58" t="s">
+      <c r="H77" s="52" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="55" customFormat="1">
-      <c r="A78" s="52">
+    <row r="78" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A78" s="47">
         <v>1088</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="D78" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" s="55" t="s">
+      <c r="D78" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G78" s="55" t="s">
+      <c r="G78" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H78" s="58" t="s">
+      <c r="H78" s="52" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="55" customFormat="1">
-      <c r="A79" s="52">
+    <row r="79" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A79" s="47">
         <v>1089</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="57" t="s">
+      <c r="D79" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H79" s="58" t="s">
+      <c r="H79" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K79" s="71" t="s">
+      <c r="K79" s="65" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="55" customFormat="1">
-      <c r="A80" s="52">
+    <row r="80" spans="1:11" s="50" customFormat="1" ht="14.4">
+      <c r="A80" s="47">
         <v>1090</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E80" s="55" t="s">
+      <c r="D80" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H80" s="58" t="s">
+      <c r="H80" s="52" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="1:28" s="5" customFormat="1">
-      <c r="A81" s="24">
+    <row r="81" spans="1:25" s="5" customFormat="1" ht="14.4">
+      <c r="A81" s="22">
         <v>1091</v>
       </c>
       <c r="B81" s="8"/>
@@ -8135,52 +8127,52 @@
       </c>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="55" customFormat="1">
-      <c r="A82" s="52">
+    <row r="82" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A82" s="47">
         <v>1092</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D82" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="55" t="s">
+      <c r="D82" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="55" t="s">
+      <c r="F82" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H82" s="58" t="s">
+      <c r="H82" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="I82" s="55" t="s">
+      <c r="I82" s="50" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:28" s="55" customFormat="1">
-      <c r="A83" s="52">
+    <row r="83" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A83" s="47">
         <v>1093</v>
       </c>
-      <c r="B83" s="53"/>
-      <c r="D83" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="55" t="s">
+      <c r="B83" s="48"/>
+      <c r="D83" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H83" s="58" t="s">
+      <c r="H83" s="52" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
-      <c r="A84" s="24">
+    <row r="84" spans="1:25" ht="14.4">
+      <c r="A84" s="22">
         <v>1094</v>
       </c>
       <c r="D84" t="s">
@@ -8209,28 +8201,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" s="44" customFormat="1">
-      <c r="A85" s="43">
+    <row r="85" spans="1:25" s="40" customFormat="1" ht="14.4">
+      <c r="A85" s="39">
         <v>1095</v>
       </c>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="D85" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E85" s="44" t="s">
+      <c r="D85" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="G85" s="44" t="s">
+      <c r="G85" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="H85" s="69" t="s">
+      <c r="H85" s="63" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
-      <c r="A86" s="24">
+    <row r="86" spans="1:25" ht="14.4">
+      <c r="A86" s="22">
         <v>1096</v>
       </c>
       <c r="D86" t="s">
@@ -8242,15 +8234,13 @@
       <c r="G86" t="s">
         <v>450</v>
       </c>
-      <c r="Y86" s="9">
+      <c r="Y86">
         <f ca="1">A85:Y116</f>
         <v>0</v>
       </c>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
-    </row>
-    <row r="87" spans="1:28">
-      <c r="A87" s="24">
+    </row>
+    <row r="87" spans="1:25" ht="14.4">
+      <c r="A87" s="22">
         <v>1097</v>
       </c>
       <c r="D87" t="s">
@@ -8268,18 +8258,16 @@
       <c r="I87" t="s">
         <v>285</v>
       </c>
-      <c r="Y87" s="9">
+      <c r="Y87">
         <f ca="1">A86:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA87" s="9"/>
-      <c r="AB87" s="9"/>
-    </row>
-    <row r="88" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A88" s="24">
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A88" s="22">
         <v>1098</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="31" t="s">
         <v>452</v>
       </c>
       <c r="D88" t="s">
@@ -8297,15 +8285,13 @@
       <c r="I88" t="s">
         <v>392</v>
       </c>
-      <c r="Y88" s="9">
+      <c r="Y88">
         <f ca="1">A87:Y118</f>
         <v>0</v>
       </c>
-      <c r="AA88" s="9"/>
-      <c r="AB88" s="9"/>
-    </row>
-    <row r="89" spans="1:28">
-      <c r="A89" s="24">
+    </row>
+    <row r="89" spans="1:25" ht="14.4">
+      <c r="A89" s="22">
         <v>1099</v>
       </c>
       <c r="D89" t="s">
@@ -8323,44 +8309,40 @@
       <c r="I89" t="s">
         <v>230</v>
       </c>
-      <c r="Y89" s="9">
+      <c r="Y89">
         <f ca="1">A88:Y119</f>
         <v>0</v>
       </c>
-      <c r="AA89" s="9"/>
-      <c r="AB89" s="9"/>
-    </row>
-    <row r="90" spans="1:28" s="29" customFormat="1">
-      <c r="A90" s="24">
+    </row>
+    <row r="90" spans="1:25" s="27" customFormat="1" ht="14.4">
+      <c r="A90" s="22">
         <v>2000</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E90" s="29" t="s">
+      <c r="D90" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F90" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="Y90" s="31">
-        <f ca="1">A89:Y119</f>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="31"/>
-      <c r="AB90" s="31"/>
-    </row>
-    <row r="91" spans="1:28">
-      <c r="A91" s="24">
+      <c r="Y90" s="27">
+        <f t="shared" ref="Y90:Y95" ca="1" si="0">A89:Y119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="14.4">
+      <c r="A91" s="22">
         <v>2016</v>
       </c>
       <c r="D91" t="s">
@@ -8378,44 +8360,40 @@
       <c r="I91" t="s">
         <v>459</v>
       </c>
-      <c r="Y91" s="9">
-        <f ca="1">A90:Y120</f>
-        <v>0</v>
-      </c>
-      <c r="AA91" s="9"/>
-      <c r="AB91" s="9"/>
-    </row>
-    <row r="92" spans="1:28" s="23" customFormat="1">
-      <c r="A92" s="24">
+      <c r="Y91">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" s="21" customFormat="1" ht="14.4">
+      <c r="A92" s="22">
         <v>2017</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E92" s="23" t="s">
+      <c r="D92" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I92" s="23" t="s">
+      <c r="I92" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="Y92" s="42">
-        <f ca="1">A91:Y121</f>
-        <v>0</v>
-      </c>
-      <c r="AA92" s="42"/>
-      <c r="AB92" s="42"/>
-    </row>
-    <row r="93" spans="1:28">
-      <c r="A93" s="24">
+      <c r="Y92" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="14.4">
+      <c r="A93" s="22">
         <v>2018</v>
       </c>
       <c r="D93" t="s">
@@ -8433,15 +8411,13 @@
       <c r="I93" t="s">
         <v>463</v>
       </c>
-      <c r="Y93" s="9">
-        <f ca="1">A92:Y122</f>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="9"/>
-      <c r="AB93" s="9"/>
-    </row>
-    <row r="94" spans="1:28">
-      <c r="A94" s="24">
+      <c r="Y93">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="14.4">
+      <c r="A94" s="22">
         <v>2019</v>
       </c>
       <c r="D94" t="s">
@@ -8459,15 +8435,13 @@
       <c r="I94" t="s">
         <v>241</v>
       </c>
-      <c r="Y94" s="9">
-        <f ca="1">A93:Y123</f>
-        <v>0</v>
-      </c>
-      <c r="AA94" s="9"/>
-      <c r="AB94" s="9"/>
-    </row>
-    <row r="95" spans="1:28">
-      <c r="A95" s="24">
+      <c r="Y94">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="14.4">
+      <c r="A95" s="22">
         <v>2020</v>
       </c>
       <c r="D95" t="s">
@@ -8482,21 +8456,19 @@
       <c r="G95" t="s">
         <v>259</v>
       </c>
-      <c r="Y95" s="9">
-        <f ca="1">A94:Y124</f>
-        <v>0</v>
-      </c>
-      <c r="AA95" s="9"/>
-      <c r="AB95" s="9"/>
-    </row>
-    <row r="96" spans="1:28">
-      <c r="A96" s="24">
+      <c r="Y95">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="14.4">
+      <c r="A96" s="22">
         <v>2021</v>
       </c>
       <c r="D96" t="s">
         <v>220</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" t="s">
         <v>129</v>
       </c>
       <c r="F96" t="s">
@@ -8505,15 +8477,13 @@
       <c r="G96" t="s">
         <v>259</v>
       </c>
-      <c r="Y96" s="9">
+      <c r="Y96">
         <f ca="1">A95:Y115</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="9"/>
-      <c r="AB96" s="9"/>
-    </row>
-    <row r="97" spans="1:28">
-      <c r="A97" s="24">
+    </row>
+    <row r="97" spans="1:25" ht="14.4">
+      <c r="A97" s="22">
         <v>2022</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -8534,15 +8504,13 @@
       <c r="I97" t="s">
         <v>234</v>
       </c>
-      <c r="Y97" s="9">
+      <c r="Y97">
         <f ca="1">A96:Y116</f>
         <v>0</v>
       </c>
-      <c r="AA97" s="9"/>
-      <c r="AB97" s="9"/>
-    </row>
-    <row r="98" spans="1:28">
-      <c r="A98" s="24">
+    </row>
+    <row r="98" spans="1:25" ht="14.4">
+      <c r="A98" s="22">
         <v>2025</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -8563,15 +8531,13 @@
       <c r="I98" t="s">
         <v>230</v>
       </c>
-      <c r="Y98" s="9">
+      <c r="Y98">
         <f ca="1">A97:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA98" s="9"/>
-      <c r="AB98" s="9"/>
-    </row>
-    <row r="99" spans="1:28">
-      <c r="A99" s="24">
+    </row>
+    <row r="99" spans="1:25" ht="14.4">
+      <c r="A99" s="22">
         <v>2026</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -8592,15 +8558,13 @@
       <c r="I99" t="s">
         <v>241</v>
       </c>
-      <c r="Y99" s="9">
+      <c r="Y99">
         <f ca="1">A99:Y119</f>
         <v>0</v>
       </c>
-      <c r="AA99" s="9"/>
-      <c r="AB99" s="9"/>
-    </row>
-    <row r="100" spans="1:28">
-      <c r="A100" s="24">
+    </row>
+    <row r="100" spans="1:25" ht="14.4">
+      <c r="A100" s="22">
         <v>2027</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -8621,55 +8585,49 @@
       <c r="I100" t="s">
         <v>368</v>
       </c>
-      <c r="Y100" s="9">
-        <f ca="1">A99:Y120</f>
-        <v>0</v>
-      </c>
-      <c r="AA100" s="9"/>
-      <c r="AB100" s="9"/>
-    </row>
-    <row r="101" spans="1:28">
-      <c r="A101" s="24">
+      <c r="Y100">
+        <f t="shared" ref="Y100:Y110" ca="1" si="1">A99:Y120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="14.4">
+      <c r="A101" s="22">
         <v>2028</v>
       </c>
       <c r="D101" t="s">
         <v>220</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="9" t="s">
         <v>134</v>
       </c>
       <c r="G101" t="s">
         <v>239</v>
       </c>
-      <c r="Y101" s="9">
-        <f ca="1">A100:Y121</f>
-        <v>0</v>
-      </c>
-      <c r="AA101" s="9"/>
-      <c r="AB101" s="9"/>
-    </row>
-    <row r="102" spans="1:28">
-      <c r="A102" s="24">
+      <c r="Y101">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="14.4">
+      <c r="A102" s="22">
         <v>2029</v>
       </c>
       <c r="D102" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G102" t="s">
         <v>239</v>
       </c>
-      <c r="Y102" s="9">
-        <f ca="1">A101:Y122</f>
-        <v>0</v>
-      </c>
-      <c r="AA102" s="9"/>
-      <c r="AB102" s="9"/>
-    </row>
-    <row r="103" spans="1:28">
-      <c r="A103" s="24">
+      <c r="Y102">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="14.4">
+      <c r="A103" s="22">
         <v>2030</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -8678,7 +8636,7 @@
       <c r="D103" t="s">
         <v>220</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G103" t="s">
@@ -8690,39 +8648,35 @@
       <c r="J103">
         <v>545733999</v>
       </c>
-      <c r="Y103" s="9">
-        <f ca="1">A102:Y123</f>
-        <v>0</v>
-      </c>
-      <c r="AA103" s="9"/>
-      <c r="AB103" s="9"/>
-    </row>
-    <row r="104" spans="1:28" s="55" customFormat="1">
-      <c r="A104" s="52">
+      <c r="Y103">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A104" s="47">
         <v>2031</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="D104" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E104" s="55" t="s">
+      <c r="D104" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E104" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="G104" s="55" t="s">
+      <c r="G104" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="J104" s="61"/>
-      <c r="Y104" s="56" t="e">
-        <f ca="1">A103:Y124</f>
+      <c r="J104" s="55"/>
+      <c r="Y104" s="50" t="e">
+        <f t="shared" ca="1" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AA104" s="56"/>
-      <c r="AB104" s="56"/>
-    </row>
-    <row r="105" spans="1:28">
-      <c r="A105" s="24">
+    </row>
+    <row r="105" spans="1:25" ht="14.4">
+      <c r="A105" s="22">
         <v>2032</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -8743,15 +8697,13 @@
       <c r="I105" t="s">
         <v>476</v>
       </c>
-      <c r="Y105" s="9">
-        <f ca="1">A104:Y125</f>
-        <v>0</v>
-      </c>
-      <c r="AA105" s="9"/>
-      <c r="AB105" s="9"/>
-    </row>
-    <row r="106" spans="1:28">
-      <c r="A106" s="24">
+      <c r="Y105">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="14.4">
+      <c r="A106" s="22">
         <v>2033</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -8772,15 +8724,13 @@
       <c r="I106" t="s">
         <v>230</v>
       </c>
-      <c r="Y106" s="9">
-        <f ca="1">A105:Y126</f>
-        <v>0</v>
-      </c>
-      <c r="AA106" s="9"/>
-      <c r="AB106" s="9"/>
-    </row>
-    <row r="107" spans="1:28">
-      <c r="A107" s="24">
+      <c r="Y106">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="14.4">
+      <c r="A107" s="22">
         <v>2034</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -8789,7 +8739,7 @@
       <c r="D107" t="s">
         <v>220</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="14" t="s">
         <v>140</v>
       </c>
       <c r="F107" t="s">
@@ -8801,15 +8751,13 @@
       <c r="I107" t="s">
         <v>482</v>
       </c>
-      <c r="Y107" s="9">
-        <f ca="1">A106:Y127</f>
-        <v>0</v>
-      </c>
-      <c r="AA107" s="9"/>
-      <c r="AB107" s="9"/>
-    </row>
-    <row r="108" spans="1:28">
-      <c r="A108" s="24">
+      <c r="Y107">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="14.4">
+      <c r="A108" s="22">
         <v>2035</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -8827,15 +8775,13 @@
       <c r="G108" t="s">
         <v>481</v>
       </c>
-      <c r="Y108" s="9">
-        <f ca="1">A107:Y128</f>
-        <v>0</v>
-      </c>
-      <c r="AA108" s="9"/>
-      <c r="AB108" s="9"/>
-    </row>
-    <row r="109" spans="1:28">
-      <c r="A109" s="24">
+      <c r="Y108">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="14.4">
+      <c r="A109" s="22">
         <v>2036</v>
       </c>
       <c r="D109" t="s">
@@ -8850,15 +8796,13 @@
       <c r="G109" t="s">
         <v>481</v>
       </c>
-      <c r="Y109" s="9">
-        <f ca="1">A108:Y129</f>
-        <v>0</v>
-      </c>
-      <c r="AA109" s="9"/>
-      <c r="AB109" s="9"/>
-    </row>
-    <row r="110" spans="1:28">
-      <c r="A110" s="24">
+      <c r="Y109">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="14.4">
+      <c r="A110" s="22">
         <v>2037</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -8876,24 +8820,22 @@
       <c r="G110" t="s">
         <v>481</v>
       </c>
-      <c r="Y110" s="9">
-        <f ca="1">A109:Y130</f>
-        <v>0</v>
-      </c>
-      <c r="AA110" s="9"/>
-      <c r="AB110" s="9"/>
-    </row>
-    <row r="111" spans="1:28">
-      <c r="A111" s="24">
+      <c r="Y110">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="14.4">
+      <c r="A111" s="22">
         <v>2039</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="11">
         <v>45930</v>
       </c>
       <c r="D111" t="s">
         <v>220</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="9" t="s">
         <v>144</v>
       </c>
       <c r="F111" t="s">
@@ -8905,50 +8847,46 @@
       <c r="I111" t="s">
         <v>489</v>
       </c>
-      <c r="Y111" s="9">
+      <c r="Y111">
         <f ca="1">A110:Y130</f>
         <v>0</v>
       </c>
-      <c r="AA111" s="9"/>
-      <c r="AB111" s="9"/>
-    </row>
-    <row r="112" spans="1:28" s="29" customFormat="1">
-      <c r="A112" s="43">
+    </row>
+    <row r="112" spans="1:25" s="27" customFormat="1" ht="14.4">
+      <c r="A112" s="39">
         <v>2040</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="C112" s="32">
+      <c r="C112" s="29">
         <v>45936</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" s="30" t="s">
+      <c r="D112" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F112" s="33" t="s">
+      <c r="F112" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G112" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="I112" s="29" t="s">
+      <c r="I112" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="J112" s="29" t="s">
+      <c r="J112" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="Y112" s="31">
+      <c r="Y112" s="27">
         <f ca="1">A112:Y132</f>
         <v>0</v>
       </c>
-      <c r="AA112" s="31"/>
-      <c r="AB112" s="31"/>
-    </row>
-    <row r="113" spans="1:28">
-      <c r="A113" s="24">
+    </row>
+    <row r="113" spans="1:25" ht="14.4">
+      <c r="A113" s="22">
         <v>2041</v>
       </c>
       <c r="D113" t="s">
@@ -8960,18 +8898,16 @@
       <c r="G113" t="s">
         <v>259</v>
       </c>
-      <c r="Y113" s="9">
+      <c r="Y113">
         <f ca="1">A112:Y133</f>
         <v>0</v>
       </c>
-      <c r="AA113" s="9"/>
-      <c r="AB113" s="9"/>
-    </row>
-    <row r="114" spans="1:28">
-      <c r="A114" s="24">
+    </row>
+    <row r="114" spans="1:25" ht="14.4">
+      <c r="A114" s="22">
         <v>2042</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="11">
         <v>45928</v>
       </c>
       <c r="D114" t="s">
@@ -8986,73 +8922,67 @@
       <c r="G114" t="s">
         <v>471</v>
       </c>
-      <c r="Y114" s="9">
+      <c r="Y114">
         <f ca="1">A113:Y134</f>
         <v>0</v>
       </c>
-      <c r="AA114" s="9"/>
-      <c r="AB114" s="9"/>
-    </row>
-    <row r="115" spans="1:28" s="55" customFormat="1">
-      <c r="A115" s="52">
+    </row>
+    <row r="115" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A115" s="47">
         <v>2043</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="C115" s="54">
+      <c r="C115" s="49">
         <v>45942</v>
       </c>
-      <c r="D115" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E115" s="55" t="s">
+      <c r="D115" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="F115" s="55" t="s">
+      <c r="F115" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y115" s="56">
+      <c r="Y115" s="50">
         <f ca="1">A114:Y135</f>
         <v>0</v>
       </c>
-      <c r="AA115" s="56"/>
-      <c r="AB115" s="56"/>
-    </row>
-    <row r="116" spans="1:28" s="55" customFormat="1">
-      <c r="A116" s="52">
+    </row>
+    <row r="116" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A116" s="47">
         <v>2044</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="49">
         <v>45945</v>
       </c>
-      <c r="D116" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E116" s="55" t="s">
+      <c r="D116" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="G116" s="55" t="s">
+      <c r="G116" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y116" s="56">
+      <c r="Y116" s="50">
         <f ca="1">A115:Y136</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="56"/>
-      <c r="AB116" s="56"/>
-    </row>
-    <row r="117" spans="1:28">
-      <c r="A117" s="43">
+    </row>
+    <row r="117" spans="1:25" ht="14.4">
+      <c r="A117" s="39">
         <v>2045</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="11">
         <v>45945</v>
       </c>
       <c r="D117" t="s">
@@ -9067,18 +8997,16 @@
       <c r="G117" t="s">
         <v>259</v>
       </c>
-      <c r="Y117" s="9">
+      <c r="Y117">
         <f ca="1">A116:Y137</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="9"/>
-      <c r="AB117" s="9"/>
-    </row>
-    <row r="118" spans="1:28">
-      <c r="A118" s="24">
+    </row>
+    <row r="118" spans="1:25" ht="14.4">
+      <c r="A118" s="22">
         <v>2046</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="11">
         <v>45946</v>
       </c>
       <c r="D118" t="s">
@@ -9090,18 +9018,16 @@
       <c r="G118" t="s">
         <v>259</v>
       </c>
-      <c r="Y118" s="9">
+      <c r="Y118">
         <f ca="1">A117:Y139</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="9"/>
-      <c r="AB118" s="9"/>
-    </row>
-    <row r="119" spans="1:28">
-      <c r="A119" s="24">
+    </row>
+    <row r="119" spans="1:25" ht="14.4">
+      <c r="A119" s="22">
         <v>2047</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="11">
         <v>45946</v>
       </c>
       <c r="D119" t="s">
@@ -9113,48 +9039,44 @@
       <c r="G119" t="s">
         <v>239</v>
       </c>
-      <c r="Y119" s="9">
+      <c r="Y119">
         <f ca="1">A118:Y140</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="9"/>
-      <c r="AB119" s="9"/>
-    </row>
-    <row r="120" spans="1:28" s="55" customFormat="1">
-      <c r="A120" s="52">
+    </row>
+    <row r="120" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A120" s="47">
         <v>2049</v>
       </c>
-      <c r="B120" s="53"/>
-      <c r="C120" s="54">
+      <c r="B120" s="48"/>
+      <c r="C120" s="49">
         <v>45950</v>
       </c>
-      <c r="D120" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E120" s="57" t="s">
+      <c r="D120" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E120" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="F120" s="60" t="s">
+      <c r="F120" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="G120" s="55" t="s">
+      <c r="G120" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="K120" s="58" t="s">
+      <c r="K120" s="52" t="s">
         <v>499</v>
       </c>
-      <c r="Y120" s="56">
+      <c r="Y120" s="50">
         <f ca="1">A120:Y142</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="56"/>
-      <c r="AB120" s="56"/>
-    </row>
-    <row r="121" spans="1:28">
-      <c r="A121" s="24">
+    </row>
+    <row r="121" spans="1:25" ht="14.4">
+      <c r="A121" s="22">
         <v>2050</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="11">
         <v>45951</v>
       </c>
       <c r="D121" t="s">
@@ -9166,216 +9088,200 @@
       <c r="G121" t="s">
         <v>500</v>
       </c>
-      <c r="Y121" s="9">
+      <c r="Y121">
         <f ca="1">A120:Y143</f>
         <v>0</v>
       </c>
-      <c r="AA121" s="9"/>
-      <c r="AB121" s="9"/>
-    </row>
-    <row r="122" spans="1:28" s="55" customFormat="1">
-      <c r="A122" s="52">
+    </row>
+    <row r="122" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A122" s="47">
         <v>2051</v>
       </c>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="C122" s="54">
+      <c r="C122" s="49">
         <v>45952</v>
       </c>
-      <c r="D122" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E122" s="57" t="s">
+      <c r="D122" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G122" s="55" t="s">
+      <c r="G122" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y122" s="56">
+      <c r="Y122" s="50">
         <f ca="1">A121:Y144</f>
         <v>0</v>
       </c>
-      <c r="AA122" s="56"/>
-      <c r="AB122" s="56"/>
-    </row>
-    <row r="123" spans="1:28" s="55" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A123" s="52">
+    </row>
+    <row r="123" spans="1:25" s="50" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A123" s="47">
         <v>2052</v>
       </c>
-      <c r="B123" s="53" t="s">
+      <c r="B123" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="C123" s="54">
+      <c r="C123" s="49">
         <v>45952</v>
       </c>
-      <c r="D123" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E123" s="55" t="s">
+      <c r="D123" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E123" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F123" s="67" t="s">
+      <c r="F123" s="61" t="s">
         <v>502</v>
       </c>
-      <c r="G123" s="55" t="s">
+      <c r="G123" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="K123" s="59" t="s">
+      <c r="K123" s="53" t="s">
         <v>503</v>
       </c>
-      <c r="Y123" s="56">
+      <c r="Y123" s="50">
         <f ca="1">A122:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA123" s="56"/>
-      <c r="AB123" s="56"/>
-    </row>
-    <row r="124" spans="1:28">
-      <c r="A124" s="24">
+    </row>
+    <row r="124" spans="1:25" ht="14.4">
+      <c r="A124" s="22">
         <v>2053</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="11">
         <v>45952</v>
       </c>
       <c r="D124" t="s">
         <v>220</v>
       </c>
-      <c r="E124" s="55" t="s">
+      <c r="E124" s="50" t="s">
         <v>157</v>
       </c>
       <c r="G124" t="s">
         <v>222</v>
       </c>
-      <c r="Y124" s="9">
+      <c r="Y124">
         <f ca="1">A123:Y145</f>
         <v>0</v>
       </c>
-      <c r="AA124" s="9"/>
-      <c r="AB124" s="9"/>
-    </row>
-    <row r="125" spans="1:28" s="55" customFormat="1" ht="16.5">
-      <c r="A125" s="52">
+    </row>
+    <row r="125" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A125" s="47">
         <v>2054</v>
       </c>
-      <c r="B125" s="53" t="s">
+      <c r="B125" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="C125" s="54">
+      <c r="C125" s="49">
         <v>45952</v>
       </c>
-      <c r="D125" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E125" s="70" t="s">
+      <c r="D125" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E125" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F125" s="55" t="s">
+      <c r="F125" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="G125" s="55" t="s">
+      <c r="G125" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y125" s="56">
+      <c r="Y125" s="50">
         <f ca="1">A124:Y146</f>
         <v>0</v>
       </c>
-      <c r="AA125" s="56"/>
-      <c r="AB125" s="56"/>
-    </row>
-    <row r="126" spans="1:28" s="55" customFormat="1">
-      <c r="A126" s="52">
+    </row>
+    <row r="126" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A126" s="47">
         <v>2055</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="C126" s="54">
+      <c r="C126" s="49">
         <v>45952</v>
       </c>
-      <c r="D126" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E126" s="55" t="s">
+      <c r="D126" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E126" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="55" t="s">
+      <c r="G126" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y126" s="56">
+      <c r="Y126" s="50">
         <f ca="1">A125:Y147</f>
         <v>0</v>
       </c>
-      <c r="AA126" s="56"/>
-      <c r="AB126" s="56"/>
-    </row>
-    <row r="127" spans="1:28" s="55" customFormat="1">
-      <c r="A127" s="52">
+    </row>
+    <row r="127" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A127" s="47">
         <v>2056</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54">
+      <c r="B127" s="48"/>
+      <c r="C127" s="49">
         <v>45953</v>
       </c>
-      <c r="D127" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E127" s="57" t="s">
+      <c r="D127" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E127" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G127" s="55" t="s">
+      <c r="G127" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="Y127" s="56">
+      <c r="Y127" s="50">
         <f ca="1">A126:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA127" s="56"/>
-      <c r="AB127" s="56"/>
-    </row>
-    <row r="128" spans="1:28" ht="16.5">
-      <c r="A128" s="24">
+    </row>
+    <row r="128" spans="1:25" ht="14.4">
+      <c r="A128" s="22">
         <v>2057</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="11">
         <v>45953</v>
       </c>
       <c r="D128" t="s">
         <v>220</v>
       </c>
-      <c r="E128" s="55" t="s">
+      <c r="E128" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="F128" s="74" t="s">
+      <c r="F128" s="68" t="s">
         <v>506</v>
       </c>
       <c r="G128" t="s">
         <v>222</v>
       </c>
-      <c r="I128" s="73" t="s">
+      <c r="I128" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="K128" s="72" t="s">
+      <c r="K128" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="Y128" s="9">
+      <c r="Y128">
         <f ca="1">A127:Y149</f>
         <v>0</v>
       </c>
-      <c r="AA128" s="9"/>
-      <c r="AB128" s="9"/>
-    </row>
-    <row r="129" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A129" s="24">
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A129" s="22">
         <v>2057</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="11">
         <v>45953</v>
       </c>
       <c r="D129" t="s">
         <v>220</v>
       </c>
-      <c r="E129" s="75" t="s">
+      <c r="E129" s="69" t="s">
         <v>162</v>
       </c>
       <c r="F129" t="s">
@@ -9387,894 +9293,760 @@
       <c r="I129" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="Y129" s="9">
+      <c r="Y129">
         <f ca="1">A128:Y150</f>
         <v>0</v>
       </c>
-      <c r="AA129" s="9"/>
-      <c r="AB129" s="9"/>
-    </row>
-    <row r="130" spans="1:28" s="55" customFormat="1">
-      <c r="A130" s="52">
+    </row>
+    <row r="130" spans="1:25" s="50" customFormat="1" ht="14.4">
+      <c r="A130" s="47">
         <v>2058</v>
       </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="54">
+      <c r="B130" s="48"/>
+      <c r="C130" s="49">
         <v>45953</v>
       </c>
-      <c r="D130" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E130" s="55" t="s">
+      <c r="D130" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F130" s="55" t="s">
+      <c r="F130" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="G130" s="55" t="s">
+      <c r="G130" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="I130" s="55" t="s">
+      <c r="I130" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="Y130" s="56">
+      <c r="Y130" s="50">
         <f ca="1">A129:Y151</f>
         <v>0</v>
       </c>
-      <c r="AA130" s="56"/>
-      <c r="AB130" s="56"/>
-    </row>
-    <row r="131" spans="1:28">
-      <c r="A131" s="24">
+    </row>
+    <row r="131" spans="1:25" ht="14.4">
+      <c r="A131" s="22">
         <v>2060</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="11">
         <v>45953</v>
       </c>
       <c r="D131" t="s">
         <v>220</v>
       </c>
-      <c r="E131" s="76" t="s">
+      <c r="E131" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="F131" s="74"/>
+      <c r="F131" s="68"/>
       <c r="G131" t="s">
         <v>239</v>
       </c>
-      <c r="Y131" s="9">
+      <c r="Y131">
         <f ca="1">A131:Y153</f>
         <v>0</v>
       </c>
-      <c r="AA131" s="9"/>
-      <c r="AB131" s="9"/>
-    </row>
-    <row r="132" spans="1:28">
-      <c r="A132" s="24">
+    </row>
+    <row r="132" spans="1:25" ht="14.4">
+      <c r="A132" s="22">
         <v>2061</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="11">
         <v>45953</v>
       </c>
       <c r="D132" t="s">
         <v>220</v>
       </c>
-      <c r="E132" s="76" t="s">
+      <c r="E132" s="70" t="s">
         <v>166</v>
       </c>
       <c r="G132" t="s">
         <v>239</v>
       </c>
-      <c r="Y132" s="9">
+      <c r="Y132">
         <f ca="1">A131:Y154</f>
         <v>0</v>
       </c>
-      <c r="AA132" s="9"/>
-      <c r="AB132" s="9"/>
-    </row>
-    <row r="133" spans="1:28">
-      <c r="A133" s="24">
+    </row>
+    <row r="133" spans="1:25" ht="14.4">
+      <c r="A133" s="22">
         <v>2062</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="11">
         <v>45953</v>
       </c>
       <c r="D133" t="s">
         <v>220</v>
       </c>
-      <c r="E133" s="76" t="s">
+      <c r="E133" s="70" t="s">
         <v>167</v>
       </c>
       <c r="G133" t="s">
         <v>239</v>
       </c>
-      <c r="Y133" s="9">
+      <c r="Y133">
         <f ca="1">A132:Y155</f>
         <v>0</v>
       </c>
-      <c r="AA133" s="9"/>
-      <c r="AB133" s="9"/>
-    </row>
-    <row r="134" spans="1:28">
-      <c r="A134" s="24">
+    </row>
+    <row r="134" spans="1:25" ht="14.4">
+      <c r="A134" s="22">
         <v>2063</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="11">
         <v>45953</v>
       </c>
       <c r="D134" t="s">
         <v>220</v>
       </c>
-      <c r="E134" s="76" t="s">
+      <c r="E134" s="70" t="s">
         <v>168</v>
       </c>
       <c r="G134" t="s">
         <v>469</v>
       </c>
-      <c r="Y134" s="9">
+      <c r="Y134">
         <f ca="1">A133:Y156</f>
         <v>0</v>
       </c>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
-    </row>
-    <row r="135" spans="1:28">
-      <c r="A135" s="24">
+    </row>
+    <row r="135" spans="1:25" ht="14.4">
+      <c r="A135" s="22">
         <v>2064</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="11">
         <v>45958</v>
       </c>
       <c r="E135" t="s">
         <v>169</v>
       </c>
-      <c r="G135" s="87" t="s">
+      <c r="G135" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="H135" s="88" t="s">
+      <c r="H135" s="82" t="s">
         <v>515</v>
       </c>
-      <c r="Y135" s="9">
+      <c r="Y135">
         <f ca="1">A134:Y157</f>
         <v>0</v>
       </c>
-      <c r="AA135" s="9"/>
-      <c r="AB135" s="9"/>
-    </row>
-    <row r="136" spans="1:28" ht="45.75">
-      <c r="A136" s="24">
+    </row>
+    <row r="136" spans="1:25" ht="43.2">
+      <c r="A136" s="22">
         <v>2065</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="11">
         <v>45958</v>
       </c>
       <c r="E136" t="s">
         <v>170</v>
       </c>
-      <c r="G136" s="86" t="s">
+      <c r="G136" s="80" t="s">
         <v>516</v>
       </c>
-      <c r="H136" s="88" t="s">
+      <c r="H136" s="82" t="s">
         <v>517</v>
       </c>
-      <c r="Y136" s="9">
+      <c r="Y136">
         <f ca="1">A135:Y158</f>
         <v>0</v>
       </c>
-      <c r="AA136" s="9"/>
-      <c r="AB136" s="9"/>
-    </row>
-    <row r="137" spans="1:28" ht="45.75">
-      <c r="A137" s="24">
+    </row>
+    <row r="137" spans="1:25" ht="43.2">
+      <c r="A137" s="22">
         <v>2066</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="11">
         <v>45958</v>
       </c>
       <c r="E137" t="s">
         <v>171</v>
       </c>
-      <c r="G137" s="86" t="s">
+      <c r="G137" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="H137" s="88" t="s">
+      <c r="H137" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="Y137" s="9">
+      <c r="Y137">
         <f ca="1">A136:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA137" s="9"/>
-      <c r="AB137" s="9"/>
-    </row>
-    <row r="138" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A138" s="24">
+    </row>
+    <row r="138" spans="1:25" ht="16.5" customHeight="1">
+      <c r="A138" s="22">
         <v>2067</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="11">
         <v>45958</v>
       </c>
       <c r="E138" t="s">
         <v>172</v>
       </c>
-      <c r="G138" s="87" t="s">
+      <c r="G138" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="H138" s="88" t="s">
+      <c r="H138" s="82" t="s">
         <v>521</v>
       </c>
-      <c r="Y138" s="9">
-        <f ca="1">A137:Y162</f>
-        <v>0</v>
-      </c>
-      <c r="AA138" s="9"/>
-      <c r="AB138" s="9"/>
-    </row>
-    <row r="139" spans="1:28" ht="30.75">
-      <c r="A139" s="24">
+      <c r="Y138">
+        <f t="shared" ref="Y138:Y144" ca="1" si="2">A137:Y162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="28.8">
+      <c r="A139" s="22">
         <v>2068</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="11">
         <v>45958</v>
       </c>
       <c r="E139" t="s">
         <v>173</v>
       </c>
-      <c r="G139" s="87" t="s">
+      <c r="G139" s="81" t="s">
         <v>522</v>
       </c>
-      <c r="H139" s="88" t="s">
+      <c r="H139" s="82" t="s">
         <v>523</v>
       </c>
-      <c r="Y139" s="9">
-        <f ca="1">A138:Y163</f>
-        <v>0</v>
-      </c>
-      <c r="AA139" s="9"/>
-      <c r="AB139" s="9"/>
-    </row>
-    <row r="140" spans="1:28" ht="30.75">
-      <c r="A140" s="24">
+      <c r="Y139">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="28.8">
+      <c r="A140" s="22">
         <v>2069</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="11">
         <v>45958</v>
       </c>
       <c r="E140" t="s">
         <v>174</v>
       </c>
-      <c r="G140" s="86" t="s">
+      <c r="G140" s="80" t="s">
         <v>524</v>
       </c>
-      <c r="H140" s="88" t="s">
+      <c r="H140" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="Y140" s="9">
-        <f ca="1">A139:Y164</f>
-        <v>0</v>
-      </c>
-      <c r="AA140" s="9"/>
-      <c r="AB140" s="9"/>
-    </row>
-    <row r="141" spans="1:28" ht="30.75">
-      <c r="A141" s="24">
+      <c r="Y140">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="28.8">
+      <c r="A141" s="22">
         <v>2070</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="11">
         <v>45958</v>
       </c>
       <c r="E141" t="s">
         <v>175</v>
       </c>
-      <c r="G141" s="86" t="s">
+      <c r="G141" s="80" t="s">
         <v>522</v>
       </c>
-      <c r="H141" s="88" t="s">
+      <c r="H141" s="82" t="s">
         <v>526</v>
       </c>
-      <c r="Y141" s="9">
-        <f ca="1">A140:Y165</f>
-        <v>0</v>
-      </c>
-      <c r="AA141" s="9"/>
-      <c r="AB141" s="9"/>
-    </row>
-    <row r="142" spans="1:28" ht="45.75">
-      <c r="C142" s="13">
+      <c r="Y141">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="43.2">
+      <c r="C142" s="11">
         <v>45958</v>
       </c>
       <c r="E142" t="s">
         <v>176</v>
       </c>
-      <c r="G142" s="86" t="s">
+      <c r="G142" s="80" t="s">
         <v>527</v>
       </c>
-      <c r="H142" s="88" t="s">
+      <c r="H142" s="82" t="s">
         <v>528</v>
       </c>
-      <c r="Y142" s="9">
-        <f ca="1">A141:Y166</f>
-        <v>0</v>
-      </c>
-      <c r="AA142" s="9"/>
-      <c r="AB142" s="9"/>
-    </row>
-    <row r="143" spans="1:28" ht="60.75">
-      <c r="C143" s="13">
+      <c r="Y142">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" ht="43.2">
+      <c r="C143" s="11">
         <v>45958</v>
       </c>
       <c r="E143" t="s">
         <v>177</v>
       </c>
-      <c r="G143" s="86" t="s">
+      <c r="G143" s="80" t="s">
         <v>529</v>
       </c>
-      <c r="H143" s="88" t="s">
+      <c r="H143" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="Y143" s="9">
-        <f ca="1">A142:Y167</f>
-        <v>0</v>
-      </c>
-      <c r="AA143" s="9"/>
-      <c r="AB143" s="9"/>
-    </row>
-    <row r="144" spans="1:28" ht="45.75">
-      <c r="C144" s="13">
+      <c r="Y143">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="43.2">
+      <c r="C144" s="11">
         <v>45958</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="86" t="s">
+      <c r="G144" s="80" t="s">
         <v>532</v>
       </c>
-      <c r="H144" s="89" t="s">
+      <c r="H144" s="83" t="s">
         <v>533</v>
       </c>
-      <c r="Y144" s="9">
-        <f ca="1">A143:Y168</f>
-        <v>0</v>
-      </c>
-      <c r="AA144" s="9"/>
-      <c r="AB144" s="9"/>
-    </row>
-    <row r="145" spans="3:28">
-      <c r="C145" s="13">
+      <c r="Y144">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:25" ht="14.4">
+      <c r="C145" s="11">
         <v>45958</v>
       </c>
       <c r="E145" t="s">
         <v>179</v>
       </c>
-      <c r="G145" s="87" t="s">
+      <c r="G145" s="81" t="s">
         <v>534</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="Y145" s="9">
+      <c r="Y145">
         <f ca="1">A144:Y170</f>
         <v>0</v>
       </c>
-      <c r="AA145" s="9"/>
-      <c r="AB145" s="9"/>
-    </row>
-    <row r="146" spans="3:28">
-      <c r="C146" s="13">
+    </row>
+    <row r="146" spans="3:25" ht="14.4">
+      <c r="C146" s="11">
         <v>45959</v>
       </c>
       <c r="E146" t="s">
         <v>180</v>
       </c>
-      <c r="G146" s="87"/>
-      <c r="Y146" s="9">
+      <c r="G146" s="81"/>
+      <c r="Y146">
         <f ca="1">A145:Y171</f>
         <v>0</v>
       </c>
-      <c r="AA146" s="9"/>
-      <c r="AB146" s="9"/>
-    </row>
-    <row r="147" spans="3:28">
-      <c r="C147" s="13">
+    </row>
+    <row r="147" spans="3:25" ht="14.4">
+      <c r="C147" s="11">
         <v>45959</v>
       </c>
-      <c r="E147" s="91" t="s">
+      <c r="E147" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="G147" s="87"/>
+      <c r="G147" s="81"/>
       <c r="J147">
         <v>565959955</v>
       </c>
-      <c r="Y147" s="9">
+      <c r="Y147">
         <f ca="1">A146:Y172</f>
         <v>0</v>
       </c>
-      <c r="AA147" s="9"/>
-      <c r="AB147" s="9"/>
-    </row>
-    <row r="148" spans="3:28">
-      <c r="C148" s="13">
+    </row>
+    <row r="148" spans="3:25" ht="14.4">
+      <c r="C148" s="11">
         <v>45959</v>
       </c>
-      <c r="E148" s="91" t="s">
+      <c r="E148" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="G148" s="87"/>
-      <c r="Y148" s="9">
+      <c r="G148" s="81"/>
+      <c r="Y148">
         <f ca="1">A147:Y173</f>
         <v>0</v>
       </c>
-      <c r="AA148" s="9"/>
-      <c r="AB148" s="9"/>
-    </row>
-    <row r="149" spans="3:28">
-      <c r="C149" s="13">
+    </row>
+    <row r="149" spans="3:25" ht="14.4">
+      <c r="C149" s="11">
         <v>45959</v>
       </c>
-      <c r="E149" s="91" t="s">
+      <c r="E149" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="G149" s="87"/>
-      <c r="Y149" s="9">
+      <c r="G149" s="81"/>
+      <c r="Y149">
         <f ca="1">A148:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA149" s="9"/>
-      <c r="AB149" s="9"/>
-    </row>
-    <row r="150" spans="3:28">
-      <c r="C150" s="13">
+    </row>
+    <row r="150" spans="3:25" ht="14.4">
+      <c r="C150" s="11">
         <v>45959</v>
       </c>
-      <c r="E150" s="91" t="s">
+      <c r="E150" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="G150" s="87"/>
-      <c r="Y150" s="9">
-        <f ca="1">A149:Y175</f>
-        <v>0</v>
-      </c>
-      <c r="AA150" s="9"/>
-      <c r="AB150" s="9"/>
-    </row>
-    <row r="151" spans="3:28">
-      <c r="C151" s="13">
+      <c r="G150" s="81"/>
+      <c r="Y150">
+        <f t="shared" ref="Y150:Y159" ca="1" si="3">A149:Y175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:25" ht="14.4">
+      <c r="C151" s="11">
         <v>45959</v>
       </c>
-      <c r="E151" s="91" t="s">
+      <c r="E151" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="87"/>
-      <c r="Y151" s="9">
-        <f ca="1">A150:Y176</f>
-        <v>0</v>
-      </c>
-      <c r="AA151" s="9"/>
-      <c r="AB151" s="9"/>
-    </row>
-    <row r="152" spans="3:28">
-      <c r="C152" s="13">
+      <c r="G151" s="81"/>
+      <c r="Y151">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:25" ht="14.4">
+      <c r="C152" s="11">
         <v>45959</v>
       </c>
-      <c r="E152" s="91" t="s">
+      <c r="E152" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="G152" s="87"/>
-      <c r="Y152" s="9">
-        <f ca="1">A151:Y177</f>
-        <v>0</v>
-      </c>
-      <c r="AA152" s="9"/>
-      <c r="AB152" s="9"/>
-    </row>
-    <row r="153" spans="3:28">
-      <c r="C153" s="13">
+      <c r="G152" s="81"/>
+      <c r="Y152">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:25" ht="14.4">
+      <c r="C153" s="11">
         <v>45959</v>
       </c>
-      <c r="E153" s="91" t="s">
+      <c r="E153" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="87"/>
-      <c r="Y153" s="9">
-        <f ca="1">A152:Y178</f>
-        <v>0</v>
-      </c>
-      <c r="AA153" s="9"/>
-      <c r="AB153" s="9"/>
-    </row>
-    <row r="154" spans="3:28">
-      <c r="C154" s="13">
+      <c r="G153" s="81"/>
+      <c r="Y153">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:25" ht="14.4">
+      <c r="C154" s="11">
         <v>45959</v>
       </c>
-      <c r="E154" s="91" t="s">
+      <c r="E154" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="G154" s="87"/>
-      <c r="Y154" s="9">
-        <f ca="1">A153:Y179</f>
-        <v>0</v>
-      </c>
-      <c r="AA154" s="9"/>
-      <c r="AB154" s="9"/>
-    </row>
-    <row r="155" spans="3:28">
-      <c r="C155" s="13">
+      <c r="G154" s="81"/>
+      <c r="Y154">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:25" ht="14.4">
+      <c r="C155" s="11">
         <v>45959</v>
       </c>
-      <c r="E155" s="91" t="s">
+      <c r="E155" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="G155" s="87"/>
-      <c r="Y155" s="9">
-        <f ca="1">A154:Y180</f>
-        <v>0</v>
-      </c>
-      <c r="AA155" s="9"/>
-      <c r="AB155" s="9"/>
-    </row>
-    <row r="156" spans="3:28">
-      <c r="C156" s="13">
+      <c r="G155" s="81"/>
+      <c r="Y155">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:25" ht="14.4">
+      <c r="C156" s="11">
         <v>45959</v>
       </c>
-      <c r="E156" s="91" t="s">
+      <c r="E156" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="G156" s="87"/>
-      <c r="Y156" s="9">
-        <f ca="1">A155:Y181</f>
-        <v>0</v>
-      </c>
-      <c r="AA156" s="9"/>
-      <c r="AB156" s="9"/>
-    </row>
-    <row r="157" spans="3:28">
-      <c r="C157" s="13">
+      <c r="G156" s="81"/>
+      <c r="Y156">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:25" ht="14.4">
+      <c r="C157" s="11">
         <v>45959</v>
       </c>
       <c r="E157" t="s">
         <v>190</v>
       </c>
-      <c r="G157" s="87"/>
-      <c r="Y157" s="9">
-        <f ca="1">A156:Y182</f>
-        <v>0</v>
-      </c>
-      <c r="AA157" s="9"/>
-      <c r="AB157" s="9"/>
-    </row>
-    <row r="158" spans="3:28">
-      <c r="C158" s="13">
+      <c r="G157" s="81"/>
+      <c r="Y157">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:25" ht="14.4">
+      <c r="C158" s="11">
         <v>45959</v>
       </c>
       <c r="E158" t="s">
         <v>191</v>
       </c>
-      <c r="G158" s="87"/>
-      <c r="Y158" s="9">
-        <f ca="1">A157:Y183</f>
-        <v>0</v>
-      </c>
-      <c r="AA158" s="9"/>
-      <c r="AB158" s="9"/>
-    </row>
-    <row r="159" spans="3:28">
-      <c r="C159" s="13">
+      <c r="G158" s="81"/>
+      <c r="Y158">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:25" ht="14.4">
+      <c r="C159" s="11">
         <v>45959</v>
       </c>
-      <c r="E159" s="92" t="s">
+      <c r="E159" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="G159" s="87"/>
-      <c r="Y159" s="9">
-        <f ca="1">A158:Y184</f>
-        <v>0</v>
-      </c>
-      <c r="AA159" s="9"/>
-      <c r="AB159" s="9"/>
-    </row>
-    <row r="160" spans="3:28" ht="15" customHeight="1">
+      <c r="G159" s="81"/>
+      <c r="Y159">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:25" ht="15" customHeight="1">
       <c r="E160" t="s">
         <v>536</v>
       </c>
-      <c r="G160" s="87"/>
-      <c r="Y160" s="9">
-        <f ca="1">A159:Y183</f>
-        <v>0</v>
-      </c>
-      <c r="AA160" s="9"/>
-      <c r="AB160" s="9"/>
-    </row>
-    <row r="161" spans="5:28">
-      <c r="E161" s="10" t="s">
+      <c r="G160" s="81"/>
+      <c r="Y160">
+        <f t="shared" ref="Y160:Y171" ca="1" si="4">A159:Y183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:25" ht="14.4">
+      <c r="E161" t="s">
         <v>537</v>
       </c>
-      <c r="G161" s="87"/>
-      <c r="Y161" s="9">
-        <f ca="1">A160:Y184</f>
-        <v>0</v>
-      </c>
-      <c r="AA161" s="9"/>
-      <c r="AB161" s="9"/>
-    </row>
-    <row r="162" spans="5:28" ht="15" customHeight="1">
+      <c r="G161" s="81"/>
+      <c r="Y161">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:25" ht="15" customHeight="1">
       <c r="E162" t="s">
         <v>538</v>
       </c>
-      <c r="Y162" s="9">
-        <f ca="1">A161:Y185</f>
-        <v>0</v>
-      </c>
-      <c r="AA162" s="9"/>
-      <c r="AB162" s="9"/>
-    </row>
-    <row r="163" spans="5:28" ht="15" customHeight="1">
+      <c r="Y162">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:25" ht="15" customHeight="1">
       <c r="E163" t="s">
         <v>539</v>
       </c>
-      <c r="Y163" s="9">
-        <f ca="1">A162:Y186</f>
-        <v>0</v>
-      </c>
-      <c r="AA163" s="9"/>
-      <c r="AB163" s="9"/>
-    </row>
-    <row r="164" spans="5:28" ht="15" customHeight="1">
-      <c r="Y164" s="9">
-        <f ca="1">A163:Y187</f>
-        <v>0</v>
-      </c>
-      <c r="AA164" s="9"/>
-      <c r="AB164" s="9"/>
-    </row>
-    <row r="165" spans="5:28" ht="15" customHeight="1">
-      <c r="Y165" s="9">
-        <f ca="1">A164:Y188</f>
-        <v>0</v>
-      </c>
-      <c r="AA165" s="9"/>
-      <c r="AB165" s="9"/>
-    </row>
-    <row r="166" spans="5:28" ht="15" customHeight="1">
-      <c r="Y166" s="9">
-        <f ca="1">A165:Y189</f>
-        <v>0</v>
-      </c>
-      <c r="AA166" s="9"/>
-      <c r="AB166" s="9"/>
-    </row>
-    <row r="167" spans="5:28" ht="15" customHeight="1">
-      <c r="Y167" s="9">
-        <f ca="1">A166:Y190</f>
-        <v>0</v>
-      </c>
-      <c r="AA167" s="9"/>
-      <c r="AB167" s="9"/>
-    </row>
-    <row r="168" spans="5:28" ht="15" customHeight="1">
-      <c r="Y168" s="9">
-        <f ca="1">A167:Y191</f>
-        <v>0</v>
-      </c>
-      <c r="AA168" s="9"/>
-      <c r="AB168" s="9"/>
-    </row>
-    <row r="169" spans="5:28" ht="15" customHeight="1">
-      <c r="Y169" s="9">
-        <f ca="1">A168:Y192</f>
-        <v>0</v>
-      </c>
-      <c r="AA169" s="9"/>
-      <c r="AB169" s="9"/>
-    </row>
-    <row r="170" spans="5:28" ht="15" customHeight="1">
-      <c r="Y170" s="9">
-        <f ca="1">A169:Y193</f>
-        <v>0</v>
-      </c>
-      <c r="AA170" s="9"/>
-      <c r="AB170" s="9"/>
-    </row>
-    <row r="171" spans="5:28" ht="15" customHeight="1">
-      <c r="Y171" s="9">
-        <f ca="1">A170:Y194</f>
-        <v>0</v>
-      </c>
-      <c r="AA171" s="9"/>
-      <c r="AB171" s="9"/>
-    </row>
-    <row r="172" spans="5:28" ht="15" customHeight="1">
-      <c r="Y172" s="9">
+      <c r="Y163">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:25" ht="15" customHeight="1">
+      <c r="Y164">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:25" ht="15" customHeight="1">
+      <c r="Y165">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:25" ht="15" customHeight="1">
+      <c r="Y166">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:25" ht="15" customHeight="1">
+      <c r="Y167">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:25" ht="15" customHeight="1">
+      <c r="Y168">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:25" ht="15" customHeight="1">
+      <c r="Y169">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:25" ht="15" customHeight="1">
+      <c r="Y170">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:25" ht="15" customHeight="1">
+      <c r="Y171">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:25" ht="15" customHeight="1">
+      <c r="Y172">
         <f ca="1">A171:Y196</f>
         <v>0</v>
       </c>
-      <c r="AA172" s="9"/>
-      <c r="AB172" s="9"/>
-    </row>
-    <row r="173" spans="5:28" ht="15" customHeight="1">
-      <c r="Y173" s="9">
+    </row>
+    <row r="173" spans="5:25" ht="15" customHeight="1">
+      <c r="Y173">
         <f ca="1">A172:Y197</f>
         <v>0</v>
       </c>
-      <c r="AA173" s="9"/>
-      <c r="AB173" s="9"/>
-    </row>
-    <row r="174" spans="5:28" ht="15" customHeight="1">
-      <c r="Y174" s="9">
+    </row>
+    <row r="174" spans="5:25" ht="15" customHeight="1">
+      <c r="Y174">
         <f ca="1">A173:Y198</f>
         <v>0</v>
       </c>
-      <c r="AA174" s="9"/>
-      <c r="AB174" s="9"/>
-    </row>
-    <row r="175" spans="5:28" ht="15" customHeight="1">
-      <c r="Y175" s="9">
-        <f t="shared" ref="Y175:Y195" ca="1" si="0">A174:Y199</f>
-        <v>0</v>
-      </c>
-      <c r="AA175" s="9"/>
-      <c r="AB175" s="9"/>
-    </row>
-    <row r="176" spans="5:28" ht="15" customHeight="1">
-      <c r="Y176" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA176" s="9"/>
-      <c r="AB176" s="9"/>
-    </row>
-    <row r="177" spans="25:28" ht="15" customHeight="1">
-      <c r="Y177" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA177" s="9"/>
-      <c r="AB177" s="9"/>
-    </row>
-    <row r="178" spans="25:28" ht="15" customHeight="1">
-      <c r="Y178" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA178" s="9"/>
-      <c r="AB178" s="9"/>
-    </row>
-    <row r="179" spans="25:28" ht="15" customHeight="1">
-      <c r="Y179" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA179" s="9"/>
-      <c r="AB179" s="9"/>
-    </row>
-    <row r="180" spans="25:28" ht="15" customHeight="1">
-      <c r="Y180" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA180" s="9"/>
-      <c r="AB180" s="9"/>
-    </row>
-    <row r="181" spans="25:28" ht="15" customHeight="1">
-      <c r="Y181" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA181" s="9"/>
-      <c r="AB181" s="9"/>
-    </row>
-    <row r="182" spans="25:28" ht="15" customHeight="1">
-      <c r="Y182" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA182" s="9"/>
-      <c r="AB182" s="9"/>
-    </row>
-    <row r="183" spans="25:28" ht="15" customHeight="1">
-      <c r="Y183" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA183" s="9"/>
-      <c r="AB183" s="9"/>
-    </row>
-    <row r="184" spans="25:28" ht="15" customHeight="1">
-      <c r="Y184" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA184" s="9"/>
-      <c r="AB184" s="9"/>
-    </row>
-    <row r="185" spans="25:28" ht="15" customHeight="1">
-      <c r="Y185" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA185" s="9"/>
-      <c r="AB185" s="9"/>
-    </row>
-    <row r="186" spans="25:28" ht="15" customHeight="1">
-      <c r="Y186" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA186" s="9"/>
-      <c r="AB186" s="9"/>
-    </row>
-    <row r="187" spans="25:28" ht="15" customHeight="1">
-      <c r="Y187" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA187" s="9"/>
-      <c r="AB187" s="9"/>
-    </row>
-    <row r="188" spans="25:28" ht="15" customHeight="1">
-      <c r="Y188" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA188" s="9"/>
-      <c r="AB188" s="9"/>
-    </row>
-    <row r="189" spans="25:28" ht="15" customHeight="1">
-      <c r="Y189" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA189" s="9"/>
-      <c r="AB189" s="9"/>
-    </row>
-    <row r="190" spans="25:28" ht="15" customHeight="1">
-      <c r="Y190" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA190" s="9"/>
-      <c r="AB190" s="9"/>
-    </row>
-    <row r="191" spans="25:28" ht="15" customHeight="1">
-      <c r="Y191" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA191" s="9"/>
-      <c r="AB191" s="9"/>
-    </row>
-    <row r="192" spans="25:28" ht="15" customHeight="1">
-      <c r="Y192" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA192" s="9"/>
-      <c r="AB192" s="9"/>
-    </row>
-    <row r="193" spans="5:28" ht="15" customHeight="1">
-      <c r="Y193" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA193" s="9"/>
-      <c r="AB193" s="9"/>
-    </row>
-    <row r="194" spans="5:28" ht="15" customHeight="1">
-      <c r="Y194" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA194" s="9"/>
-      <c r="AB194" s="9"/>
-    </row>
-    <row r="195" spans="5:28" ht="15" customHeight="1">
-      <c r="Y195" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA195" s="9"/>
-      <c r="AB195" s="9"/>
-    </row>
-    <row r="196" spans="5:28" ht="15" customHeight="1">
-      <c r="E196" s="10" t="s">
+    </row>
+    <row r="175" spans="5:25" ht="15" customHeight="1">
+      <c r="Y175">
+        <f t="shared" ref="Y175:Y195" ca="1" si="5">A174:Y199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:25" ht="15" customHeight="1">
+      <c r="Y176">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="25:25" ht="15" customHeight="1">
+      <c r="Y177">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="25:25" ht="15" customHeight="1">
+      <c r="Y178">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="25:25" ht="15" customHeight="1">
+      <c r="Y179">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="25:25" ht="15" customHeight="1">
+      <c r="Y180">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="25:25" ht="15" customHeight="1">
+      <c r="Y181">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="25:25" ht="15" customHeight="1">
+      <c r="Y182">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="25:25" ht="15" customHeight="1">
+      <c r="Y183">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="25:25" ht="15" customHeight="1">
+      <c r="Y184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="25:25" ht="15" customHeight="1">
+      <c r="Y185">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="25:25" ht="15" customHeight="1">
+      <c r="Y186">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="25:25" ht="15" customHeight="1">
+      <c r="Y187">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="25:25" ht="15" customHeight="1">
+      <c r="Y188">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="25:25" ht="15" customHeight="1">
+      <c r="Y189">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="25:25" ht="15" customHeight="1">
+      <c r="Y190">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="25:25" ht="15" customHeight="1">
+      <c r="Y191">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="25:25" ht="15" customHeight="1">
+      <c r="Y192">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="5:25" ht="15" customHeight="1">
+      <c r="Y193">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="5:25" ht="15" customHeight="1">
+      <c r="Y194">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:25" ht="15" customHeight="1">
+      <c r="Y195">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:25" ht="15" customHeight="1">
+      <c r="E196" t="s">
         <v>538</v>
       </c>
     </row>
@@ -10353,12 +10125,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10379,13 +10151,13 @@
       <c r="A2" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>45936</v>
       </c>
       <c r="G2">
         <v>123</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>45938</v>
       </c>
     </row>
@@ -10393,13 +10165,13 @@
       <c r="A3" t="s">
         <v>545</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>45937</v>
       </c>
       <c r="G3">
         <v>24</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>45942</v>
       </c>
     </row>
@@ -10407,13 +10179,13 @@
       <c r="A4" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>45937</v>
       </c>
       <c r="G4">
         <v>17</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>45943</v>
       </c>
     </row>
@@ -10421,13 +10193,13 @@
       <c r="A5" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>45942</v>
       </c>
       <c r="G5">
         <v>19</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>45944</v>
       </c>
     </row>
@@ -10435,55 +10207,55 @@
       <c r="A6" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>45944</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>45945</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>45949</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>45946</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>45946</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>45949</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>45958</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>45950</v>
       </c>
     </row>
@@ -10491,7 +10263,7 @@
       <c r="G10">
         <v>15</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>45951</v>
       </c>
     </row>
@@ -10499,7 +10271,7 @@
       <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>45952</v>
       </c>
     </row>
@@ -10507,7 +10279,7 @@
       <c r="G12">
         <v>11</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>45953</v>
       </c>
     </row>

--- a/data/3nb reports.xlsx
+++ b/data/3nb reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dc152c07513850c/Documents/GitHub/DataAnalyzer/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1651" documentId="13_ncr:1_{485E9516-1019-490E-A6D1-641EE38F9B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{869AB9E3-F3B7-425A-80B9-20CD0DC9D75B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7052D6A-302F-4EF3-B532-F165E3F1A866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" activeTab="2" xr2:uid="{D0D76AE6-8D3C-4E35-ACCF-21D60420B679}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="599" xr2:uid="{D0D76AE6-8D3C-4E35-ACCF-21D60420B679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="578">
   <si>
     <t>insurance broker house</t>
   </si>
@@ -139,6 +128,9 @@
     <t>Jadara Broker</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>SMC hospital</t>
   </si>
   <si>
@@ -163,6 +155,9 @@
     <t>National insurance broker</t>
   </si>
   <si>
+    <t xml:space="preserve"> Waiting for client decision</t>
+  </si>
+  <si>
     <t>Aja pharma</t>
   </si>
   <si>
@@ -190,6 +185,9 @@
     <t>Solutions insurance broker</t>
   </si>
   <si>
+    <t>Waiting</t>
+  </si>
+  <si>
     <t>Allianz saudi</t>
   </si>
   <si>
@@ -268,6 +266,9 @@
     <t>current power</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>United compunding industrial co</t>
   </si>
   <si>
@@ -634,6 +635,15 @@
     <t>Napco National</t>
   </si>
   <si>
+    <t>Arla Foods KSA</t>
+  </si>
+  <si>
+    <t>Pulse Medical Company</t>
+  </si>
+  <si>
+    <t>Fourth Milling Company ( Foom )</t>
+  </si>
+  <si>
     <t>Model name</t>
   </si>
   <si>
@@ -1666,14 +1676,19 @@
     <t>https://www.linkedin.com/search/results/companies/?keywords=Nadec+%28National+Agricultural+Development+Co.%29</t>
   </si>
   <si>
-    <t xml:space="preserve">Nahdi Medical (IMDAD DC)
-</t>
+    <t>Yasser Joharji</t>
   </si>
   <si>
     <t>Pharmacy Retail</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/search/results/companies/?keywords=Nahdi+Medical+%28IMDAD+DC%29</t>
+    <t>https://nahdi.sa/</t>
+  </si>
+  <si>
+    <t>+966 50 462 6506</t>
+  </si>
+  <si>
+    <t>joharji.y@nahdi.sa</t>
   </si>
   <si>
     <t>Ahmed Heikal</t>
@@ -1691,6 +1706,27 @@
     <t>fhajal@aljomaihbev.com</t>
   </si>
   <si>
+    <t>call in sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monira </t>
+  </si>
+  <si>
+    <t>https://mea.arla.com/</t>
+  </si>
+  <si>
+    <t>Bus dev manager</t>
+  </si>
+  <si>
+    <t>+966 58 222 0149</t>
+  </si>
+  <si>
+    <t>Medmaster</t>
+  </si>
+  <si>
+    <t>Nasr Aldeen</t>
+  </si>
+  <si>
     <t>Company Name</t>
   </si>
   <si>
@@ -1713,6 +1749,21 @@
   </si>
   <si>
     <t>Damin Broker</t>
+  </si>
+  <si>
+    <t>Kingdom Brokerage</t>
+  </si>
+  <si>
+    <t>UIB Saudi Broker</t>
+  </si>
+  <si>
+    <t>Authorized Policy Insurance Broker</t>
+  </si>
+  <si>
+    <t>AON Brokers</t>
+  </si>
+  <si>
+    <t>Diamond Broker</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1879,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1931,6 +1982,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1975,7 +2032,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2102,6 +2159,7 @@
     <xf numFmtId="16" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2150,14 +2208,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{7CF54412-893F-4C79-8511-9E4616B28E09}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2166,32 +2239,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2206,12 +2253,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2432,7 +2473,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A3DED-29E2-4B29-9D9C-910E4B547F98}" name="Table1" displayName="Table1" ref="B1:AC212" totalsRowShown="0">
   <autoFilter ref="B1:AC212" xr:uid="{4F4A3DED-29E2-4B29-9D9C-910E4B547F98}"/>
   <tableColumns count="28">
-    <tableColumn id="17" xr3:uid="{0B9F1EA0-025A-4158-8183-FF14F576B936}" name="Client serial number" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{0B9F1EA0-025A-4158-8183-FF14F576B936}" name="Client serial number" dataDxfId="11"/>
     <tableColumn id="16" xr3:uid="{6B360D31-BFB4-45D9-BFB5-B8E4C3CDD93D}" name="company name"/>
     <tableColumn id="14" xr3:uid="{7920911F-E7E2-47EF-8DBB-8427E5AB99C7}" name="Meeting"/>
     <tableColumn id="2" xr3:uid="{B9E42C60-C230-4C4F-8AB1-2E854EC713B6}" name="Orphans"/>
@@ -2456,7 +2497,7 @@
     <tableColumn id="20" xr3:uid="{1F9A1F59-E803-4C6B-B367-DB6D1F7640A7}" name="Column7"/>
     <tableColumn id="21" xr3:uid="{2F870873-A3E2-4A41-8630-83795CAF88B5}" name="Column8"/>
     <tableColumn id="22" xr3:uid="{9A217879-339A-4CF9-B553-09AF014E6F5A}" name="Column9"/>
-    <tableColumn id="23" xr3:uid="{B3716D2C-C076-4686-A502-FAF5D4AA8C55}" name="Column10" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{B3716D2C-C076-4686-A502-FAF5D4AA8C55}" name="Column10" dataDxfId="10">
       <calculatedColumnFormula>B1:Z37</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" xr3:uid="{15AD56CC-7AB2-411B-AFDE-072EC3B8377B}" name="Column11"/>
@@ -2468,15 +2509,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ADD2ECA1-9E5B-42A3-B569-7203D94C7531}" name="Table35" displayName="Table35" ref="A1:AB196" totalsRowCount="1">
-  <autoFilter ref="A1:AB195" xr:uid="{ADD2ECA1-9E5B-42A3-B569-7203D94C7531}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ADD2ECA1-9E5B-42A3-B569-7203D94C7531}" name="Table35" displayName="Table35" ref="A1:AB195" totalsRowCount="1">
+  <autoFilter ref="A1:AB194" xr:uid="{ADD2ECA1-9E5B-42A3-B569-7203D94C7531}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{D0C1E876-1AC7-44CA-A340-E98424D41F21}" name="Client serial number" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{51C24738-B23C-4D86-BAD0-279047E39C3D}" name="Column1" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{D9AC0379-6D6E-484B-88EF-D7DC72920BD5}" name="Model name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D0C1E876-1AC7-44CA-A340-E98424D41F21}" name="Client serial number" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{51C24738-B23C-4D86-BAD0-279047E39C3D}" name="Column1" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{D9AC0379-6D6E-484B-88EF-D7DC72920BD5}" name="Model name" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{43B3667A-E9CD-4CEF-B1A3-31E5368F602D}" name="Card creation date"/>
-    <tableColumn id="34" xr3:uid="{41FF7D7F-3F46-44F7-9C23-AAB87C0AB286}" name="Sales person" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2BC7847E-8C1D-489D-BDEF-EF91A6C2FC7B}" name="Company name" totalsRowLabel="CMCI" totalsRowDxfId="3"/>
+    <tableColumn id="34" xr3:uid="{41FF7D7F-3F46-44F7-9C23-AAB87C0AB286}" name="Sales person" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2BC7847E-8C1D-489D-BDEF-EF91A6C2FC7B}" name="Company name" totalsRowLabel="CMCI"/>
     <tableColumn id="54" xr3:uid="{6BFDA37E-544A-4FF0-B682-985B90CABEF4}" name="Contact Name"/>
     <tableColumn id="53" xr3:uid="{E2B3B299-E8B6-4F34-918C-A5603238A255}" name="Industry"/>
     <tableColumn id="52" xr3:uid="{9D3E03A0-DDC4-490C-A107-655B217EFA32}" name="Website"/>
@@ -2495,12 +2536,12 @@
     <tableColumn id="57" xr3:uid="{56B23716-3992-4400-956C-909DFE271492}" name="Presentation"/>
     <tableColumn id="29" xr3:uid="{28B64377-7B0A-4FCB-A77E-E458A15CFFD3}" name="POC description"/>
     <tableColumn id="27" xr3:uid="{69ABE3A2-C8B3-44ED-81D1-EFDBCCF1833D}" name="Model price"/>
-    <tableColumn id="8" xr3:uid="{69B22B3E-7D88-42AE-9A10-99F2D627496C}" name="Notes" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{69B22B3E-7D88-42AE-9A10-99F2D627496C}" name="Notes" dataDxfId="5">
       <calculatedColumnFormula>A1:Y26</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="39" xr3:uid="{CEEC0537-7169-477B-847F-951003DE4C2D}" name="Client feedback notes"/>
-    <tableColumn id="24" xr3:uid="{E8AEEEA5-E16D-468C-A99D-7BFD93D2994A}" name="Reschedule information" dataDxfId="1"/>
-    <tableColumn id="38" xr3:uid="{9D3D4C33-37F6-4AC9-B261-0F473510BC26}" name="Payment chechbox" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{E8AEEEA5-E16D-468C-A99D-7BFD93D2994A}" name="Reschedule information" dataDxfId="4"/>
+    <tableColumn id="38" xr3:uid="{9D3D4C33-37F6-4AC9-B261-0F473510BC26}" name="Payment chechbox" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2529,9 +2570,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2569,7 +2610,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2675,7 +2716,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2817,7 +2858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2827,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B1EC1C-85F6-4EA5-A96A-3DBA3CF0DE98}">
   <dimension ref="A1:AC212"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F113"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -2946,8 +2987,8 @@
       <c r="C2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="45">
-        <v>45907</v>
+      <c r="F2" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="45">
         <v>45957</v>
@@ -2965,8 +3006,8 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="45">
-        <v>45907</v>
+      <c r="F3" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="11">
         <v>45939</v>
@@ -2984,14 +3025,14 @@
       <c r="C4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F4" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G4" s="45">
-        <v>45907</v>
+      <c r="D4" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>32</v>
       </c>
       <c r="Z4" s="46">
         <f ca="1">B3:Z39</f>
@@ -3004,13 +3045,13 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F5" s="45">
-        <v>45907</v>
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="11">
         <v>45957</v>
@@ -3026,16 +3067,16 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F6" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G6" s="11">
-        <v>45907</v>
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6:Z34" ca="1" si="0">B5:Z40</f>
@@ -3048,25 +3089,25 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F7" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G7" s="11">
-        <v>45907</v>
-      </c>
-      <c r="H7" s="11">
-        <v>45907</v>
-      </c>
-      <c r="K7" s="11">
-        <v>45907</v>
-      </c>
-      <c r="M7" s="11">
-        <v>45907</v>
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="0"/>
@@ -3079,22 +3120,22 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F8" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G8" s="11">
-        <v>45907</v>
-      </c>
-      <c r="H8" s="11">
-        <v>45907</v>
-      </c>
-      <c r="L8" s="11">
-        <v>45907</v>
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="0"/>
@@ -3107,19 +3148,19 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F9" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G9" s="11">
-        <v>45907</v>
-      </c>
-      <c r="L9" s="11">
-        <v>45907</v>
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="0"/>
@@ -3132,16 +3173,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F10" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G10" s="11">
-        <v>45907</v>
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="0"/>
@@ -3154,19 +3195,19 @@
         <v>1010</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F11" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G11" s="11">
-        <v>45907</v>
-      </c>
-      <c r="L11" s="11">
-        <v>45907</v>
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="0"/>
@@ -3179,25 +3220,25 @@
         <v>1011</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F12" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G12" s="45">
-        <v>45907</v>
-      </c>
-      <c r="H12" s="45">
-        <v>45907</v>
-      </c>
-      <c r="K12" s="45">
-        <v>45907</v>
-      </c>
-      <c r="N12" s="45">
-        <v>45907</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z12" s="46">
         <f t="shared" ca="1" si="0"/>
@@ -3210,16 +3251,16 @@
         <v>1012</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F13" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G13" s="11">
-        <v>45907</v>
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="0"/>
@@ -3232,31 +3273,31 @@
         <v>1013</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="98">
-        <v>45907</v>
-      </c>
-      <c r="F14" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G14" s="98">
-        <v>45907</v>
-      </c>
-      <c r="H14" s="98">
-        <v>45907</v>
-      </c>
-      <c r="J14" s="98">
-        <v>45907</v>
-      </c>
-      <c r="K14" s="98">
-        <v>45907</v>
-      </c>
-      <c r="N14" s="98">
-        <v>45907</v>
-      </c>
-      <c r="O14" s="98">
-        <v>45907</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>32</v>
       </c>
       <c r="Z14" s="71">
         <f t="shared" ca="1" si="0"/>
@@ -3269,16 +3310,16 @@
         <v>1014</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F15" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G15" s="11">
-        <v>45907</v>
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="0"/>
@@ -3291,13 +3332,13 @@
         <v>1015</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G16" s="11">
-        <v>45907</v>
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
       </c>
       <c r="Z16">
         <f t="shared" ca="1" si="0"/>
@@ -3306,23 +3347,23 @@
     </row>
     <row r="17" spans="1:26" s="46" customFormat="1" ht="14.4">
       <c r="A17" s="46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="43">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1016</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F17" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G17" s="45">
-        <v>45907</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z17" s="46">
         <f t="shared" ca="1" si="0"/>
@@ -3335,13 +3376,13 @@
         <v>1017</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G18" s="11">
-        <v>45907</v>
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
       </c>
       <c r="Z18">
         <f t="shared" ca="1" si="0"/>
@@ -3353,16 +3394,16 @@
         <v>1028</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F19" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G19" s="45">
-        <v>45907</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z19" s="46">
         <f t="shared" ca="1" si="0"/>
@@ -3374,28 +3415,28 @@
         <v>1029</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F20" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G20" s="45">
-        <v>45907</v>
-      </c>
-      <c r="H20" s="45">
-        <v>45907</v>
-      </c>
-      <c r="I20" s="45">
-        <v>45907</v>
-      </c>
-      <c r="J20" s="45">
-        <v>45907</v>
-      </c>
-      <c r="K20" s="45">
-        <v>45907</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z20" s="46">
         <f t="shared" ca="1" si="0"/>
@@ -3407,13 +3448,13 @@
         <v>1030</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G21" s="45">
-        <v>45907</v>
+        <v>52</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z21" s="46">
         <f t="shared" ca="1" si="0"/>
@@ -3422,25 +3463,25 @@
     </row>
     <row r="22" spans="1:26" s="46" customFormat="1" ht="14.4">
       <c r="A22" s="46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" s="43">
         <v>1031</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F22" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G22" s="45">
-        <v>45907</v>
-      </c>
-      <c r="M22" s="45">
-        <v>45907</v>
+        <v>53</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z22" s="46">
         <f t="shared" ca="1" si="0"/>
@@ -3452,19 +3493,19 @@
         <v>1032</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G23" s="11">
-        <v>45907</v>
-      </c>
-      <c r="H23" s="11">
-        <v>45907</v>
-      </c>
-      <c r="M23" s="11">
-        <v>45907</v>
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
       </c>
       <c r="Z23">
         <f t="shared" ca="1" si="0"/>
@@ -3476,19 +3517,19 @@
         <v>1033</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="11">
         <v>45989</v>
       </c>
-      <c r="F24" s="45">
-        <v>45907</v>
+      <c r="F24" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="11">
         <v>45958</v>
       </c>
-      <c r="M24" s="11">
-        <v>45907</v>
+      <c r="M24" t="s">
+        <v>32</v>
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="0"/>
@@ -3500,16 +3541,16 @@
         <v>1034</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F25" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G25" s="11">
-        <v>45907</v>
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="0"/>
@@ -3521,13 +3562,13 @@
         <v>1035</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D26" s="45">
         <v>45942</v>
       </c>
-      <c r="F26" s="45">
-        <v>45907</v>
+      <c r="F26" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="G26" s="45">
         <v>45939</v>
@@ -3542,19 +3583,19 @@
         <v>1036</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F27" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G27" s="11">
-        <v>45907</v>
-      </c>
-      <c r="L27" s="11">
-        <v>45907</v>
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="0"/>
@@ -3566,16 +3607,16 @@
         <v>1037</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G28" s="11">
-        <v>45907</v>
-      </c>
-      <c r="L28" s="11">
-        <v>45907</v>
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="0"/>
@@ -3587,13 +3628,13 @@
         <v>1038</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G29" s="11">
-        <v>45907</v>
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
       </c>
       <c r="Z29">
         <f t="shared" ca="1" si="0"/>
@@ -3605,13 +3646,13 @@
         <v>1039</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G30" s="11">
-        <v>45907</v>
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
       </c>
       <c r="Z30">
         <f t="shared" ca="1" si="0"/>
@@ -3623,13 +3664,13 @@
         <v>1040</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G31" s="11">
-        <v>45907</v>
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
       </c>
       <c r="Z31">
         <f t="shared" ca="1" si="0"/>
@@ -3641,13 +3682,13 @@
         <v>1041</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G32" s="11">
-        <v>45907</v>
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="0"/>
@@ -3659,13 +3700,13 @@
         <v>1042</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G33" s="11">
-        <v>45907</v>
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
       </c>
       <c r="Z33">
         <f t="shared" ca="1" si="0"/>
@@ -3677,13 +3718,13 @@
         <v>1043</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G34" s="11">
-        <v>45907</v>
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
       </c>
       <c r="Z34">
         <f t="shared" ca="1" si="0"/>
@@ -3695,19 +3736,19 @@
         <v>1044</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F35" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G35" s="11">
-        <v>45907</v>
-      </c>
-      <c r="M35" s="11">
-        <v>45907</v>
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
       </c>
       <c r="Z35">
         <f t="shared" ref="Z35:Z41" ca="1" si="1">B34:Z69</f>
@@ -3719,13 +3760,13 @@
         <v>1045</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G36" s="11">
-        <v>45907</v>
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
       </c>
       <c r="Z36">
         <f t="shared" ca="1" si="1"/>
@@ -3737,13 +3778,13 @@
         <v>1046</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G37" s="11">
-        <v>45907</v>
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="1"/>
@@ -3755,10 +3796,10 @@
         <v>1047</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="45">
-        <v>45907</v>
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
       </c>
       <c r="G38" s="11">
         <v>45937</v>
@@ -3773,13 +3814,13 @@
         <v>1048</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G39" s="11">
-        <v>45907</v>
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="1"/>
@@ -3791,13 +3832,13 @@
         <v>1049</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G40" s="11">
-        <v>45907</v>
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="1"/>
@@ -3809,19 +3850,19 @@
         <v>1050</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F41" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G41" s="11">
-        <v>45907</v>
-      </c>
-      <c r="M41" s="11">
-        <v>45907</v>
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="1"/>
@@ -3833,13 +3874,13 @@
         <v>1051</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G42" s="11">
-        <v>45907</v>
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
       </c>
       <c r="Z42">
         <f t="shared" ref="Z42:Z65" ca="1" si="2">B41:Z75</f>
@@ -3851,13 +3892,13 @@
         <v>1052</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G43" s="11">
-        <v>45907</v>
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
       </c>
       <c r="Z43">
         <f t="shared" ca="1" si="2"/>
@@ -3869,13 +3910,13 @@
         <v>1053</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G44" s="11">
-        <v>45907</v>
+        <v>75</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
       </c>
       <c r="Z44">
         <f t="shared" ca="1" si="2"/>
@@ -3887,13 +3928,13 @@
         <v>1054</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D45" s="11">
         <v>45937</v>
       </c>
-      <c r="F45" s="45">
-        <v>45907</v>
+      <c r="F45" t="s">
+        <v>76</v>
       </c>
       <c r="G45" s="11">
         <v>45928</v>
@@ -3908,25 +3949,25 @@
         <v>1055</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F46" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G46" s="11">
-        <v>45907</v>
-      </c>
-      <c r="H46" s="11">
-        <v>45907</v>
-      </c>
-      <c r="J46" s="45">
-        <v>45907</v>
-      </c>
-      <c r="L46" s="11">
-        <v>45907</v>
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="2"/>
@@ -3938,13 +3979,13 @@
         <v>1056</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G47" s="11">
-        <v>45907</v>
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="2"/>
@@ -3956,13 +3997,13 @@
         <v>1057</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G48" s="11">
-        <v>45907</v>
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="2"/>
@@ -3974,13 +4015,13 @@
         <v>1058</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G49" s="11">
-        <v>45907</v>
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
       </c>
       <c r="Z49">
         <f t="shared" ca="1" si="2"/>
@@ -3992,13 +4033,13 @@
         <v>1059</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G50" s="11">
-        <v>45907</v>
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
       </c>
       <c r="Z50">
         <f t="shared" ca="1" si="2"/>
@@ -4010,19 +4051,19 @@
         <v>1060</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F51" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G51" s="11">
-        <v>45907</v>
-      </c>
-      <c r="L51" s="11">
-        <v>45907</v>
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
       </c>
       <c r="Z51">
         <f t="shared" ca="1" si="2"/>
@@ -4034,13 +4075,13 @@
         <v>1061</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G52" s="11">
-        <v>45907</v>
+        <v>84</v>
+      </c>
+      <c r="F52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
       </c>
       <c r="Z52">
         <f t="shared" ca="1" si="2"/>
@@ -4052,13 +4093,13 @@
         <v>1062</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G53" s="11">
-        <v>45907</v>
+        <v>85</v>
+      </c>
+      <c r="F53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
       </c>
       <c r="Z53">
         <f t="shared" ca="1" si="2"/>
@@ -4070,13 +4111,13 @@
         <v>1063</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G54" s="11">
-        <v>45907</v>
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
       </c>
       <c r="Z54">
         <f t="shared" ca="1" si="2"/>
@@ -4088,13 +4129,13 @@
         <v>1064</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G55" s="11">
-        <v>45907</v>
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
       </c>
       <c r="Z55">
         <f t="shared" ca="1" si="2"/>
@@ -4106,25 +4147,25 @@
         <v>1065</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="45">
-        <v>45907</v>
-      </c>
-      <c r="F56" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G56" s="45">
-        <v>45907</v>
-      </c>
-      <c r="H56" s="45">
-        <v>45907</v>
+        <v>88</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="72" t="s">
+        <v>41</v>
       </c>
       <c r="I56" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="M56" s="45">
-        <v>45907</v>
+        <v>89</v>
+      </c>
+      <c r="M56" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z56" s="46">
         <f t="shared" ca="1" si="2"/>
@@ -4136,13 +4177,13 @@
         <v>1066</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="45">
-        <v>45907</v>
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z57">
         <f t="shared" ca="1" si="2"/>
@@ -4154,13 +4195,13 @@
         <v>1067</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G58" s="11">
-        <v>45907</v>
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
       </c>
       <c r="Z58">
         <f t="shared" ca="1" si="2"/>
@@ -4172,13 +4213,13 @@
         <v>1068</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G59" s="11">
-        <v>45907</v>
+        <v>93</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
       </c>
       <c r="Z59">
         <f t="shared" ca="1" si="2"/>
@@ -4190,10 +4231,10 @@
         <v>1069</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="45">
-        <v>45907</v>
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
+        <v>94</v>
       </c>
       <c r="G60" s="11">
         <v>45939</v>
@@ -4208,10 +4249,10 @@
         <v>1070</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="45">
-        <v>45907</v>
+        <v>95</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
       </c>
       <c r="G61" s="11">
         <v>45939</v>
@@ -4226,10 +4267,10 @@
         <v>1071</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="45">
-        <v>45907</v>
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
       </c>
       <c r="G62" s="11">
         <v>45938</v>
@@ -4244,10 +4285,10 @@
         <v>1072</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="45">
-        <v>45907</v>
+        <v>97</v>
+      </c>
+      <c r="F63" t="s">
+        <v>97</v>
       </c>
       <c r="G63" s="11">
         <v>45937</v>
@@ -4262,13 +4303,13 @@
         <v>1073</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G64" s="11">
-        <v>45907</v>
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
       </c>
       <c r="Z64">
         <f t="shared" ca="1" si="2"/>
@@ -4280,13 +4321,13 @@
         <v>1074</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G65" s="11">
-        <v>45907</v>
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
       </c>
       <c r="Z65">
         <f t="shared" ca="1" si="2"/>
@@ -4298,13 +4339,13 @@
         <v>1075</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G66" s="11">
-        <v>45907</v>
+        <v>100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
       </c>
       <c r="Z66">
         <f ca="1">B65:Z98</f>
@@ -4316,13 +4357,13 @@
         <v>1076</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G67" s="11">
-        <v>45907</v>
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
       </c>
       <c r="Z67">
         <f t="shared" ref="Z67:Z73" ca="1" si="3">B66:Z98</f>
@@ -4334,13 +4375,13 @@
         <v>1077</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G68" s="11">
-        <v>45907</v>
+        <v>102</v>
+      </c>
+      <c r="F68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
       </c>
       <c r="Z68">
         <f t="shared" ca="1" si="3"/>
@@ -4352,13 +4393,13 @@
         <v>1078</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G69" s="11">
-        <v>45907</v>
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
       </c>
       <c r="Z69">
         <f t="shared" ca="1" si="3"/>
@@ -4370,13 +4411,13 @@
         <v>1079</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G70" s="11">
-        <v>45907</v>
+        <v>104</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
       </c>
       <c r="Z70">
         <f t="shared" ca="1" si="3"/>
@@ -4388,16 +4429,16 @@
         <v>1080</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D71" s="45">
         <v>45963</v>
       </c>
-      <c r="F71" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G71" s="45">
-        <v>45907</v>
+      <c r="F71" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z71" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -4409,13 +4450,13 @@
         <v>1081</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F72" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G72" s="45">
-        <v>45907</v>
+        <v>106</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z72" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -4427,10 +4468,10 @@
         <v>1082</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="45">
-        <v>45907</v>
+        <v>107</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="G73" s="45">
         <v>45924</v>
@@ -4445,13 +4486,13 @@
         <v>1083</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G74" s="45">
-        <v>45907</v>
+        <v>108</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z74" s="46">
         <f ca="1">B73:Z213</f>
@@ -4463,13 +4504,13 @@
         <v>1085</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F75" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G75" s="45">
-        <v>45907</v>
+        <v>109</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z75" s="46">
         <f ca="1">B74:Z214</f>
@@ -4481,13 +4522,13 @@
         <v>1086</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F76" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G76" s="45">
-        <v>45907</v>
+        <v>110</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z76" s="46">
         <f ca="1">B76:Z216</f>
@@ -4499,10 +4540,10 @@
         <v>1087</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="45">
-        <v>45907</v>
+        <v>111</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="G77" s="45">
         <v>45952</v>
@@ -4517,25 +4558,25 @@
         <v>1088</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D78" s="45">
         <v>45924</v>
       </c>
-      <c r="F78" s="45">
-        <v>45907</v>
+      <c r="F78" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="G78" s="45">
         <v>45922</v>
       </c>
-      <c r="I78" s="72">
+      <c r="I78" s="73">
         <v>45950</v>
       </c>
       <c r="J78" s="45">
         <v>45932</v>
       </c>
-      <c r="K78" s="45">
-        <v>45907</v>
+      <c r="K78" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z78" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -4547,13 +4588,13 @@
         <v>1089</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F79" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G79" s="45">
-        <v>45907</v>
+        <v>113</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z79" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -4565,13 +4606,13 @@
         <v>1090</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F80" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G80" s="45">
-        <v>45907</v>
+        <v>114</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z80" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -4583,10 +4624,10 @@
         <v>1091</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="45">
-        <v>45907</v>
+        <v>115</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="G81" s="11">
         <v>45936</v>
@@ -4601,10 +4642,10 @@
         <v>1092</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" s="45">
-        <v>45907</v>
+        <v>116</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="G82" s="45">
         <v>45952</v>
@@ -4619,13 +4660,13 @@
         <v>1093</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F83" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G83" s="45">
-        <v>45907</v>
+        <v>117</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Z83" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -4637,13 +4678,13 @@
         <v>1094</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="F84" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G84" s="11">
-        <v>45907</v>
+        <v>118</v>
+      </c>
+      <c r="F84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
       </c>
       <c r="Z84">
         <f t="shared" ca="1" si="4"/>
@@ -4655,10 +4696,10 @@
         <v>1095</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="F85" s="45">
-        <v>45907</v>
+        <v>119</v>
+      </c>
+      <c r="F85" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="G85" s="45">
         <v>45938</v>
@@ -4673,10 +4714,10 @@
         <v>1096</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" s="45">
-        <v>45907</v>
+        <v>120</v>
+      </c>
+      <c r="F86" t="s">
+        <v>120</v>
       </c>
       <c r="G86" s="11">
         <v>45938</v>
@@ -4691,13 +4732,13 @@
         <v>1097</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F87" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G87" s="11">
-        <v>45907</v>
+        <v>121</v>
+      </c>
+      <c r="F87" t="s">
+        <v>121</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
       </c>
       <c r="Z87">
         <f t="shared" ca="1" si="4"/>
@@ -4709,13 +4750,13 @@
         <v>1098</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G88" s="11">
-        <v>45907</v>
+        <v>122</v>
+      </c>
+      <c r="F88" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
       </c>
       <c r="Z88">
         <f t="shared" ca="1" si="4"/>
@@ -4727,10 +4768,10 @@
         <v>1099</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
-      </c>
-      <c r="F89" s="45">
-        <v>45907</v>
+        <v>123</v>
+      </c>
+      <c r="F89" t="s">
+        <v>123</v>
       </c>
       <c r="G89" s="11">
         <v>45927</v>
@@ -4745,10 +4786,10 @@
         <v>2000</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="45">
-        <v>45907</v>
+        <v>124</v>
+      </c>
+      <c r="F90" t="s">
+        <v>124</v>
       </c>
       <c r="G90" s="11">
         <v>45939</v>
@@ -4763,10 +4804,10 @@
         <v>2016</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
-      </c>
-      <c r="F91" s="45">
-        <v>45907</v>
+        <v>125</v>
+      </c>
+      <c r="F91" t="s">
+        <v>125</v>
       </c>
       <c r="G91" s="11">
         <v>45936</v>
@@ -4781,16 +4822,16 @@
         <v>2017</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F92" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G92" s="11">
-        <v>45907</v>
+        <v>126</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
       </c>
       <c r="Z92">
         <f t="shared" ca="1" si="4"/>
@@ -4802,10 +4843,10 @@
         <v>2018</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="45">
-        <v>45907</v>
+        <v>127</v>
+      </c>
+      <c r="F93" t="s">
+        <v>127</v>
       </c>
       <c r="Z93">
         <f t="shared" ca="1" si="4"/>
@@ -4817,13 +4858,13 @@
         <v>2019</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G94" s="11">
-        <v>45907</v>
+        <v>128</v>
+      </c>
+      <c r="F94" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
       </c>
       <c r="Z94">
         <f t="shared" ca="1" si="4"/>
@@ -4835,10 +4876,10 @@
         <v>2020</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="45">
-        <v>45907</v>
+        <v>129</v>
+      </c>
+      <c r="F95" t="s">
+        <v>129</v>
       </c>
       <c r="G95" s="11">
         <v>45937</v>
@@ -4853,10 +4894,10 @@
         <v>2021</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" s="45">
-        <v>45907</v>
+        <v>130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>130</v>
       </c>
       <c r="Z96">
         <f t="shared" ca="1" si="4"/>
@@ -4868,16 +4909,16 @@
         <v>2022</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F97" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G97" s="11">
-        <v>45907</v>
+        <v>131</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
       </c>
       <c r="Z97">
         <f t="shared" ca="1" si="4"/>
@@ -4889,16 +4930,16 @@
         <v>2025</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="11">
-        <v>45907</v>
-      </c>
-      <c r="F98" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G98" s="11">
-        <v>45907</v>
+        <v>132</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
       </c>
       <c r="Z98">
         <f t="shared" ca="1" si="4"/>
@@ -4910,16 +4951,16 @@
         <v>2026</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G99" s="11">
-        <v>45907</v>
-      </c>
-      <c r="H99" s="11">
-        <v>45907</v>
+        <v>133</v>
+      </c>
+      <c r="F99" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" t="s">
+        <v>32</v>
       </c>
       <c r="Z99">
         <f ca="1">B99:Z241</f>
@@ -4931,13 +4972,13 @@
         <v>2027</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D100" s="11">
         <v>45915</v>
       </c>
-      <c r="F100" s="45">
-        <v>45907</v>
+      <c r="F100" t="s">
+        <v>134</v>
       </c>
       <c r="G100" s="11">
         <v>45914</v>
@@ -4952,10 +4993,10 @@
         <v>2028</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F101" s="45">
-        <v>45907</v>
+        <v>135</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="G101" s="11">
         <v>45938</v>
@@ -4970,10 +5011,10 @@
         <v>2029</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="45">
-        <v>45907</v>
+        <v>136</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="G102" s="11">
         <v>45939</v>
@@ -4988,16 +5029,16 @@
         <v>2030</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D103" s="11">
         <v>45893</v>
       </c>
-      <c r="F103" s="45">
-        <v>45907</v>
-      </c>
-      <c r="G103" s="11">
-        <v>45907</v>
+      <c r="F103" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
       </c>
       <c r="Z103">
         <f ca="1">B102:Z245</f>
@@ -5009,10 +5050,10 @@
         <v>2031</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104" s="45">
-        <v>45907</v>
+        <v>138</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="G104" s="45">
         <v>45936</v>
@@ -5027,10 +5068,10 @@
         <v>2032</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
-      </c>
-      <c r="F105" s="45">
-        <v>45907</v>
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>139</v>
       </c>
       <c r="G105" s="11">
         <v>45922</v>
@@ -5045,10 +5086,10 @@
         <v>2033</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F106" s="45">
-        <v>45907</v>
+        <v>140</v>
+      </c>
+      <c r="F106" t="s">
+        <v>140</v>
       </c>
       <c r="G106" s="11">
         <v>45937</v>
@@ -5063,10 +5104,10 @@
         <v>2034</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F107" s="45">
-        <v>45907</v>
+        <v>141</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="G107" s="11">
         <v>45937</v>
@@ -5081,13 +5122,13 @@
         <v>2035</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D108" s="11">
         <v>45931</v>
       </c>
-      <c r="F108" s="45">
-        <v>45907</v>
+      <c r="F108" t="s">
+        <v>142</v>
       </c>
       <c r="G108" s="11">
         <v>45930</v>
@@ -5102,10 +5143,10 @@
         <v>2036</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" s="45">
-        <v>45907</v>
+        <v>143</v>
+      </c>
+      <c r="F109" t="s">
+        <v>143</v>
       </c>
       <c r="G109" s="11">
         <v>45937</v>
@@ -5120,10 +5161,10 @@
         <v>2037</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" s="45">
-        <v>45907</v>
+        <v>144</v>
+      </c>
+      <c r="F110" t="s">
+        <v>144</v>
       </c>
       <c r="G110" s="11">
         <v>45929</v>
@@ -5138,13 +5179,13 @@
         <v>2039</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D111" s="11">
         <v>45937</v>
       </c>
-      <c r="F111" s="45">
-        <v>45907</v>
+      <c r="F111" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="G111" s="11">
         <v>45930</v>
@@ -5159,13 +5200,13 @@
         <v>2040</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D112" s="11">
         <v>45945</v>
       </c>
-      <c r="F112" s="45">
-        <v>45907</v>
+      <c r="F112" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="G112" s="11">
         <v>45937</v>
@@ -5180,10 +5221,10 @@
         <v>2041</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F113" s="45">
-        <v>45907</v>
+        <v>147</v>
+      </c>
+      <c r="F113" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="G113" s="37">
         <v>45937</v>
@@ -5198,7 +5239,7 @@
         <v>2042</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D114" s="11">
         <v>45936</v>
@@ -5219,7 +5260,7 @@
         <v>2043</v>
       </c>
       <c r="C115" s="46" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F115" s="45">
         <v>45942</v>
@@ -5237,7 +5278,7 @@
         <v>2044</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F116" s="45">
         <v>45945</v>
@@ -5255,7 +5296,7 @@
         <v>2045</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F117" s="11">
         <v>45945</v>
@@ -5273,7 +5314,7 @@
         <v>2046</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F118" s="45">
         <v>45946</v>
@@ -5291,7 +5332,7 @@
         <v>2047</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F119" s="11">
         <v>45946</v>
@@ -5309,7 +5350,7 @@
         <v>2049</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F120" s="70">
         <v>45950</v>
@@ -5327,7 +5368,7 @@
         <v>2050</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F121" s="11">
         <v>45951</v>
@@ -5345,7 +5386,7 @@
         <v>2051</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F122" s="70">
         <v>45952</v>
@@ -5363,7 +5404,7 @@
         <v>2052</v>
       </c>
       <c r="C123" s="46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F123" s="45">
         <v>45952</v>
@@ -5381,7 +5422,7 @@
         <v>2053</v>
       </c>
       <c r="C124" s="46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F124" s="45">
         <v>45952</v>
@@ -5399,9 +5440,9 @@
         <v>2054</v>
       </c>
       <c r="C125" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F125" s="73">
+        <v>159</v>
+      </c>
+      <c r="F125" s="74">
         <v>45952</v>
       </c>
       <c r="G125" s="45">
@@ -5417,7 +5458,7 @@
         <v>2055</v>
       </c>
       <c r="C126" s="46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F126" s="45">
         <v>45952</v>
@@ -5435,9 +5476,9 @@
         <v>2056</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="F127" s="74">
+        <v>161</v>
+      </c>
+      <c r="F127" s="75">
         <v>45953</v>
       </c>
       <c r="G127" s="45">
@@ -5453,7 +5494,7 @@
         <v>2057</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F128" s="45">
         <v>45953</v>
@@ -5471,7 +5512,7 @@
         <v>2057</v>
       </c>
       <c r="C129" s="65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F129" s="69">
         <v>45953</v>
@@ -5489,7 +5530,7 @@
         <v>2058</v>
       </c>
       <c r="C130" s="46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F130" s="45">
         <v>45953</v>
@@ -5498,7 +5539,7 @@
         <v>45953</v>
       </c>
       <c r="L130" s="46" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Z130" s="46">
         <f t="shared" ca="1" si="5"/>
@@ -5510,7 +5551,7 @@
         <v>2060</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F131" s="68">
         <v>45953</v>
@@ -5528,7 +5569,7 @@
         <v>2061</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F132" s="68">
         <v>45953</v>
@@ -5546,7 +5587,7 @@
         <v>2062</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F133" s="68">
         <v>45953</v>
@@ -5564,7 +5605,7 @@
         <v>2063</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F134" s="68">
         <v>45953</v>
@@ -5582,7 +5623,7 @@
         <v>2064</v>
       </c>
       <c r="C135" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F135" s="11">
         <v>45958</v>
@@ -5600,9 +5641,9 @@
         <v>2065</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
-      </c>
-      <c r="F136" s="78">
+        <v>171</v>
+      </c>
+      <c r="F136" s="79">
         <v>45958</v>
       </c>
       <c r="G136" s="11">
@@ -5618,7 +5659,7 @@
         <v>2066</v>
       </c>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F137" s="11">
         <v>45958</v>
@@ -5636,7 +5677,7 @@
         <v>2067</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F138" s="11">
         <v>45958</v>
@@ -5654,7 +5695,7 @@
         <v>2068</v>
       </c>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F139" s="11">
         <v>45958</v>
@@ -5672,7 +5713,7 @@
         <v>2069</v>
       </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F140" s="11">
         <v>45958</v>
@@ -5690,7 +5731,7 @@
         <v>2070</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F141" s="11">
         <v>45958</v>
@@ -5708,7 +5749,7 @@
         <v>2071</v>
       </c>
       <c r="C142" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F142" s="11">
         <v>45958</v>
@@ -5726,7 +5767,7 @@
         <v>2072</v>
       </c>
       <c r="C143" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F143" s="11">
         <v>45958</v>
@@ -5744,7 +5785,7 @@
         <v>2073</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F144" s="11">
         <v>45958</v>
@@ -5762,7 +5803,7 @@
         <v>2074</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F145" s="11">
         <v>45958</v>
@@ -5777,7 +5818,7 @@
     </row>
     <row r="146" spans="2:26" ht="15" customHeight="1">
       <c r="C146" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F146" s="11">
         <v>45959</v>
@@ -5791,8 +5832,8 @@
       </c>
     </row>
     <row r="147" spans="2:26" ht="15" customHeight="1">
-      <c r="C147" s="79" t="s">
-        <v>178</v>
+      <c r="C147" s="80" t="s">
+        <v>182</v>
       </c>
       <c r="F147" s="11">
         <v>45959</v>
@@ -5806,8 +5847,8 @@
       </c>
     </row>
     <row r="148" spans="2:26" ht="15" customHeight="1">
-      <c r="C148" s="79" t="s">
-        <v>179</v>
+      <c r="C148" s="80" t="s">
+        <v>183</v>
       </c>
       <c r="F148" s="11">
         <v>45959</v>
@@ -5821,8 +5862,8 @@
       </c>
     </row>
     <row r="149" spans="2:26" ht="15" customHeight="1">
-      <c r="C149" s="79" t="s">
-        <v>164</v>
+      <c r="C149" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="F149" s="11">
         <v>45959</v>
@@ -5836,8 +5877,8 @@
       </c>
     </row>
     <row r="150" spans="2:26" ht="15" customHeight="1">
-      <c r="C150" s="79" t="s">
-        <v>180</v>
+      <c r="C150" s="80" t="s">
+        <v>184</v>
       </c>
       <c r="F150" s="11">
         <v>45959</v>
@@ -5851,8 +5892,8 @@
       </c>
     </row>
     <row r="151" spans="2:26" ht="15" customHeight="1">
-      <c r="C151" s="79" t="s">
-        <v>181</v>
+      <c r="C151" s="80" t="s">
+        <v>185</v>
       </c>
       <c r="F151" s="11">
         <v>45959</v>
@@ -5866,8 +5907,8 @@
       </c>
     </row>
     <row r="152" spans="2:26" ht="15" customHeight="1">
-      <c r="C152" s="79" t="s">
-        <v>182</v>
+      <c r="C152" s="80" t="s">
+        <v>186</v>
       </c>
       <c r="F152" s="11">
         <v>45959</v>
@@ -5881,8 +5922,8 @@
       </c>
     </row>
     <row r="153" spans="2:26" ht="15" customHeight="1">
-      <c r="C153" s="79" t="s">
-        <v>183</v>
+      <c r="C153" s="80" t="s">
+        <v>187</v>
       </c>
       <c r="F153" s="11">
         <v>45959</v>
@@ -5896,8 +5937,8 @@
       </c>
     </row>
     <row r="154" spans="2:26" ht="15" customHeight="1">
-      <c r="C154" s="79" t="s">
-        <v>184</v>
+      <c r="C154" s="80" t="s">
+        <v>188</v>
       </c>
       <c r="F154" s="11">
         <v>45959</v>
@@ -5911,8 +5952,8 @@
       </c>
     </row>
     <row r="155" spans="2:26" ht="15" customHeight="1">
-      <c r="C155" s="79" t="s">
-        <v>185</v>
+      <c r="C155" s="80" t="s">
+        <v>189</v>
       </c>
       <c r="F155" s="11">
         <v>45959</v>
@@ -5926,8 +5967,8 @@
       </c>
     </row>
     <row r="156" spans="2:26" ht="15" customHeight="1">
-      <c r="C156" s="79" t="s">
-        <v>186</v>
+      <c r="C156" s="80" t="s">
+        <v>190</v>
       </c>
       <c r="F156" s="11">
         <v>45959</v>
@@ -5942,7 +5983,7 @@
     </row>
     <row r="157" spans="2:26" ht="15" customHeight="1">
       <c r="C157" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F157" s="11">
         <v>45959</v>
@@ -5957,7 +5998,7 @@
     </row>
     <row r="158" spans="2:26" ht="15" customHeight="1">
       <c r="C158" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F158" s="11">
         <v>45959</v>
@@ -5971,8 +6012,8 @@
       </c>
     </row>
     <row r="159" spans="2:26" ht="15" customHeight="1">
-      <c r="C159" s="80" t="s">
-        <v>189</v>
+      <c r="C159" s="81" t="s">
+        <v>193</v>
       </c>
       <c r="F159" s="11">
         <v>45959</v>
@@ -5987,7 +6028,7 @@
     </row>
     <row r="160" spans="2:26" ht="15" customHeight="1">
       <c r="C160" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F160" s="11">
         <v>45960</v>
@@ -6002,7 +6043,7 @@
     </row>
     <row r="161" spans="3:26" ht="15" customHeight="1">
       <c r="C161" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F161" s="11">
         <v>45960</v>
@@ -6017,7 +6058,7 @@
     </row>
     <row r="162" spans="3:26" ht="15" customHeight="1">
       <c r="C162" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F162" s="11">
         <v>45960</v>
@@ -6032,7 +6073,7 @@
     </row>
     <row r="163" spans="3:26" ht="15" customHeight="1">
       <c r="C163" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F163" s="11">
         <v>45960</v>
@@ -6047,7 +6088,7 @@
     </row>
     <row r="164" spans="3:26" ht="15" customHeight="1">
       <c r="C164" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F164" s="11">
         <v>45960</v>
@@ -6061,8 +6102,8 @@
       </c>
     </row>
     <row r="165" spans="3:26" ht="15" customHeight="1">
-      <c r="C165" s="83" t="s">
-        <v>195</v>
+      <c r="C165" s="84" t="s">
+        <v>199</v>
       </c>
       <c r="F165" s="11">
         <v>45960</v>
@@ -6077,53 +6118,119 @@
     </row>
     <row r="166" spans="3:26" ht="15" customHeight="1">
       <c r="C166" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F166" s="11">
         <v>45960</v>
       </c>
+      <c r="G166" s="11">
+        <v>45960</v>
+      </c>
       <c r="Z166">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="3:26" ht="15" customHeight="1">
+      <c r="C167" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="F167" s="11">
+        <v>45977</v>
+      </c>
+      <c r="G167" s="11">
+        <v>45977</v>
+      </c>
       <c r="Z167">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="3:26" ht="15" customHeight="1">
+      <c r="C168" t="s">
+        <v>202</v>
+      </c>
+      <c r="F168" s="11">
+        <v>45977</v>
+      </c>
+      <c r="G168" s="11">
+        <v>45977</v>
+      </c>
       <c r="Z168">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="3:26" ht="15" customHeight="1">
+      <c r="C169" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="F169" s="11">
+        <v>45978</v>
+      </c>
+      <c r="G169" s="11">
+        <v>45978</v>
+      </c>
       <c r="Z169">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="3:26" ht="15" customHeight="1">
+      <c r="C170" t="s">
+        <v>573</v>
+      </c>
+      <c r="F170" s="11">
+        <v>45978</v>
+      </c>
+      <c r="G170" s="11">
+        <v>45978</v>
+      </c>
       <c r="Z170">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="3:26" ht="15" customHeight="1">
+      <c r="C171" t="s">
+        <v>574</v>
+      </c>
+      <c r="F171" s="11">
+        <v>45979</v>
+      </c>
+      <c r="G171" s="11">
+        <v>45979</v>
+      </c>
       <c r="Z171">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="3:26" ht="15" customHeight="1">
+      <c r="C172" t="s">
+        <v>575</v>
+      </c>
+      <c r="F172" s="11">
+        <v>45979</v>
+      </c>
+      <c r="G172" s="11">
+        <v>45979</v>
+      </c>
       <c r="Z172">
         <f ca="1">B171:Z244</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="3:26" ht="15" customHeight="1">
+      <c r="C173" t="s">
+        <v>576</v>
+      </c>
+      <c r="F173" s="11">
+        <v>45980</v>
+      </c>
+      <c r="G173" s="11">
+        <v>45980</v>
+      </c>
       <c r="Z173">
         <f ca="1">B172:Z245</f>
         <v>0</v>
@@ -6370,7 +6477,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V86" xr:uid="{58D67C14-FB5C-4A6C-947C-964CE1FAAB4C}">
       <formula1>"yes , no"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G137 G140:G141 G148:G1048576 H12 H20 J46 H56" xr:uid="{B08C1A48-E740-4304-81B8-C7A6DAD572AC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G137 G140:G141 G148:G1048576" xr:uid="{B08C1A48-E740-4304-81B8-C7A6DAD572AC}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C147" r:id="rId1" xr:uid="{3DEC256D-434F-4903-9095-30932E5D4E3F}"/>
@@ -6392,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A124B1-A62D-41C1-80E4-6E6C588E4C8F}">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -6434,82 +6541,82 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="N1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="W1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="X1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Y1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Z1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AA1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AB1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="46" customFormat="1" ht="15.6" customHeight="1">
@@ -6518,34 +6625,34 @@
         <v>1001</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K2" s="46">
         <v>594125072</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="51"/>
@@ -6561,31 +6668,31 @@
         <v>1002</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K3">
         <v>505422110</v>
       </c>
       <c r="M3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -6605,13 +6712,13 @@
         <v>1003</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I4" s="1"/>
       <c r="Q4" s="2"/>
@@ -6635,22 +6742,22 @@
         <v>1004</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K5">
         <v>552799219</v>
@@ -6662,22 +6769,22 @@
         <v>1005</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K6">
         <v>548411993</v>
@@ -6688,88 +6795,88 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" s="83" customFormat="1" ht="14.4">
-      <c r="A7" s="81">
+    <row r="7" spans="1:29" s="84" customFormat="1" ht="14.4">
+      <c r="A7" s="82">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1006</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="83">
+      <c r="B7" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="84">
         <v>537156646</v>
       </c>
-      <c r="L7" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="M7" s="83" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="84"/>
-    </row>
-    <row r="8" spans="1:29" s="83" customFormat="1" ht="14.4">
-      <c r="A8" s="81">
+      <c r="L7" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="85"/>
+    </row>
+    <row r="8" spans="1:29" s="84" customFormat="1" ht="14.4">
+      <c r="A8" s="82">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1007</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="84" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="J8" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" s="83">
+      <c r="E8" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="84">
         <v>500147676</v>
       </c>
-      <c r="M8" s="83" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="84"/>
+      <c r="M8" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="85"/>
     </row>
     <row r="9" spans="1:29" ht="14.4">
       <c r="A9" s="21">
@@ -6777,28 +6884,28 @@
         <v>1008</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K9">
         <v>567716444</v>
       </c>
       <c r="M9" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -6812,28 +6919,28 @@
         <v>1009</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J10" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K10">
         <v>555615008</v>
       </c>
       <c r="M10" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -6847,28 +6954,28 @@
         <v>1010</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K11">
         <v>550203300</v>
       </c>
       <c r="M11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -6882,28 +6989,28 @@
         <v>1011</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K12" s="46">
         <v>556704506</v>
@@ -6915,22 +7022,22 @@
         <v>1012</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J13" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K13">
         <v>565188148</v>
@@ -6942,58 +7049,58 @@
         <v>1013</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="E14" s="96" t="s">
-        <v>225</v>
+      <c r="E14" s="97" t="s">
+        <v>232</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K14" s="13">
         <v>559578147</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="83" customFormat="1" ht="14.4">
-      <c r="A15" s="81">
+    <row r="15" spans="1:29" s="84" customFormat="1" ht="14.4">
+      <c r="A15" s="82">
         <f>ROW() - ROW(Table35[[#Headers],[Client serial number]]) + 1000</f>
         <v>1014</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="H15" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="I15" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="J15" s="83" t="s">
-        <v>247</v>
-      </c>
-      <c r="K15" s="83">
+      <c r="B15" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="84">
         <v>590445678</v>
       </c>
     </row>
@@ -7003,25 +7110,25 @@
         <v>1015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H16" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K16">
         <v>555084045</v>
@@ -7033,25 +7140,25 @@
         <v>1016</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K17" s="46">
         <v>555223429</v>
@@ -7063,22 +7170,22 @@
         <v>1017</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="J18" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K18">
         <v>505681908</v>
@@ -7089,28 +7196,28 @@
         <v>1028</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K19" s="46">
         <v>555696643</v>
@@ -7122,25 +7229,25 @@
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K20" s="46">
         <v>500028888</v>
@@ -7152,25 +7259,25 @@
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K21" s="46">
         <v>554116688</v>
@@ -7181,86 +7288,86 @@
         <v>1031</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F22" s="54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K22" s="54">
         <v>545895688</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="32" customFormat="1" ht="14.4">
-      <c r="A23" s="97">
+      <c r="A23" s="98">
         <v>1032</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="83" t="s">
-        <v>243</v>
+      <c r="C23" s="84" t="s">
+        <v>250</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="83" customFormat="1" ht="14.4">
-      <c r="A24" s="81">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="84" customFormat="1" ht="14.4">
+      <c r="A24" s="82">
         <v>1033</v>
       </c>
-      <c r="B24" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="H24" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="I24" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="J24" s="83" t="s">
-        <v>247</v>
-      </c>
-      <c r="K24" s="83">
+      <c r="B24" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>310</v>
+      </c>
+      <c r="J24" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="84">
         <v>504733378</v>
       </c>
     </row>
@@ -7269,22 +7376,22 @@
         <v>1034</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K25">
         <v>554900007</v>
@@ -7295,28 +7402,28 @@
         <v>1035</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K26" s="46">
         <v>566220700</v>
@@ -7327,117 +7434,117 @@
         <v>1036</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K27" s="16">
         <v>533378332</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="83" customFormat="1" ht="14.4">
-      <c r="A28" s="81">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="84" customFormat="1" ht="14.4">
+      <c r="A28" s="82">
         <v>1037</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="83" t="s">
-        <v>312</v>
-      </c>
-      <c r="H28" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="I28" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="J28" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="K28" s="83">
+      <c r="B28" s="83"/>
+      <c r="C28" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" s="84">
         <v>555074642</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="83" customFormat="1" ht="14.4">
-      <c r="A29" s="81">
+    <row r="29" spans="1:13" s="84" customFormat="1" ht="14.4">
+      <c r="A29" s="82">
         <v>1038</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="H29" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="I29" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="J29" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="K29" s="83">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="H29" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="J29" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" s="84">
         <v>503510794</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="83" customFormat="1" ht="14.4">
-      <c r="A30" s="81">
+    <row r="30" spans="1:13" s="84" customFormat="1" ht="14.4">
+      <c r="A30" s="82">
         <v>1039</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="83" t="s">
-        <v>317</v>
-      </c>
-      <c r="H30" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="I30" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="J30" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="K30" s="83">
+      <c r="B30" s="83"/>
+      <c r="C30" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="J30" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="84">
         <v>566314444</v>
       </c>
     </row>
@@ -7446,22 +7553,22 @@
         <v>1040</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H31" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K31">
         <v>532129095</v>
@@ -7472,22 +7579,22 @@
         <v>1041</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4">
@@ -7495,28 +7602,28 @@
         <v>1042</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H33" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K33">
         <v>555958111</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.4">
@@ -7524,79 +7631,79 @@
         <v>1043</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K34">
         <v>566075156</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A35" s="81">
+    <row r="35" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A35" s="82">
         <v>1044</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>332</v>
-      </c>
-      <c r="H35" s="83" t="s">
-        <v>333</v>
-      </c>
-      <c r="I35" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="J35" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="L35" s="84" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A36" s="81">
+      <c r="B35" s="83"/>
+      <c r="C35" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="H35" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="J35" s="84" t="s">
+        <v>342</v>
+      </c>
+      <c r="L35" s="85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A36" s="82">
         <v>1045</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="H36" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I36" s="84" t="s">
-        <v>339</v>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="H36" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4">
@@ -7604,103 +7711,103 @@
         <v>1046</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A38" s="81">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A38" s="82">
         <v>1047</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="83" t="s">
-        <v>342</v>
-      </c>
-      <c r="H38" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I38" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="J38" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="K38" s="83">
+      <c r="B38" s="83"/>
+      <c r="C38" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="H38" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="J38" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="K38" s="84">
         <v>556719292</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A39" s="81">
+    <row r="39" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A39" s="82">
         <v>1048</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="H39" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="I39" s="84" t="s">
+      <c r="B39" s="83"/>
+      <c r="C39" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="H39" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" s="84">
+        <v>545622789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A40" s="82">
+        <v>1049</v>
+      </c>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="J39" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="K39" s="83">
-        <v>545622789</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A40" s="81">
-        <v>1049</v>
-      </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="H40" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I40" s="84" t="s">
-        <v>347</v>
+      <c r="I40" s="85" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.4">
@@ -7708,54 +7815,54 @@
         <v>1050</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K41">
         <v>553816231</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A42" s="81">
+    <row r="42" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A42" s="82">
         <v>1051</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="H42" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="I42" s="84" t="s">
-        <v>354</v>
-      </c>
-      <c r="J42" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="K42" s="83">
+      <c r="B42" s="83"/>
+      <c r="C42" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="I42" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" s="84">
         <v>503446319</v>
       </c>
     </row>
@@ -7764,17 +7871,17 @@
         <v>1052</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K43">
         <v>536222929</v>
@@ -7785,22 +7892,22 @@
         <v>1053</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H44" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="J44" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="26" customFormat="1" ht="14.4">
@@ -7808,28 +7915,28 @@
         <v>1054</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K45" s="26">
         <v>506665351</v>
@@ -7840,22 +7947,22 @@
         <v>1055</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="J46" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K46">
         <v>505407448</v>
@@ -7866,22 +7973,22 @@
         <v>1056</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K47">
         <v>503686452</v>
@@ -7892,25 +7999,25 @@
         <v>1057</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="J48" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.4">
@@ -7918,22 +8025,22 @@
         <v>1058</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K49">
         <v>509331170</v>
@@ -7944,22 +8051,22 @@
         <v>1059</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H50" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="J50" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K50" s="6">
         <v>544380022</v>
@@ -7970,22 +8077,22 @@
         <v>1060</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H51" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="J51" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K51" s="6">
         <v>569899998</v>
@@ -7996,32 +8103,32 @@
         <v>1061</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F52" s="46" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="I52" s="48"/>
       <c r="J52" s="46" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K52" s="56" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L52" s="48" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.4">
@@ -8029,25 +8136,25 @@
         <v>1062</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H53" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.4">
@@ -8055,22 +8162,22 @@
         <v>1063</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H54" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J54" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K54" s="6"/>
     </row>
@@ -8079,22 +8186,22 @@
         <v>1064</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="J55" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K55" s="6">
         <v>554499614</v>
@@ -8105,25 +8212,25 @@
         <v>1065</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14.4">
@@ -8131,22 +8238,22 @@
         <v>1066</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H57" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="J57" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.4">
@@ -8154,19 +8261,19 @@
         <v>1067</v>
       </c>
       <c r="E58" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H58" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K58">
         <v>563317115</v>
@@ -8177,17 +8284,17 @@
         <v>1068</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14.4">
@@ -8195,19 +8302,19 @@
         <v>1069</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H60" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="14.4">
@@ -8215,22 +8322,22 @@
         <v>1070</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H61" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J61" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14.4">
@@ -8238,19 +8345,19 @@
         <v>1071</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F62" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H62" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.4">
@@ -8258,19 +8365,19 @@
         <v>1072</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H63" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14.4">
@@ -8278,19 +8385,19 @@
         <v>1073</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G64" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H64" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="14.4">
@@ -8298,43 +8405,43 @@
         <v>1074</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="83" customFormat="1" ht="14.4">
-      <c r="A66" s="81">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="84" customFormat="1" ht="14.4">
+      <c r="A66" s="82">
         <v>1075</v>
       </c>
-      <c r="B66" s="82"/>
-      <c r="C66" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F66" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G66" s="83" t="s">
-        <v>312</v>
-      </c>
-      <c r="H66" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="I66" s="84" t="s">
-        <v>418</v>
+      <c r="B66" s="83"/>
+      <c r="C66" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="H66" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="I66" s="85" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="14.4">
@@ -8342,19 +8449,19 @@
         <v>1076</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H67" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K67">
         <v>564060131</v>
@@ -8365,22 +8472,22 @@
         <v>1077</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G68" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="H68" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="J68" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K68">
         <v>552648329</v>
@@ -8391,22 +8498,22 @@
         <v>1078</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G69" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H69" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="J69" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="14.4">
@@ -8414,22 +8521,22 @@
         <v>1079</v>
       </c>
       <c r="E70" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G70" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H70" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="J70" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8437,22 +8544,22 @@
         <v>1080</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E71" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H71" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I71" s="48" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8460,25 +8567,25 @@
         <v>1081</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E72" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F72" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G72" s="57" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H72" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I72" s="48" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8486,25 +8593,25 @@
         <v>1082</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E73" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G73" s="46" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H73" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8512,22 +8619,22 @@
         <v>1083</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E74" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F74" s="46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H74" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I74" s="48" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8535,22 +8642,22 @@
         <v>1085</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E75" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F75" s="51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H75" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I75" s="48" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8558,22 +8665,22 @@
         <v>1086</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E76" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H76" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I76" s="48" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8581,22 +8688,22 @@
         <v>1087</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E77" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F77" s="46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H77" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8604,22 +8711,22 @@
         <v>1088</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E78" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H78" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8627,25 +8734,25 @@
         <v>1089</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E79" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H79" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I79" s="48" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L79" s="61" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="46" customFormat="1" ht="14.4">
@@ -8653,22 +8760,22 @@
         <v>1090</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E80" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I80" s="48" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:25" s="5" customFormat="1" ht="14.4">
@@ -8677,13 +8784,13 @@
       </c>
       <c r="B81" s="8"/>
       <c r="E81" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -8692,28 +8799,28 @@
         <v>1092</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E82" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F82" s="46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G82" s="46" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H82" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I82" s="48" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J82" s="46" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:25" s="46" customFormat="1" ht="14.4">
@@ -8722,19 +8829,19 @@
       </c>
       <c r="B83" s="44"/>
       <c r="C83" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E83" s="46" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="14.4">
@@ -8742,22 +8849,22 @@
         <v>1094</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H84" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J84" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K84">
         <v>597667970</v>
@@ -8772,19 +8879,19 @@
         <v>1095</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="H85" s="36" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I85" s="59" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="14.4">
@@ -8792,13 +8899,13 @@
         <v>1096</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H86" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Y86">
         <f ca="1">A85:Y116</f>
@@ -8810,22 +8917,22 @@
         <v>1097</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H87" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J87" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Y87">
-        <f ca="1">A86:Y196</f>
+        <f ca="1">A86:Y195</f>
         <v>0</v>
       </c>
     </row>
@@ -8834,22 +8941,22 @@
         <v>1098</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G88" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J88" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Y88">
         <f ca="1">A87:Y118</f>
@@ -8861,19 +8968,19 @@
         <v>1099</v>
       </c>
       <c r="E89" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G89" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H89" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J89" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Y89">
         <f ca="1">A88:Y119</f>
@@ -8885,25 +8992,25 @@
         <v>2000</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="Y90" s="26">
         <f t="shared" ref="Y90:Y95" ca="1" si="0">A89:Y119</f>
@@ -8915,22 +9022,22 @@
         <v>2016</v>
       </c>
       <c r="C91" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G91" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="H91" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J91" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Y91">
         <f t="shared" ca="1" si="0"/>
@@ -8942,22 +9049,22 @@
         <v>2017</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E92" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J92" s="20" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Y92" s="20">
         <f t="shared" ca="1" si="0"/>
@@ -8969,22 +9076,22 @@
         <v>2018</v>
       </c>
       <c r="C93" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J93" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Y93">
         <f t="shared" ca="1" si="0"/>
@@ -8996,22 +9103,22 @@
         <v>2019</v>
       </c>
       <c r="C94" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E94" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G94" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J94" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Y94">
         <f t="shared" ca="1" si="0"/>
@@ -9023,19 +9130,19 @@
         <v>2020</v>
       </c>
       <c r="C95" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G95" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Y95">
         <f t="shared" ca="1" si="0"/>
@@ -9047,19 +9154,19 @@
         <v>2021</v>
       </c>
       <c r="C96" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H96" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Y96">
         <f ca="1">A95:Y115</f>
@@ -9071,58 +9178,58 @@
         <v>2022</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C97" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="H97" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J97" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Y97">
         <f ca="1">A96:Y116</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A98" s="81">
+    <row r="98" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A98" s="82">
         <v>2025</v>
       </c>
-      <c r="B98" s="82" t="s">
-        <v>469</v>
-      </c>
-      <c r="C98" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E98" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F98" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="G98" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="H98" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="J98" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y98" s="83">
-        <f ca="1">A97:Y196</f>
+      <c r="B98" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" s="84" t="s">
+        <v>484</v>
+      </c>
+      <c r="H98" s="84" t="s">
+        <v>485</v>
+      </c>
+      <c r="J98" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y98" s="84">
+        <f ca="1">A97:Y195</f>
         <v>0</v>
       </c>
     </row>
@@ -9131,22 +9238,22 @@
         <v>2026</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G99" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="H99" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="J99" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Y99">
         <f ca="1">A99:Y119</f>
@@ -9158,22 +9265,22 @@
         <v>2027</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G100" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J100" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Y100">
         <f t="shared" ref="Y100:Y110" ca="1" si="1">A99:Y120</f>
@@ -9185,13 +9292,13 @@
         <v>2028</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Y101">
         <f t="shared" ca="1" si="1"/>
@@ -9203,13 +9310,13 @@
         <v>2029</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Y102">
         <f t="shared" ca="1" si="1"/>
@@ -9221,22 +9328,22 @@
         <v>2030</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C103" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H103" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J103" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K103">
         <v>545733999</v>
@@ -9251,19 +9358,19 @@
         <v>2031</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F104" s="46" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H104" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K104" s="51"/>
       <c r="Y104" s="46" t="e">
@@ -9276,22 +9383,22 @@
         <v>2032</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G105" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H105" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="J105" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="Y105">
         <f t="shared" ca="1" si="1"/>
@@ -9303,22 +9410,22 @@
         <v>2033</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G106" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H106" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J106" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Y106">
         <f t="shared" ca="1" si="1"/>
@@ -9330,22 +9437,22 @@
         <v>2034</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="E107" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G107" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H107" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="J107" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Y107">
         <f t="shared" ca="1" si="1"/>
@@ -9357,19 +9464,19 @@
         <v>2035</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="E108" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H108" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Y108">
         <f t="shared" ca="1" si="1"/>
@@ -9381,16 +9488,16 @@
         <v>2036</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H109" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Y109">
         <f t="shared" ca="1" si="1"/>
@@ -9402,19 +9509,19 @@
         <v>2037</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E110" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H110" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Y110">
         <f t="shared" ca="1" si="1"/>
@@ -9429,19 +9536,19 @@
         <v>45930</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G111" t="s">
+        <v>504</v>
+      </c>
+      <c r="H111" t="s">
         <v>497</v>
       </c>
-      <c r="H111" t="s">
-        <v>490</v>
-      </c>
       <c r="J111" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="Y111">
         <f ca="1">A110:Y130</f>
@@ -9453,28 +9560,28 @@
         <v>2040</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D112" s="28">
         <v>45936</v>
       </c>
       <c r="E112" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="Y112" s="26">
         <f ca="1">A112:Y132</f>
@@ -9486,16 +9593,16 @@
         <v>2041</v>
       </c>
       <c r="C113" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E113" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H113" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Y113">
         <f ca="1">A112:Y133</f>
@@ -9510,16 +9617,16 @@
         <v>45928</v>
       </c>
       <c r="E114" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G114" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H114" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Y114">
         <f ca="1">A113:Y134</f>
@@ -9531,25 +9638,25 @@
         <v>2043</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C115" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D115" s="45">
         <v>45942</v>
       </c>
       <c r="E115" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F115" s="46" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G115" s="46" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H115" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y115" s="46">
         <f ca="1">A114:Y135</f>
@@ -9561,22 +9668,22 @@
         <v>2044</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D116" s="45">
         <v>45945</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F116" s="46" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H116" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y116" s="46">
         <f ca="1">A115:Y136</f>
@@ -9588,22 +9695,22 @@
         <v>2045</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D117" s="11">
         <v>45945</v>
       </c>
       <c r="E117" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G117" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H117" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Y117">
         <f ca="1">A116:Y137</f>
@@ -9615,19 +9722,19 @@
         <v>2046</v>
       </c>
       <c r="C118" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D118" s="11">
         <v>45946</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H118" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Y118">
         <f ca="1">A117:Y139</f>
@@ -9642,13 +9749,13 @@
         <v>45946</v>
       </c>
       <c r="E119" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H119" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Y119">
         <f ca="1">A118:Y140</f>
@@ -9661,25 +9768,25 @@
       </c>
       <c r="B120" s="44"/>
       <c r="C120" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D120" s="45">
         <v>45950</v>
       </c>
       <c r="E120" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G120" s="50" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="H120" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L120" s="48" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Y120" s="46">
         <f ca="1">A120:Y142</f>
@@ -9694,13 +9801,13 @@
         <v>45951</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H121" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Y121">
         <f ca="1">A120:Y143</f>
@@ -9712,22 +9819,22 @@
         <v>2051</v>
       </c>
       <c r="B122" s="44" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D122" s="45">
         <v>45952</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H122" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y122" s="46">
         <f ca="1">A121:Y144</f>
@@ -9739,31 +9846,31 @@
         <v>2052</v>
       </c>
       <c r="B123" s="44" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C123" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D123" s="45">
         <v>45952</v>
       </c>
       <c r="E123" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F123" s="46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G123" s="57" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H123" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L123" s="49" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Y123" s="46">
-        <f ca="1">A122:Y196</f>
+        <f ca="1">A122:Y195</f>
         <v>0</v>
       </c>
     </row>
@@ -9775,13 +9882,13 @@
         <v>45952</v>
       </c>
       <c r="E124" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F124" s="46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H124" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y124">
         <f ca="1">A123:Y145</f>
@@ -9793,25 +9900,25 @@
         <v>2054</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C125" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D125" s="45">
         <v>45952</v>
       </c>
       <c r="E125" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F125" s="60" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G125" s="46" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="H125" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y125" s="46">
         <f ca="1">A124:Y146</f>
@@ -9823,22 +9930,22 @@
         <v>2055</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C126" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D126" s="45">
         <v>45952</v>
       </c>
       <c r="E126" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F126" s="46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H126" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y126" s="46">
         <f ca="1">A125:Y147</f>
@@ -9851,22 +9958,22 @@
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D127" s="45">
         <v>45953</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H127" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Y127" s="46">
-        <f ca="1">A126:Y196</f>
+        <f ca="1">A126:Y195</f>
         <v>0</v>
       </c>
     </row>
@@ -9875,28 +9982,28 @@
         <v>2057</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D128" s="11">
         <v>45953</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F128" s="46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G128" s="64" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H128" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J128" s="63" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L128" s="62" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="Y128">
         <f ca="1">A127:Y149</f>
@@ -9911,19 +10018,19 @@
         <v>45953</v>
       </c>
       <c r="E129" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F129" s="65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G129" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H129" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Y129">
         <f ca="1">A128:Y150</f>
@@ -9936,333 +10043,333 @@
       </c>
       <c r="B130" s="44"/>
       <c r="C130" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D130" s="45">
         <v>45953</v>
       </c>
       <c r="E130" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F130" s="46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G130" s="46" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H130" s="46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J130" s="46" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="Y130" s="46">
         <f ca="1">A129:Y151</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A131" s="81">
+    <row r="131" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A131" s="82">
         <v>2060</v>
       </c>
-      <c r="B131" s="82"/>
-      <c r="C131" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D131" s="87">
+      <c r="B131" s="83"/>
+      <c r="C131" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D131" s="88">
         <v>45953</v>
       </c>
-      <c r="E131" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F131" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="G131" s="95"/>
-      <c r="H131" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y131" s="83">
+      <c r="E131" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F131" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="G131" s="96"/>
+      <c r="H131" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y131" s="84">
         <f ca="1">A131:Y153</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A132" s="81">
+    <row r="132" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A132" s="82">
         <v>2061</v>
       </c>
-      <c r="B132" s="82"/>
-      <c r="C132" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D132" s="87">
+      <c r="B132" s="83"/>
+      <c r="C132" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" s="88">
         <v>45953</v>
       </c>
-      <c r="E132" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F132" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="H132" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y132" s="83">
+      <c r="E132" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F132" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="H132" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y132" s="84">
         <f ca="1">A131:Y154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A133" s="81">
+    <row r="133" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A133" s="82">
         <v>2062</v>
       </c>
-      <c r="B133" s="82"/>
-      <c r="C133" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D133" s="87">
+      <c r="B133" s="83"/>
+      <c r="C133" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="88">
         <v>45953</v>
       </c>
-      <c r="E133" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F133" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="H133" s="83" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y133" s="83">
+      <c r="E133" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F133" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="H133" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y133" s="84">
         <f ca="1">A132:Y155</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A134" s="81">
+    <row r="134" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A134" s="82">
         <v>2063</v>
       </c>
-      <c r="B134" s="82"/>
-      <c r="C134" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D134" s="87">
+      <c r="B134" s="83"/>
+      <c r="C134" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D134" s="88">
         <v>45953</v>
       </c>
-      <c r="E134" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F134" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="H134" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y134" s="83">
+      <c r="E134" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F134" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="H134" s="84" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y134" s="84">
         <f ca="1">A133:Y156</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A135" s="81">
+    <row r="135" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A135" s="82">
         <v>2064</v>
       </c>
-      <c r="B135" s="82"/>
-      <c r="C135" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D135" s="87">
+      <c r="B135" s="83"/>
+      <c r="C135" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" s="88">
         <v>45958</v>
       </c>
-      <c r="E135" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F135" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="G135" s="95" t="s">
-        <v>523</v>
-      </c>
-      <c r="H135" s="92" t="s">
-        <v>524</v>
-      </c>
-      <c r="I135" s="89" t="s">
-        <v>525</v>
-      </c>
-      <c r="J135" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="L135" s="90" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y135" s="83">
+      <c r="E135" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F135" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="G135" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="H135" s="93" t="s">
+        <v>531</v>
+      </c>
+      <c r="I135" s="90" t="s">
+        <v>532</v>
+      </c>
+      <c r="J135" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="L135" s="91" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y135" s="84">
         <f ca="1">A134:Y157</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A136" s="81">
+    <row r="136" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A136" s="82">
         <v>2065</v>
       </c>
-      <c r="B136" s="82"/>
-      <c r="C136" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D136" s="87">
+      <c r="B136" s="83"/>
+      <c r="C136" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D136" s="88">
         <v>45958</v>
       </c>
-      <c r="E136" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F136" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="H136" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="I136" s="84" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y136" s="83">
+      <c r="E136" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F136" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H136" s="89" t="s">
+        <v>534</v>
+      </c>
+      <c r="I136" s="85" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y136" s="84">
         <f ca="1">A135:Y158</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A137" s="81">
+    <row r="137" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A137" s="82">
         <v>2066</v>
       </c>
-      <c r="B137" s="82"/>
-      <c r="C137" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D137" s="87">
+      <c r="B137" s="83"/>
+      <c r="C137" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D137" s="88">
         <v>45958</v>
       </c>
-      <c r="E137" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F137" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="H137" s="88" t="s">
-        <v>529</v>
-      </c>
-      <c r="I137" s="89" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y137" s="83">
-        <f ca="1">A136:Y196</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A138" s="81">
+      <c r="E137" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F137" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="H137" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="I137" s="90" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y137" s="84">
+        <f ca="1">A136:Y195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A138" s="82">
         <v>2067</v>
       </c>
-      <c r="B138" s="82"/>
-      <c r="C138" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D138" s="87">
+      <c r="B138" s="83"/>
+      <c r="C138" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" s="88">
         <v>45958</v>
       </c>
-      <c r="E138" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F138" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="H138" s="92" t="s">
-        <v>530</v>
-      </c>
-      <c r="I138" s="89" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y138" s="83">
+      <c r="E138" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F138" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="H138" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="I138" s="90" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y138" s="84">
         <f t="shared" ref="Y138:Y144" ca="1" si="2">A137:Y162</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:25" s="83" customFormat="1" ht="28.8">
-      <c r="A139" s="81">
+    <row r="139" spans="1:25" s="84" customFormat="1" ht="28.8">
+      <c r="A139" s="82">
         <v>2068</v>
       </c>
-      <c r="B139" s="82"/>
-      <c r="C139" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D139" s="87">
+      <c r="B139" s="83"/>
+      <c r="C139" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" s="88">
         <v>45958</v>
       </c>
-      <c r="E139" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F139" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="H139" s="92" t="s">
-        <v>532</v>
-      </c>
-      <c r="I139" s="89" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y139" s="83">
+      <c r="E139" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F139" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H139" s="93" t="s">
+        <v>539</v>
+      </c>
+      <c r="I139" s="90" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y139" s="84">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" s="83" customFormat="1" ht="28.8">
-      <c r="A140" s="81">
+    <row r="140" spans="1:25" s="84" customFormat="1" ht="28.8">
+      <c r="A140" s="82">
         <v>2069</v>
       </c>
-      <c r="B140" s="82"/>
-      <c r="C140" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D140" s="87">
+      <c r="B140" s="83"/>
+      <c r="C140" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D140" s="88">
         <v>45958</v>
       </c>
-      <c r="E140" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F140" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H140" s="88" t="s">
-        <v>534</v>
-      </c>
-      <c r="I140" s="89" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y140" s="83">
+      <c r="E140" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F140" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="H140" s="89" t="s">
+        <v>541</v>
+      </c>
+      <c r="I140" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y140" s="84">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" s="83" customFormat="1" ht="28.8">
-      <c r="A141" s="81">
+    <row r="141" spans="1:25" s="84" customFormat="1" ht="28.8">
+      <c r="A141" s="82">
         <v>2070</v>
       </c>
-      <c r="B141" s="82"/>
-      <c r="C141" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D141" s="87">
+      <c r="B141" s="83"/>
+      <c r="C141" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="88">
         <v>45958</v>
       </c>
-      <c r="E141" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F141" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="H141" s="88" t="s">
-        <v>532</v>
-      </c>
-      <c r="I141" s="89" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y141" s="83">
+      <c r="E141" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F141" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="H141" s="89" t="s">
+        <v>539</v>
+      </c>
+      <c r="I141" s="90" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y141" s="84">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -10272,96 +10379,109 @@
         <v>45958</v>
       </c>
       <c r="E142" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F142" t="s">
-        <v>173</v>
-      </c>
-      <c r="H142" s="75" t="s">
-        <v>537</v>
-      </c>
-      <c r="I142" s="77" t="s">
-        <v>538</v>
+        <v>177</v>
+      </c>
+      <c r="H142" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="I142" s="78" t="s">
+        <v>545</v>
       </c>
       <c r="Y142">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="83" customFormat="1" ht="43.2">
-      <c r="A143" s="81"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D143" s="87">
+    <row r="143" spans="1:25" s="84" customFormat="1" ht="43.2">
+      <c r="A143" s="82"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="88">
         <v>45958</v>
       </c>
-      <c r="E143" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F143" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="H143" s="88" t="s">
-        <v>539</v>
-      </c>
-      <c r="I143" s="89" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y143" s="83">
+      <c r="E143" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F143" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="H143" s="89" t="s">
+        <v>546</v>
+      </c>
+      <c r="I143" s="90" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y143" s="84">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" s="83" customFormat="1" ht="43.2">
-      <c r="A144" s="81"/>
-      <c r="B144" s="82"/>
-      <c r="C144" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D144" s="87">
+    <row r="144" spans="1:25" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A144" s="82"/>
+      <c r="B144" s="83"/>
+      <c r="C144" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="88">
         <v>45958</v>
       </c>
-      <c r="E144" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F144" s="93" t="s">
-        <v>541</v>
-      </c>
-      <c r="H144" s="88" t="s">
-        <v>542</v>
-      </c>
-      <c r="I144" s="94" t="s">
-        <v>543</v>
-      </c>
-      <c r="Y144" s="83">
+      <c r="E144" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F144" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="G144" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="H144" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="I144" s="95" t="s">
+        <v>550</v>
+      </c>
+      <c r="J144" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="K144" s="84" t="s">
+        <v>551</v>
+      </c>
+      <c r="L144" s="62" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y144" s="84">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A145" s="81"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D145" s="87">
+    <row r="145" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A145" s="82"/>
+      <c r="B145" s="83"/>
+      <c r="C145" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D145" s="88">
         <v>45958</v>
       </c>
-      <c r="E145" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F145" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="H145" s="92" t="s">
-        <v>544</v>
-      </c>
-      <c r="I145" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="Y145" s="83">
+      <c r="E145" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F145" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" s="93" t="s">
+        <v>553</v>
+      </c>
+      <c r="I145" s="85" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y145" s="84">
         <f ca="1">A144:Y170</f>
         <v>0</v>
       </c>
@@ -10371,12 +10491,12 @@
         <v>45959</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F146" t="s">
-        <v>177</v>
-      </c>
-      <c r="H146" s="76"/>
+        <v>181</v>
+      </c>
+      <c r="H146" s="77"/>
       <c r="Y146">
         <f ca="1">A145:Y171</f>
         <v>0</v>
@@ -10387,17 +10507,17 @@
         <v>45959</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F147" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="H147" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F147" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="H147" s="77"/>
       <c r="K147">
         <v>565959955</v>
       </c>
       <c r="Y147">
-        <f ca="1">A146:Y172</f>
+        <f ca="1">A146:Y171</f>
         <v>0</v>
       </c>
     </row>
@@ -10406,35 +10526,35 @@
         <v>45959</v>
       </c>
       <c r="E148" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F148" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="H148" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F148" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="H148" s="77"/>
       <c r="Y148">
-        <f ca="1">A147:Y173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A149" s="81"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D149" s="87">
+        <f ca="1">A147:Y172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A149" s="82"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D149" s="88">
         <v>45959</v>
       </c>
-      <c r="E149" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F149" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="H149" s="92"/>
-      <c r="Y149" s="83">
-        <f ca="1">A148:Y196</f>
+      <c r="E149" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F149" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="H149" s="93"/>
+      <c r="Y149" s="84">
+        <f ca="1">A148:Y195</f>
         <v>0</v>
       </c>
     </row>
@@ -10443,14 +10563,14 @@
         <v>45959</v>
       </c>
       <c r="E150" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F150" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="H150" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F150" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="H150" s="77"/>
       <c r="Y150">
-        <f t="shared" ref="Y150:Y159" ca="1" si="3">A149:Y175</f>
+        <f ca="1">A149:Y174</f>
         <v>0</v>
       </c>
     </row>
@@ -10459,14 +10579,14 @@
         <v>45959</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F151" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="H151" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F151" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="H151" s="77"/>
       <c r="Y151">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">A150:Y175</f>
         <v>0</v>
       </c>
     </row>
@@ -10475,14 +10595,14 @@
         <v>45959</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F152" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="H152" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F152" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="H152" s="77"/>
       <c r="Y152">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">A151:Y176</f>
         <v>0</v>
       </c>
     </row>
@@ -10491,14 +10611,14 @@
         <v>45959</v>
       </c>
       <c r="E153" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F153" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="H153" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F153" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="H153" s="77"/>
       <c r="Y153">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">A152:Y177</f>
         <v>0</v>
       </c>
     </row>
@@ -10507,14 +10627,14 @@
         <v>45959</v>
       </c>
       <c r="E154" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F154" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="H154" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F154" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="H154" s="77"/>
       <c r="Y154">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">A153:Y178</f>
         <v>0</v>
       </c>
     </row>
@@ -10523,56 +10643,56 @@
         <v>45959</v>
       </c>
       <c r="E155" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F155" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="H155" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F155" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H155" s="77"/>
       <c r="Y155">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A156" s="81"/>
-      <c r="B156" s="82"/>
-      <c r="C156" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D156" s="87">
+        <f ca="1">A154:Y179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A156" s="82"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" s="88">
         <v>45959</v>
       </c>
-      <c r="E156" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F156" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="H156" s="92"/>
-      <c r="Y156" s="83">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" s="83" customFormat="1" ht="14.4">
-      <c r="A157" s="81"/>
-      <c r="B157" s="82"/>
-      <c r="C157" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D157" s="87">
+      <c r="E156" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F156" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H156" s="93"/>
+      <c r="Y156" s="84">
+        <f ca="1">A155:Y180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" s="84" customFormat="1" ht="14.4">
+      <c r="A157" s="82"/>
+      <c r="B157" s="83"/>
+      <c r="C157" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" s="88">
         <v>45959</v>
       </c>
-      <c r="E157" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F157" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="H157" s="92"/>
-      <c r="Y157" s="83">
-        <f t="shared" ca="1" si="3"/>
+      <c r="E157" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F157" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="H157" s="93"/>
+      <c r="Y157" s="84">
+        <f ca="1">A156:Y181</f>
         <v>0</v>
       </c>
     </row>
@@ -10581,17 +10701,17 @@
         <v>45959</v>
       </c>
       <c r="E158" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
-      </c>
-      <c r="H158" s="76"/>
+        <v>192</v>
+      </c>
+      <c r="H158" s="77"/>
       <c r="I158" s="1" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="Y158">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">A157:Y182</f>
         <v>0</v>
       </c>
     </row>
@@ -10600,14 +10720,14 @@
         <v>45959</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F159" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="H159" s="76"/>
+        <v>232</v>
+      </c>
+      <c r="F159" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="H159" s="77"/>
       <c r="Y159">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">A158:Y183</f>
         <v>0</v>
       </c>
     </row>
@@ -10616,14 +10736,14 @@
         <v>45960</v>
       </c>
       <c r="E160" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F160" t="s">
-        <v>190</v>
-      </c>
-      <c r="H160" s="76"/>
+        <v>194</v>
+      </c>
+      <c r="H160" s="77"/>
       <c r="Y160">
-        <f t="shared" ref="Y160:Y171" ca="1" si="4">A159:Y183</f>
+        <f ca="1">A159:Y182</f>
         <v>0</v>
       </c>
     </row>
@@ -10632,14 +10752,14 @@
         <v>45960</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
-      </c>
-      <c r="H161" s="76"/>
+        <v>195</v>
+      </c>
+      <c r="H161" s="77"/>
       <c r="Y161">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">A160:Y183</f>
         <v>0</v>
       </c>
     </row>
@@ -10648,13 +10768,13 @@
         <v>45960</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F162" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y162">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">A161:Y184</f>
         <v>0</v>
       </c>
     </row>
@@ -10663,137 +10783,227 @@
         <v>45960</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F163" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Y163">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" s="83" customFormat="1" ht="15" customHeight="1">
-      <c r="A164" s="81"/>
-      <c r="B164" s="82"/>
-      <c r="C164" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D164" s="87">
+        <f ca="1">A162:Y185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A164" s="82"/>
+      <c r="B164" s="83"/>
+      <c r="C164" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D164" s="88">
         <v>45960</v>
       </c>
-      <c r="E164" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F164" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="G164" s="90" t="s">
-        <v>547</v>
-      </c>
-      <c r="L164" s="90" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y164" s="83">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" s="83" customFormat="1" ht="15" customHeight="1">
-      <c r="A165" s="81"/>
-      <c r="B165" s="82"/>
-      <c r="C165" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D165" s="87">
+      <c r="E164" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F164" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="K164" s="91" t="s">
+        <v>556</v>
+      </c>
+      <c r="L164" s="91" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y164" s="84">
+        <f ca="1">A163:Y186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A165" s="82"/>
+      <c r="B165" s="83"/>
+      <c r="C165" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D165" s="88">
         <v>45960</v>
       </c>
-      <c r="E165" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F165" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y165" s="83">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" s="83" customFormat="1" ht="15" customHeight="1">
-      <c r="A166" s="81"/>
-      <c r="B166" s="82"/>
-      <c r="C166" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D166" s="87">
+      <c r="E165" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F165" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y165" s="84">
+        <f ca="1">A164:Y187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A166" s="82"/>
+      <c r="B166" s="83"/>
+      <c r="C166" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D166" s="88">
         <v>45960</v>
       </c>
-      <c r="E166" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F166" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y166" s="83">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" ht="15" customHeight="1">
-      <c r="E167" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y167">
-        <f t="shared" ca="1" si="4"/>
+      <c r="E166" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F166" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y166" s="84">
+        <f ca="1">A165:Y188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A167" s="82"/>
+      <c r="B167" s="83" t="s">
+        <v>558</v>
+      </c>
+      <c r="C167" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D167" s="88">
+        <v>45987</v>
+      </c>
+      <c r="E167" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F167" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="G167" s="84" t="s">
+        <v>559</v>
+      </c>
+      <c r="I167" s="85" t="s">
+        <v>560</v>
+      </c>
+      <c r="J167" s="84" t="s">
+        <v>561</v>
+      </c>
+      <c r="K167" s="84" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y167" s="84">
+        <f ca="1">A166:Y189</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:25" ht="15" customHeight="1">
+      <c r="C168" t="s">
+        <v>563</v>
+      </c>
+      <c r="D168" s="11">
+        <v>45987</v>
+      </c>
       <c r="E168" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="F168" t="s">
+        <v>202</v>
+      </c>
+      <c r="G168" t="s">
+        <v>564</v>
+      </c>
+      <c r="J168" t="s">
+        <v>561</v>
       </c>
       <c r="Y168">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" ht="15" customHeight="1">
-      <c r="E169" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y169">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">A167:Y190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" s="84" customFormat="1" ht="15" customHeight="1">
+      <c r="A169" s="82"/>
+      <c r="B169" s="83"/>
+      <c r="C169" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D169" s="88">
+        <v>45987</v>
+      </c>
+      <c r="E169" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="F169" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y169" s="84">
+        <f ca="1">A168:Y191</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:25" ht="15" customHeight="1">
+      <c r="C170" t="s">
+        <v>231</v>
+      </c>
+      <c r="D170" s="11">
+        <v>45978</v>
+      </c>
       <c r="E170" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="F170" t="s">
+        <v>573</v>
       </c>
       <c r="Y170">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">A169:Y192</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:25" ht="15" customHeight="1">
+      <c r="C171" t="s">
+        <v>231</v>
+      </c>
+      <c r="D171" s="11">
+        <v>45979</v>
+      </c>
       <c r="E171" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="F171" t="s">
+        <v>574</v>
       </c>
       <c r="Y171">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">A170:Y193</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:25" ht="15" customHeight="1">
+      <c r="C172" t="s">
+        <v>231</v>
+      </c>
+      <c r="D172" s="11">
+        <v>45979</v>
+      </c>
       <c r="E172" s="65" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="F172" t="s">
+        <v>575</v>
       </c>
       <c r="Y172">
-        <f ca="1">A171:Y196</f>
+        <f ca="1">A172:Y196</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:25" ht="15" customHeight="1">
+      <c r="C173" t="s">
+        <v>231</v>
+      </c>
+      <c r="D173" s="11">
+        <v>45980</v>
+      </c>
+      <c r="E173" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="F173" t="s">
+        <v>576</v>
+      </c>
       <c r="Y173">
         <f ca="1">A172:Y197</f>
         <v>0</v>
@@ -10801,146 +11011,140 @@
     </row>
     <row r="174" spans="1:25" ht="15" customHeight="1">
       <c r="Y174">
-        <f ca="1">A173:Y198</f>
+        <f t="shared" ref="Y174:Y194" ca="1" si="3">A173:Y198</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:25" ht="15" customHeight="1">
       <c r="Y175">
-        <f t="shared" ref="Y175:Y195" ca="1" si="5">A174:Y199</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:25" ht="15" customHeight="1">
       <c r="Y176">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="25:25" ht="15" customHeight="1">
       <c r="Y177">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="25:25" ht="15" customHeight="1">
       <c r="Y178">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="25:25" ht="15" customHeight="1">
       <c r="Y179">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="25:25" ht="15" customHeight="1">
       <c r="Y180">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="25:25" ht="15" customHeight="1">
       <c r="Y181">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="25:25" ht="15" customHeight="1">
       <c r="Y182">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="25:25" ht="15" customHeight="1">
       <c r="Y183">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="25:25" ht="15" customHeight="1">
       <c r="Y184">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="25:25" ht="15" customHeight="1">
       <c r="Y185">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="25:25" ht="15" customHeight="1">
       <c r="Y186">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="25:25" ht="15" customHeight="1">
       <c r="Y187">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="25:25" ht="15" customHeight="1">
       <c r="Y188">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="25:25" ht="15" customHeight="1">
       <c r="Y189">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="25:25" ht="15" customHeight="1">
       <c r="Y190">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="25:25" ht="15" customHeight="1">
       <c r="Y191">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="25:25" ht="15" customHeight="1">
       <c r="Y192">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="6:25" ht="15" customHeight="1">
       <c r="Y193">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="6:25" ht="15" customHeight="1">
       <c r="Y194">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="6:25" ht="15" customHeight="1">
-      <c r="Y195">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="6:25" ht="15" customHeight="1">
-      <c r="F196" t="s">
-        <v>192</v>
+      <c r="F195" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1" xr:uid="{A8454660-2119-49DF-9E50-86E5643F5FA9}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V195" xr:uid="{CD648D1C-517C-42C8-B9E3-D8036FD1A4BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V194" xr:uid="{CD648D1C-517C-42C8-B9E3-D8036FD1A4BA}">
       <formula1>"yes , no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10995,22 +11199,23 @@
     <hyperlink ref="L7" r:id="rId48" xr:uid="{DF4FF99E-81F6-433C-A21E-5D2BF1BC783A}"/>
     <hyperlink ref="I136" r:id="rId49" xr:uid="{4FBA97CD-8C82-4502-9291-C1C3E1BF1E14}"/>
     <hyperlink ref="I158" r:id="rId50" xr:uid="{10514A06-9AF4-4431-B760-D4CD8FE5383A}"/>
+    <hyperlink ref="I167" r:id="rId51" xr:uid="{93E46F50-A889-44CD-A373-94651F2EDECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
-  <drawing r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
+  <drawing r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A4C288-A87C-49B3-B1E5-1AA21A4B10B3}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11023,21 +11228,21 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="G1" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="H1" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="B2" s="11">
         <v>45936</v>
@@ -11051,7 +11256,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="B3" s="11">
         <v>45937</v>
@@ -11065,7 +11270,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="B4" s="11">
         <v>45937</v>
@@ -11079,7 +11284,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="B5" s="11">
         <v>45942</v>
@@ -11093,7 +11298,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="B6" s="11">
         <v>45944</v>
@@ -11107,7 +11312,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B7" s="11">
         <v>45949</v>
@@ -11121,7 +11326,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11">
         <v>45946</v>
@@ -11135,7 +11340,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B9" s="11">
         <v>45958</v>
@@ -11148,6 +11353,12 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45985</v>
+      </c>
       <c r="G10">
         <v>15</v>
       </c>
@@ -11209,6 +11420,30 @@
       </c>
       <c r="H17" s="11">
         <v>45960</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" s="11">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20" s="11">
+        <v>45980</v>
       </c>
     </row>
   </sheetData>
